--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2C7A29-E0BD-4CDF-9B2D-D0D31548C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7829E18D-2EE4-4B1B-B3F5-00532E4AB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Class</t>
   </si>
@@ -105,18 +105,12 @@
     <t>Quantum Smith</t>
   </si>
   <si>
-    <t>An Antman-style artificer that weaves through combat by alternating between shrinking to minuscule sizes and expanding to enormous proportions.</t>
-  </si>
-  <si>
     <t>Barbarian</t>
   </si>
   <si>
     <t>Path of the Brawler</t>
   </si>
   <si>
-    <t>A grappler who punches, grabs, and throws enemies across the battlefield.</t>
-  </si>
-  <si>
     <t>Path of the Demon Soul</t>
   </si>
   <si>
@@ -132,42 +126,27 @@
     <t>Third</t>
   </si>
   <si>
-    <t>A demonic warrior with highly customizable fiendish abilities that functions as a 1/3 caster.</t>
-  </si>
-  <si>
     <t>Spell Caster</t>
   </si>
   <si>
-    <t>A barbarian whose rage manifests into lashing storms.  These storms can be lighting storms, sandstorms, or blizzards.</t>
-  </si>
-  <si>
     <t>Path of the Storm Herald (Alternate)</t>
   </si>
   <si>
     <t>Path of the Warcaller</t>
   </si>
   <si>
-    <t xml:space="preserve"> A primal warrior who uses a variety of battle cries to inspire allies and disrupt enemies.</t>
-  </si>
-  <si>
     <t>Bard</t>
   </si>
   <si>
     <t>Full</t>
   </si>
   <si>
-    <t xml:space="preserve">A bard who calls upon different types of ancient spirits to provide aid both in and out of combat. </t>
-  </si>
-  <si>
     <t>College of Elements</t>
   </si>
   <si>
     <t>College of The Ancients</t>
   </si>
   <si>
-    <t>A highly mobile bard with access to sorcerer spells who weaves fire, ice, and lighting to inspire allies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comprehension </t>
   </si>
   <si>
@@ -189,28 +168,58 @@
     <t>College of Fire Dancing</t>
   </si>
   <si>
-    <t>A flame wielding performer who spreads fires across the battlefield, turning it into a fiery stage.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bard </t>
   </si>
   <si>
     <t>College of Illumination</t>
   </si>
   <si>
-    <t>A dramatist who shines dramatic spotlights on allies to inspire them and on enemies to scorn them.  Also specializes in light magic and summons shadowy inkling minions.</t>
-  </si>
-  <si>
     <t>College of Pacts</t>
   </si>
   <si>
-    <t>A bard who gains access to warlock spells and eldritch invocations by plumbing forbidden lore.</t>
-  </si>
-  <si>
     <t>College of Revelry</t>
   </si>
   <si>
-    <t>A rioting rebel who inspires reckless behavior in enemies and allies alike.</t>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>Divine Domain - Destruction</t>
+  </si>
+  <si>
+    <t>A destructive cleric who unleashes divine wrath of biblical proportions</t>
+  </si>
+  <si>
+    <t>A rioting rebel who inspires reckless behavior in enemies and allies alike</t>
+  </si>
+  <si>
+    <t>A bard who gains access to warlock spells and eldritch invocations by plumbing forbidden lore</t>
+  </si>
+  <si>
+    <t>A dramatist who shines dramatic spotlights on allies to inspire them and on enemies to scorn them.  Also specializes in light magic and summons shadowy inkling minions</t>
+  </si>
+  <si>
+    <t>A flame wielding performer who spreads fires across the battlefield, turning it into a fiery stage</t>
+  </si>
+  <si>
+    <t>A highly mobile bard with access to sorcerer spells who weaves fire, ice, and lighting to inspire allies</t>
+  </si>
+  <si>
+    <t>A bard who calls upon different types of ancient spirits to provide aid both in and out of combat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A primal warrior who uses a variety of battle cries to inspire allies and disrupt enemies</t>
+  </si>
+  <si>
+    <t>A barbarian whose rage manifests into lashing storms.  These storms can be lihting storms, sandstorms, or blizzards.</t>
+  </si>
+  <si>
+    <t>A demonic warrior with highly customizable fiendish abilities that functions as a 1/3 caster</t>
+  </si>
+  <si>
+    <t>A grappler who punches, grabs, and throws enemies across the battlefield</t>
+  </si>
+  <si>
+    <t>An Antman-style artificer that weaves through combat by alternating between shrinking to minuscule sizes and expanding to enormous proportions</t>
   </si>
 </sst>
 </file>
@@ -313,34 +322,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,137 +662,137 @@
     <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.140625" style="1"/>
     <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="15" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-    </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+    </row>
+    <row r="2" spans="1:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>51</v>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
@@ -794,150 +803,164 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -964,8 +987,9 @@
     <hyperlink ref="B11" r:id="rId9" xr:uid="{BE37BC15-43C1-446A-B5A1-9DDC9ABBE6A4}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{B18ED3DA-E6DA-4B85-9688-B63504775A85}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{11172451-FD87-4C25-8DFC-2B12F8D7CD9B}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{67502A12-BA18-4C6E-ADF2-1CB1FB7E44AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7829E18D-2EE4-4B1B-B3F5-00532E4AB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B69272-73AD-4EB2-94E1-6ED9F5B1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>Class</t>
   </si>
@@ -210,9 +210,6 @@
     <t xml:space="preserve"> A primal warrior who uses a variety of battle cries to inspire allies and disrupt enemies</t>
   </si>
   <si>
-    <t>A barbarian whose rage manifests into lashing storms.  These storms can be lihting storms, sandstorms, or blizzards.</t>
-  </si>
-  <si>
     <t>A demonic warrior with highly customizable fiendish abilities that functions as a 1/3 caster</t>
   </si>
   <si>
@@ -220,6 +217,126 @@
   </si>
   <si>
     <t>An Antman-style artificer that weaves through combat by alternating between shrinking to minuscule sizes and expanding to enormous proportions</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>Circle of Essense</t>
+  </si>
+  <si>
+    <t>Circle of Geometry</t>
+  </si>
+  <si>
+    <t>Circle of Mountains</t>
+  </si>
+  <si>
+    <t>Circle of Restoration</t>
+  </si>
+  <si>
+    <t>Circle of Spores (Alternative)</t>
+  </si>
+  <si>
+    <t>Circle of Rivers</t>
+  </si>
+  <si>
+    <t>Circle of Grasslands</t>
+  </si>
+  <si>
+    <t>Circle of Twilight (Alternative)</t>
+  </si>
+  <si>
+    <t>Circle of Venom</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>Monk</t>
+  </si>
+  <si>
+    <t>Way of the World Soul</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Oath of Lore</t>
+  </si>
+  <si>
+    <t>A druid who manipulates the essence of life to alternate between draining vitality from enemies and restoring it to allies</t>
+  </si>
+  <si>
+    <t>A druid who summons fractal animals and creates magical geometric shapes across the battlefield to aid in combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A high-speed druid who specializes in transforming into grasslands animals while casting high mobility spells in these forms </t>
+  </si>
+  <si>
+    <t>Front Line</t>
+  </si>
+  <si>
+    <t>Mid Line</t>
+  </si>
+  <si>
+    <t>Back Line</t>
+  </si>
+  <si>
+    <t>A druid who specializes in transforming into mountain-dwelling animals, casting mountain themed spells, and even summoning miniature mountains</t>
+  </si>
+  <si>
+    <t>A druid who specializes in healing and enhancing multiple allies while simultaneously attacking enemies</t>
+  </si>
+  <si>
+    <t>A druid who specializes in transforming into river animals, casting river-themed spells, and even summoning miniature rivers</t>
+  </si>
+  <si>
+    <t>A fungus themed druid who fights using deadly spores and grows fungal minions from the corpses of enemies</t>
+  </si>
+  <si>
+    <t>A scythe-wielding druid who reaps foes and manipulates the line between life and death</t>
+  </si>
+  <si>
+    <t>A poison themed druid who specializes in transforming into venomous creatures</t>
+  </si>
+  <si>
+    <t>A selfless fighter who organizes the party and lends a helping hand to teammates in need</t>
+  </si>
+  <si>
+    <t>A monk who shares ki and martial arts abilities with allies through soul bonds</t>
+  </si>
+  <si>
+    <t>A versatile adventuring historian with access to advanced combat maneuvers, a wide range of skills, and aid from ancient spirits</t>
+  </si>
+  <si>
+    <t>Broken Oath - Madness</t>
+  </si>
+  <si>
+    <t>An oathbreaker who uses terror and illusions to isolate and control victims</t>
+  </si>
+  <si>
+    <t>Oath of The Legion</t>
+  </si>
+  <si>
+    <t>Oath of Vengeance (Alternative)</t>
+  </si>
+  <si>
+    <t>Oath of Wrath</t>
+  </si>
+  <si>
+    <t>A barbarian whose rage manifests into lashing storms.  These storms can be lightning storms, sandstorms, or blizzards.</t>
+  </si>
+  <si>
+    <t>An inspiring paladin who wields and casts spells through a weaponized, enchanted, throwable banner</t>
+  </si>
+  <si>
+    <t>An aggressive paladin that mercilessly hunts down chosen foes in battle</t>
+  </si>
+  <si>
+    <t>A flame wielding paladin that ruthlessly burns down evil doers en masse</t>
   </si>
 </sst>
 </file>
@@ -301,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +456,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -350,6 +473,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,170 +761,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="12" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AA1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-    </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+    </row>
+    <row r="2" spans="1:31" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -803,13 +944,15 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -817,13 +960,13 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -831,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -845,13 +988,13 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -865,7 +1008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -879,7 +1022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -893,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -907,7 +1050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -921,7 +1064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -935,7 +1078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -949,7 +1092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -963,17 +1106,241 @@
         <v>37</v>
       </c>
     </row>
+    <row r="15" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{93495F71-B436-49A2-8013-B6E6FCD1C889}"/>
@@ -988,8 +1355,24 @@
     <hyperlink ref="B12" r:id="rId10" xr:uid="{B18ED3DA-E6DA-4B85-9688-B63504775A85}"/>
     <hyperlink ref="B13" r:id="rId11" xr:uid="{11172451-FD87-4C25-8DFC-2B12F8D7CD9B}"/>
     <hyperlink ref="B14" r:id="rId12" xr:uid="{67502A12-BA18-4C6E-ADF2-1CB1FB7E44AE}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{CDA22DD6-58D7-4CD3-A5B1-7664D9A10B17}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{D3322A7D-5320-4B8D-BCB3-0B064925BC7B}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{634A2B13-8B8A-474E-903A-48756F0390BC}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{5FC76316-029E-4C93-91EB-EC292F079013}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{EEA47A3E-3619-439C-A62E-A20F471EC74B}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{93568C5D-95D9-4F2B-B917-65DEA5E91E23}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{EE816124-5CB0-4A4F-9E7E-5A0092AFD7EF}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{73BCB1B2-F6A9-4843-8B73-266CE9845469}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{68D42396-F42B-4C72-9061-039919CD847C}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{A0F8F097-546B-4331-858C-14FCA4FF7026}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{EAA64930-197B-4768-AA8E-0C289CA89CE0}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{31E306F5-6F8A-4CB2-8762-BFD75ED9C89C}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{B8232798-2786-4E9E-B5A5-EDAA516CA38B}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{782F7782-5B75-4475-8662-2240197F24FF}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{081C73CA-EB26-40FB-80EA-64B7BE0AA480}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{C6DD030D-9F8C-4272-929A-0EACEC073E5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B69272-73AD-4EB2-94E1-6ED9F5B1E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7460D9-FE13-41C0-A559-CDB8118A7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>Class</t>
   </si>
@@ -337,6 +337,27 @@
   </si>
   <si>
     <t>A flame wielding paladin that ruthlessly burns down evil doers en masse</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Agent of Fate</t>
+  </si>
+  <si>
+    <t>A mystic ranger who marks enemies for death and uses divination magic to track down doomed quarry</t>
+  </si>
+  <si>
+    <t>Mist Stalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A stealthy warrior that specializes in conjuring concealing fog and coordinating guerilla-style combat with teammates </t>
+  </si>
+  <si>
+    <t>Sea Dog</t>
+  </si>
+  <si>
+    <t>A whaler-inspired ranger always looking for the next big catch who fights using nets and harpoons</t>
   </si>
 </sst>
 </file>
@@ -459,6 +480,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -473,12 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,61 +822,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="14" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="18" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="12" t="s">
         <v>83</v>
       </c>
@@ -919,7 +940,7 @@
       <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="18"/>
+      <c r="Z2" s="20"/>
       <c r="AA2" s="7" t="s">
         <v>40</v>
       </c>
@@ -949,8 +970,8 @@
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1327,6 +1348,48 @@
         <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1371,8 +1434,11 @@
     <hyperlink ref="B28" r:id="rId26" xr:uid="{782F7782-5B75-4475-8662-2240197F24FF}"/>
     <hyperlink ref="B29" r:id="rId27" xr:uid="{081C73CA-EB26-40FB-80EA-64B7BE0AA480}"/>
     <hyperlink ref="B30" r:id="rId28" xr:uid="{C6DD030D-9F8C-4272-929A-0EACEC073E5E}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{3AF3F6EE-CE6F-455C-A0EB-A5C61287B5CA}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{F2B8D2B5-D925-43E8-BDCD-BC849E66F893}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{B71AE17B-4FBF-481D-BDA6-09CFBE3EBCF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId32"/>
 </worksheet>
 </file>
--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7460D9-FE13-41C0-A559-CDB8118A7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CFDE48-D9EA-4B74-851E-D7DBBA6C55CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
   <si>
     <t>Class</t>
   </si>
@@ -358,6 +358,72 @@
   </si>
   <si>
     <t>A whaler-inspired ranger always looking for the next big catch who fights using nets and harpoons</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Deadeye</t>
+  </si>
+  <si>
+    <t>Spellthief</t>
+  </si>
+  <si>
+    <t>A sharpshooting rogue who fires carefully aimed trick shots capable of inflicting a variety of effects upon their targets</t>
+  </si>
+  <si>
+    <t>A rogue who uses sneak attacks to steal spells and other supernatural abilities from targets</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
+    <t>Elemental Conflux</t>
+  </si>
+  <si>
+    <t>A sorcerer who wields and combines the elemental powers of earth, fire, water, and wind into customized elemental spells and summoned elemental amalgams</t>
+  </si>
+  <si>
+    <t>Wild Magic (Alternative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chaotic caster who can unleash powerful spells at random and whose magic occasionally causes unpredictable arcane anomalies </t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>Otherworldly Patron - The Council</t>
+  </si>
+  <si>
+    <t>Otherworldly Patron - The Influencer</t>
+  </si>
+  <si>
+    <t>Otherworlderly Patron - The Cauldron</t>
+  </si>
+  <si>
+    <t>An apothecary who draws eldritch power from an enchanted cauldron and harvests ingredients to brew into arcane concoctions</t>
+  </si>
+  <si>
+    <t>A warlock who's made a pact with some form of mystical organization and is capable of creating and enforcing magical contracts to control others</t>
+  </si>
+  <si>
+    <t>A brazen warlock who's made a pact to achieve fame or influence over others and can use these powers to belittle and diminish the abilities of enemies</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>School of Invention (Alternate)</t>
+  </si>
+  <si>
+    <t>School of Numerology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reckless innovator who uses an arcane apparatus to enhance spells, pushing its power to the limit at the risk of magical disaster </t>
+  </si>
+  <si>
+    <t>A mathemagician who uses magic numbers to solve arcane equations which can be used to alter the nature of reality in calculated ways</t>
   </si>
 </sst>
 </file>
@@ -782,17 +848,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1391,6 +1457,132 @@
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1437,8 +1629,17 @@
     <hyperlink ref="B31" r:id="rId29" xr:uid="{3AF3F6EE-CE6F-455C-A0EB-A5C61287B5CA}"/>
     <hyperlink ref="B32" r:id="rId30" xr:uid="{F2B8D2B5-D925-43E8-BDCD-BC849E66F893}"/>
     <hyperlink ref="B33" r:id="rId31" xr:uid="{B71AE17B-4FBF-481D-BDA6-09CFBE3EBCF4}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{EB1F7152-3946-42A1-B78E-9CDA78D08240}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{4F24CD04-9548-48F6-96BB-A2A221528C48}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{8ADB10D1-DE45-4B43-B4CC-FC4A2547D8E8}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{108963DA-E279-49AA-8696-0AEABB87D523}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{2267B16F-FD78-47AA-A448-4E3F18595A84}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{B02E6E63-A75E-439E-A409-4E9A268DA50A}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{BCED63E1-55A4-4F42-82FE-2952B582019E}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{1C99A195-A3F2-4110-BAC4-0B33B4EC29F5}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{FEB228C6-716E-4818-B0CB-D9908B1B5289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
 </worksheet>
 </file>
--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34438D08-23BF-4184-89B9-1AB09CDF6056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9D25BF-C41D-4FA9-8776-D89633E1429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,6 +1631,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,19 +1691,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,42 +1701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424C784-E472-4D2E-A203-633AE1B9346C}">
   <dimension ref="A1:N242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,74 +2036,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="51"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="52" t="s">
         <v>139</v>
       </c>
       <c r="I3" s="39" t="s">
@@ -2114,14 +2114,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="39" t="s">
         <v>39</v>
       </c>
@@ -2130,14 +2130,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="39" t="s">
         <v>230</v>
       </c>
@@ -2146,14 +2146,14 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="39" t="s">
         <v>40</v>
       </c>
@@ -2162,14 +2162,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="39" t="s">
         <v>38</v>
       </c>
@@ -2178,14 +2178,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="41" t="s">
         <v>231</v>
       </c>
@@ -2195,28 +2195,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="57" t="s">
         <v>145</v>
       </c>
       <c r="I9" s="42" t="s">
@@ -2227,14 +2227,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="39" t="s">
         <v>39</v>
       </c>
@@ -2243,14 +2243,14 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="39" t="s">
         <v>230</v>
       </c>
@@ -2259,14 +2259,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="39" t="s">
         <v>40</v>
       </c>
@@ -2275,14 +2275,14 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="39" t="s">
         <v>38</v>
       </c>
@@ -2291,14 +2291,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="41" t="s">
         <v>231</v>
       </c>
@@ -2308,28 +2308,28 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="57" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="42" t="s">
@@ -2340,14 +2340,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="39" t="s">
         <v>39</v>
       </c>
@@ -2356,14 +2356,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="39" t="s">
         <v>230</v>
       </c>
@@ -2372,14 +2372,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="39" t="s">
         <v>40</v>
       </c>
@@ -2388,14 +2388,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="39" t="s">
         <v>38</v>
       </c>
@@ -2404,14 +2404,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="41" t="s">
         <v>231</v>
       </c>
@@ -2421,28 +2421,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="57" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="42" t="s">
@@ -2453,14 +2453,14 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="39" t="s">
         <v>39</v>
       </c>
@@ -2469,14 +2469,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="39" t="s">
         <v>230</v>
       </c>
@@ -2485,14 +2485,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="39" t="s">
         <v>40</v>
       </c>
@@ -2501,14 +2501,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="39" t="s">
         <v>38</v>
       </c>
@@ -2517,14 +2517,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="41" t="s">
         <v>231</v>
       </c>
@@ -2534,28 +2534,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="52" t="s">
         <v>149</v>
       </c>
       <c r="I27" s="42" t="s">
@@ -2566,14 +2566,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="39" t="s">
         <v>39</v>
       </c>
@@ -2582,14 +2582,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="39" t="s">
         <v>230</v>
       </c>
@@ -2598,14 +2598,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="39" t="s">
         <v>40</v>
       </c>
@@ -2614,14 +2614,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="39" t="s">
         <v>38</v>
       </c>
@@ -2630,14 +2630,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="41" t="s">
         <v>231</v>
       </c>
@@ -2647,28 +2647,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="52" t="s">
         <v>151</v>
       </c>
       <c r="I33" s="42" t="s">
@@ -2679,14 +2679,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="39" t="s">
         <v>39</v>
       </c>
@@ -2695,14 +2695,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="39" t="s">
         <v>230</v>
       </c>
@@ -2711,14 +2711,14 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="39" t="s">
         <v>40</v>
       </c>
@@ -2727,14 +2727,14 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="39" t="s">
         <v>38</v>
       </c>
@@ -2743,14 +2743,14 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="41" t="s">
         <v>231</v>
       </c>
@@ -2760,28 +2760,28 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="56" t="s">
+      <c r="H39" s="52" t="s">
         <v>154</v>
       </c>
       <c r="I39" s="42" t="s">
@@ -2792,14 +2792,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="39" t="s">
         <v>39</v>
       </c>
@@ -2808,14 +2808,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="39" t="s">
         <v>230</v>
       </c>
@@ -2824,14 +2824,14 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="39" t="s">
         <v>40</v>
       </c>
@@ -2840,14 +2840,14 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="39" t="s">
         <v>38</v>
       </c>
@@ -2856,14 +2856,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="41" t="s">
         <v>231</v>
       </c>
@@ -2873,28 +2873,28 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="55" t="s">
+      <c r="H45" s="48" t="s">
         <v>156</v>
       </c>
       <c r="I45" s="42" t="s">
@@ -2905,14 +2905,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="39" t="s">
         <v>39</v>
       </c>
@@ -2921,14 +2921,14 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="39" t="s">
         <v>230</v>
       </c>
@@ -2937,14 +2937,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="39" t="s">
         <v>40</v>
       </c>
@@ -2953,14 +2953,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="39" t="s">
         <v>38</v>
       </c>
@@ -2969,14 +2969,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="41" t="s">
         <v>231</v>
       </c>
@@ -2986,28 +2986,28 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="55" t="s">
+      <c r="H51" s="48" t="s">
         <v>158</v>
       </c>
       <c r="I51" s="42" t="s">
@@ -3018,14 +3018,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="39" t="s">
         <v>39</v>
       </c>
@@ -3034,14 +3034,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
       <c r="I53" s="39" t="s">
         <v>230</v>
       </c>
@@ -3050,14 +3050,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="39" t="s">
         <v>40</v>
       </c>
@@ -3066,14 +3066,14 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="39" t="s">
         <v>38</v>
       </c>
@@ -3082,14 +3082,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="41" t="s">
         <v>231</v>
       </c>
@@ -3099,28 +3099,28 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="55" t="s">
+      <c r="H57" s="48" t="s">
         <v>160</v>
       </c>
       <c r="I57" s="42" t="s">
@@ -3131,14 +3131,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="39" t="s">
         <v>39</v>
       </c>
@@ -3147,14 +3147,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
       <c r="I59" s="39" t="s">
         <v>230</v>
       </c>
@@ -3163,14 +3163,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
       <c r="I60" s="39" t="s">
         <v>40</v>
       </c>
@@ -3179,14 +3179,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="39" t="s">
         <v>38</v>
       </c>
@@ -3195,14 +3195,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
       <c r="I62" s="41" t="s">
         <v>231</v>
       </c>
@@ -3212,28 +3212,28 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="H63" s="55" t="s">
+      <c r="H63" s="48" t="s">
         <v>163</v>
       </c>
       <c r="I63" s="42" t="s">
@@ -3244,14 +3244,14 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
       <c r="I64" s="39" t="s">
         <v>39</v>
       </c>
@@ -3260,14 +3260,14 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="39" t="s">
         <v>230</v>
       </c>
@@ -3276,14 +3276,14 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
       <c r="I66" s="39" t="s">
         <v>40</v>
       </c>
@@ -3292,14 +3292,14 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
       <c r="I67" s="39" t="s">
         <v>38</v>
       </c>
@@ -3308,14 +3308,14 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
       <c r="I68" s="41" t="s">
         <v>231</v>
       </c>
@@ -3325,28 +3325,28 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="55" t="s">
+      <c r="E69" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="H69" s="55" t="s">
+      <c r="H69" s="48" t="s">
         <v>15</v>
       </c>
       <c r="I69" s="42" t="s">
@@ -3357,14 +3357,14 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="39" t="s">
         <v>39</v>
       </c>
@@ -3373,14 +3373,14 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
       <c r="I71" s="39" t="s">
         <v>230</v>
       </c>
@@ -3389,14 +3389,14 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
       <c r="I72" s="39" t="s">
         <v>40</v>
       </c>
@@ -3405,14 +3405,14 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
       <c r="I73" s="39" t="s">
         <v>38</v>
       </c>
@@ -3421,14 +3421,14 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
       <c r="I74" s="41" t="s">
         <v>231</v>
       </c>
@@ -3438,28 +3438,28 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="66" t="s">
+      <c r="D75" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="H75" s="55" t="s">
+      <c r="H75" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I75" s="42" t="s">
@@ -3470,14 +3470,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
       <c r="I76" s="39" t="s">
         <v>39</v>
       </c>
@@ -3486,14 +3486,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
       <c r="I77" s="39" t="s">
         <v>230</v>
       </c>
@@ -3502,14 +3502,14 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
       <c r="I78" s="39" t="s">
         <v>40</v>
       </c>
@@ -3518,14 +3518,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
       <c r="I79" s="39" t="s">
         <v>38</v>
       </c>
@@ -3534,14 +3534,14 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="41" t="s">
         <v>231</v>
       </c>
@@ -3551,28 +3551,28 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="55" t="s">
+      <c r="E81" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="55" t="s">
+      <c r="G81" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H81" s="55" t="s">
+      <c r="H81" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I81" s="42" t="s">
@@ -3583,14 +3583,14 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
       <c r="I82" s="39" t="s">
         <v>39</v>
       </c>
@@ -3599,14 +3599,14 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
       <c r="I83" s="39" t="s">
         <v>230</v>
       </c>
@@ -3615,14 +3615,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="39" t="s">
         <v>40</v>
       </c>
@@ -3631,14 +3631,14 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
       <c r="I85" s="39" t="s">
         <v>38</v>
       </c>
@@ -3647,14 +3647,14 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
       <c r="I86" s="41" t="s">
         <v>231</v>
       </c>
@@ -3664,28 +3664,28 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="66" t="s">
+      <c r="D87" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="55" t="s">
+      <c r="E87" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F87" s="55" t="s">
+      <c r="F87" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="55" t="s">
+      <c r="H87" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I87" s="42" t="s">
@@ -3696,14 +3696,14 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
       <c r="I88" s="39" t="s">
         <v>39</v>
       </c>
@@ -3712,14 +3712,14 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
       <c r="I89" s="39" t="s">
         <v>230</v>
       </c>
@@ -3728,14 +3728,14 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
       <c r="I90" s="39" t="s">
         <v>40</v>
       </c>
@@ -3744,14 +3744,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="52"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="39" t="s">
         <v>38</v>
       </c>
@@ -3760,14 +3760,14 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="52"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
       <c r="I92" s="41" t="s">
         <v>231</v>
       </c>
@@ -3777,28 +3777,28 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="66" t="s">
+      <c r="D93" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E93" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G93" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="55" t="s">
+      <c r="H93" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I93" s="42" t="s">
@@ -3809,14 +3809,14 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
       <c r="I94" s="39" t="s">
         <v>39</v>
       </c>
@@ -3825,14 +3825,14 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="39" t="s">
         <v>230</v>
       </c>
@@ -3841,14 +3841,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="39" t="s">
         <v>40</v>
       </c>
@@ -3857,14 +3857,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
       <c r="I97" s="39" t="s">
         <v>38</v>
       </c>
@@ -3873,14 +3873,14 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="41" t="s">
         <v>231</v>
       </c>
@@ -3890,28 +3890,28 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="66" t="s">
+      <c r="D99" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="55" t="s">
+      <c r="E99" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="H99" s="55" t="s">
+      <c r="H99" s="48" t="s">
         <v>171</v>
       </c>
       <c r="I99" s="42" t="s">
@@ -3922,14 +3922,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="39" t="s">
         <v>39</v>
       </c>
@@ -3938,14 +3938,14 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="52"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
       <c r="I101" s="39" t="s">
         <v>230</v>
       </c>
@@ -3954,14 +3954,14 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
+      <c r="A102" s="49"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="39" t="s">
         <v>40</v>
       </c>
@@ -3970,14 +3970,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="52"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
       <c r="I103" s="39" t="s">
         <v>38</v>
       </c>
@@ -3986,14 +3986,14 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
+      <c r="A104" s="49"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
       <c r="I104" s="41" t="s">
         <v>231</v>
       </c>
@@ -4003,28 +4003,28 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="66" t="s">
+      <c r="D105" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="55" t="s">
+      <c r="E105" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F105" s="55" t="s">
+      <c r="F105" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="55" t="s">
+      <c r="G105" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="H105" s="55" t="s">
+      <c r="H105" s="48" t="s">
         <v>171</v>
       </c>
       <c r="I105" s="42" t="s">
@@ -4035,14 +4035,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
       <c r="I106" s="39" t="s">
         <v>39</v>
       </c>
@@ -4051,14 +4051,14 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
       <c r="I107" s="39" t="s">
         <v>230</v>
       </c>
@@ -4067,14 +4067,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="39" t="s">
         <v>40</v>
       </c>
@@ -4083,14 +4083,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
       <c r="I109" s="39" t="s">
         <v>38</v>
       </c>
@@ -4099,14 +4099,14 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
       <c r="I110" s="41" t="s">
         <v>231</v>
       </c>
@@ -4116,28 +4116,28 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="66" t="s">
+      <c r="D111" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="55" t="s">
+      <c r="E111" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F111" s="55" t="s">
+      <c r="F111" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G111" s="55" t="s">
+      <c r="G111" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H111" s="55" t="s">
+      <c r="H111" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I111" s="42" t="s">
@@ -4148,14 +4148,14 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="55"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="39" t="s">
         <v>39</v>
       </c>
@@ -4164,14 +4164,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="52"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55"/>
-      <c r="H113" s="55"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
       <c r="I113" s="39" t="s">
         <v>230</v>
       </c>
@@ -4180,14 +4180,14 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
       <c r="I114" s="39" t="s">
         <v>40</v>
       </c>
@@ -4196,14 +4196,14 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="55"/>
-      <c r="H115" s="55"/>
+      <c r="A115" s="49"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
       <c r="I115" s="39" t="s">
         <v>38</v>
       </c>
@@ -4212,14 +4212,14 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
+      <c r="A116" s="49"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
       <c r="I116" s="41" t="s">
         <v>231</v>
       </c>
@@ -4229,28 +4229,28 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="C117" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D117" s="66" t="s">
+      <c r="D117" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E117" s="55" t="s">
+      <c r="E117" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F117" s="55" t="s">
+      <c r="F117" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="H117" s="55" t="s">
+      <c r="H117" s="48" t="s">
         <v>171</v>
       </c>
       <c r="I117" s="42" t="s">
@@ -4261,14 +4261,14 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
+      <c r="A118" s="49"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
       <c r="I118" s="39" t="s">
         <v>39</v>
       </c>
@@ -4277,14 +4277,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="55"/>
+      <c r="A119" s="49"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
       <c r="I119" s="39" t="s">
         <v>230</v>
       </c>
@@ -4293,14 +4293,14 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="52"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
+      <c r="A120" s="49"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
       <c r="I120" s="39" t="s">
         <v>40</v>
       </c>
@@ -4309,14 +4309,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="52"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
+      <c r="A121" s="49"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
       <c r="I121" s="39" t="s">
         <v>38</v>
       </c>
@@ -4325,14 +4325,14 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
+      <c r="A122" s="49"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="51"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
       <c r="I122" s="41" t="s">
         <v>231</v>
       </c>
@@ -4342,28 +4342,28 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="66" t="s">
+      <c r="D123" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E123" s="55" t="s">
+      <c r="E123" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F123" s="55" t="s">
+      <c r="F123" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G123" s="55" t="s">
+      <c r="G123" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H123" s="55" t="s">
+      <c r="H123" s="48" t="s">
         <v>171</v>
       </c>
       <c r="I123" s="42" t="s">
@@ -4374,14 +4374,14 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="55"/>
+      <c r="A124" s="49"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
       <c r="I124" s="39" t="s">
         <v>39</v>
       </c>
@@ -4390,14 +4390,14 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
       <c r="I125" s="39" t="s">
         <v>230</v>
       </c>
@@ -4406,14 +4406,14 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
       <c r="I126" s="39" t="s">
         <v>40</v>
       </c>
@@ -4422,14 +4422,14 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
+      <c r="A127" s="49"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
       <c r="I127" s="39" t="s">
         <v>38</v>
       </c>
@@ -4438,14 +4438,14 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
+      <c r="A128" s="49"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
       <c r="I128" s="41" t="s">
         <v>231</v>
       </c>
@@ -4455,28 +4455,28 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="53" t="s">
+      <c r="B129" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="52" t="s">
+      <c r="C129" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="66" t="s">
+      <c r="D129" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E129" s="55" t="s">
+      <c r="E129" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F129" s="55" t="s">
+      <c r="F129" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="G129" s="55" t="s">
+      <c r="G129" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="H129" s="55" t="s">
+      <c r="H129" s="48" t="s">
         <v>178</v>
       </c>
       <c r="I129" s="42" t="s">
@@ -4487,14 +4487,14 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="55"/>
+      <c r="A130" s="49"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
       <c r="I130" s="39" t="s">
         <v>39</v>
       </c>
@@ -4503,14 +4503,14 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="55"/>
+      <c r="A131" s="49"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
       <c r="I131" s="39" t="s">
         <v>230</v>
       </c>
@@ -4519,14 +4519,14 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
+      <c r="A132" s="49"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
       <c r="I132" s="39" t="s">
         <v>40</v>
       </c>
@@ -4535,14 +4535,14 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="52"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="55"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="48"/>
+      <c r="H133" s="48"/>
       <c r="I133" s="39" t="s">
         <v>38</v>
       </c>
@@ -4551,14 +4551,14 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
+      <c r="A134" s="49"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="48"/>
+      <c r="H134" s="48"/>
       <c r="I134" s="41" t="s">
         <v>231</v>
       </c>
@@ -4568,28 +4568,28 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="52" t="s">
+      <c r="C135" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="66" t="s">
+      <c r="D135" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E135" s="55" t="s">
+      <c r="E135" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="55" t="s">
+      <c r="F135" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G135" s="55" t="s">
+      <c r="G135" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="H135" s="55" t="s">
+      <c r="H135" s="48" t="s">
         <v>180</v>
       </c>
       <c r="I135" s="42" t="s">
@@ -4600,14 +4600,14 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="55"/>
-      <c r="H136" s="55"/>
+      <c r="A136" s="49"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="48"/>
+      <c r="H136" s="48"/>
       <c r="I136" s="39" t="s">
         <v>39</v>
       </c>
@@ -4616,14 +4616,14 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
       <c r="I137" s="39" t="s">
         <v>230</v>
       </c>
@@ -4632,14 +4632,14 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="55"/>
+      <c r="A138" s="49"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
+      <c r="H138" s="48"/>
       <c r="I138" s="39" t="s">
         <v>40</v>
       </c>
@@ -4648,14 +4648,14 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
-      <c r="H139" s="55"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="48"/>
       <c r="I139" s="39" t="s">
         <v>38</v>
       </c>
@@ -4664,14 +4664,14 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="52"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="55"/>
+      <c r="A140" s="49"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
       <c r="I140" s="41" t="s">
         <v>231</v>
       </c>
@@ -4681,28 +4681,28 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D141" s="66" t="s">
+      <c r="D141" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="55" t="s">
+      <c r="E141" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="55" t="s">
+      <c r="F141" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G141" s="55" t="s">
+      <c r="G141" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="H141" s="55" t="s">
+      <c r="H141" s="48" t="s">
         <v>182</v>
       </c>
       <c r="I141" s="42" t="s">
@@ -4713,14 +4713,14 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="52"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="55"/>
-      <c r="H142" s="55"/>
+      <c r="A142" s="49"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
+      <c r="H142" s="48"/>
       <c r="I142" s="39" t="s">
         <v>39</v>
       </c>
@@ -4729,14 +4729,14 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="52"/>
-      <c r="B143" s="53"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
-      <c r="H143" s="55"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="48"/>
       <c r="I143" s="39" t="s">
         <v>230</v>
       </c>
@@ -4745,14 +4745,14 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="55"/>
+      <c r="A144" s="49"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
       <c r="I144" s="39" t="s">
         <v>40</v>
       </c>
@@ -4761,14 +4761,14 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="49"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
       <c r="I145" s="39" t="s">
         <v>38</v>
       </c>
@@ -4777,14 +4777,14 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="55"/>
+      <c r="A146" s="49"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="48"/>
+      <c r="H146" s="48"/>
       <c r="I146" s="41" t="s">
         <v>231</v>
       </c>
@@ -4794,28 +4794,28 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B147" s="53" t="s">
+      <c r="B147" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="52" t="s">
+      <c r="C147" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D147" s="66" t="s">
+      <c r="D147" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E147" s="55" t="s">
+      <c r="E147" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F147" s="55" t="s">
+      <c r="F147" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G147" s="55" t="s">
+      <c r="G147" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="H147" s="55" t="s">
+      <c r="H147" s="48" t="s">
         <v>182</v>
       </c>
       <c r="I147" s="42" t="s">
@@ -4826,14 +4826,14 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="66"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55"/>
-      <c r="G148" s="55"/>
-      <c r="H148" s="55"/>
+      <c r="A148" s="49"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="48"/>
       <c r="I148" s="39" t="s">
         <v>39</v>
       </c>
@@ -4842,14 +4842,14 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="55"/>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55"/>
+      <c r="A149" s="49"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+      <c r="H149" s="48"/>
       <c r="I149" s="39" t="s">
         <v>230</v>
       </c>
@@ -4858,14 +4858,14 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="52"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="50"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
       <c r="I150" s="39" t="s">
         <v>40</v>
       </c>
@@ -4874,14 +4874,14 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="52"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="66"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="55"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
       <c r="I151" s="39" t="s">
         <v>38</v>
       </c>
@@ -4890,14 +4890,14 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="52"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="55"/>
-      <c r="G152" s="55"/>
-      <c r="H152" s="55"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
       <c r="I152" s="41" t="s">
         <v>231</v>
       </c>
@@ -4907,28 +4907,28 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="53" t="s">
+      <c r="B153" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D153" s="66" t="s">
+      <c r="D153" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E153" s="55" t="s">
+      <c r="E153" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F153" s="55" t="s">
+      <c r="F153" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G153" s="55" t="s">
+      <c r="G153" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="H153" s="55" t="s">
+      <c r="H153" s="48" t="s">
         <v>182</v>
       </c>
       <c r="I153" s="42" t="s">
@@ -4939,14 +4939,14 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="52"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="55"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
       <c r="I154" s="39" t="s">
         <v>39</v>
       </c>
@@ -4955,14 +4955,14 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="52"/>
-      <c r="B155" s="53"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="55"/>
-      <c r="G155" s="55"/>
-      <c r="H155" s="55"/>
+      <c r="A155" s="49"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="51"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
       <c r="I155" s="39" t="s">
         <v>230</v>
       </c>
@@ -4971,14 +4971,14 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="52"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="55"/>
-      <c r="F156" s="55"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="55"/>
+      <c r="A156" s="49"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="51"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48"/>
       <c r="I156" s="39" t="s">
         <v>40</v>
       </c>
@@ -4987,14 +4987,14 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="52"/>
-      <c r="B157" s="53"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="55"/>
-      <c r="F157" s="55"/>
-      <c r="G157" s="55"/>
-      <c r="H157" s="55"/>
+      <c r="A157" s="49"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="51"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="48"/>
       <c r="I157" s="39" t="s">
         <v>38</v>
       </c>
@@ -5003,14 +5003,14 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="52"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="66"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="55"/>
-      <c r="G158" s="55"/>
-      <c r="H158" s="55"/>
+      <c r="A158" s="49"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="51"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
       <c r="I158" s="41" t="s">
         <v>231</v>
       </c>
@@ -5020,28 +5020,28 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B159" s="53" t="s">
+      <c r="B159" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D159" s="66" t="s">
+      <c r="D159" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="55" t="s">
+      <c r="E159" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F159" s="55" t="s">
+      <c r="F159" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="55" t="s">
+      <c r="G159" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="H159" s="55" t="s">
+      <c r="H159" s="48" t="s">
         <v>182</v>
       </c>
       <c r="I159" s="42" t="s">
@@ -5052,14 +5052,14 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="52"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="55"/>
-      <c r="G160" s="55"/>
-      <c r="H160" s="55"/>
+      <c r="A160" s="49"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="51"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
       <c r="I160" s="39" t="s">
         <v>39</v>
       </c>
@@ -5068,14 +5068,14 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="52"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="66"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="55"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="55"/>
+      <c r="A161" s="49"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
       <c r="I161" s="39" t="s">
         <v>230</v>
       </c>
@@ -5084,14 +5084,14 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="55"/>
-      <c r="F162" s="55"/>
-      <c r="G162" s="55"/>
-      <c r="H162" s="55"/>
+      <c r="A162" s="49"/>
+      <c r="B162" s="50"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="51"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="48"/>
       <c r="I162" s="39" t="s">
         <v>40</v>
       </c>
@@ -5100,14 +5100,14 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="52"/>
-      <c r="B163" s="53"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="55"/>
-      <c r="G163" s="55"/>
-      <c r="H163" s="55"/>
+      <c r="A163" s="49"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="51"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="48"/>
+      <c r="H163" s="48"/>
       <c r="I163" s="39" t="s">
         <v>38</v>
       </c>
@@ -5116,14 +5116,14 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="52"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="55"/>
-      <c r="H164" s="55"/>
+      <c r="A164" s="49"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
       <c r="I164" s="41" t="s">
         <v>231</v>
       </c>
@@ -5133,28 +5133,28 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B165" s="53" t="s">
+      <c r="B165" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="66" t="s">
+      <c r="D165" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="55" t="s">
+      <c r="E165" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F165" s="55" t="s">
+      <c r="F165" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G165" s="55" t="s">
+      <c r="G165" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H165" s="55" t="s">
+      <c r="H165" s="48" t="s">
         <v>187</v>
       </c>
       <c r="I165" s="42" t="s">
@@ -5165,14 +5165,14 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="52"/>
-      <c r="B166" s="53"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="66"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="55"/>
+      <c r="A166" s="49"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="49"/>
+      <c r="D166" s="51"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
       <c r="I166" s="39" t="s">
         <v>39</v>
       </c>
@@ -5181,30 +5181,30 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="52"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="66"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="55"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="55"/>
+      <c r="A167" s="49"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="51"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="48"/>
       <c r="I167" s="39" t="s">
         <v>230</v>
       </c>
       <c r="J167" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="52"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="66"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="55"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="55"/>
+      <c r="A168" s="49"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="51"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48"/>
+      <c r="H168" s="48"/>
       <c r="I168" s="39" t="s">
         <v>40</v>
       </c>
@@ -5213,14 +5213,14 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="52"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="66"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
       <c r="I169" s="39" t="s">
         <v>38</v>
       </c>
@@ -5229,45 +5229,45 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="52"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="66"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="51"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
       <c r="I170" s="41" t="s">
         <v>231</v>
       </c>
       <c r="J170" s="33">
         <f>AVERAGE(J165:J169)</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B171" s="53" t="s">
+      <c r="B171" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C171" s="52" t="s">
+      <c r="C171" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D171" s="66" t="s">
+      <c r="D171" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E171" s="55" t="s">
+      <c r="E171" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F171" s="55" t="s">
+      <c r="F171" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G171" s="55" t="s">
+      <c r="G171" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="H171" s="55" t="s">
+      <c r="H171" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I171" s="42" t="s">
@@ -5278,14 +5278,14 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="52"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="52"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="55"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="48"/>
       <c r="I172" s="39" t="s">
         <v>39</v>
       </c>
@@ -5294,14 +5294,14 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="52"/>
-      <c r="B173" s="53"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="66"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
       <c r="I173" s="39" t="s">
         <v>230</v>
       </c>
@@ -5310,14 +5310,14 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="52"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="55"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="49"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
       <c r="I174" s="39" t="s">
         <v>40</v>
       </c>
@@ -5326,14 +5326,14 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="52"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="55"/>
+      <c r="A175" s="49"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="49"/>
+      <c r="D175" s="51"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
       <c r="I175" s="39" t="s">
         <v>38</v>
       </c>
@@ -5342,14 +5342,14 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="52"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="52"/>
-      <c r="D176" s="66"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
+      <c r="A176" s="49"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
       <c r="I176" s="41" t="s">
         <v>231</v>
       </c>
@@ -5359,28 +5359,28 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B177" s="53" t="s">
+      <c r="B177" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="52" t="s">
+      <c r="C177" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="D177" s="66" t="s">
+      <c r="D177" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="55" t="s">
+      <c r="E177" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F177" s="55" t="s">
+      <c r="F177" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="55" t="s">
+      <c r="G177" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="H177" s="55" t="s">
+      <c r="H177" s="48" t="s">
         <v>189</v>
       </c>
       <c r="I177" s="42" t="s">
@@ -5391,14 +5391,14 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="52"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="66"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="55"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="55"/>
+      <c r="A178" s="49"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
       <c r="I178" s="39" t="s">
         <v>39</v>
       </c>
@@ -5407,14 +5407,14 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="66"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="55"/>
-      <c r="G179" s="55"/>
-      <c r="H179" s="55"/>
+      <c r="A179" s="49"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
       <c r="I179" s="39" t="s">
         <v>230</v>
       </c>
@@ -5423,14 +5423,14 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="66"/>
-      <c r="E180" s="55"/>
-      <c r="F180" s="55"/>
-      <c r="G180" s="55"/>
-      <c r="H180" s="55"/>
+      <c r="A180" s="49"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="49"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
       <c r="I180" s="39" t="s">
         <v>40</v>
       </c>
@@ -5439,14 +5439,14 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="52"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="66"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
+      <c r="A181" s="49"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
       <c r="I181" s="39" t="s">
         <v>38</v>
       </c>
@@ -5455,14 +5455,14 @@
       </c>
     </row>
     <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="52"/>
-      <c r="B182" s="53"/>
-      <c r="C182" s="52"/>
-      <c r="D182" s="66"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
+      <c r="A182" s="49"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="51"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
       <c r="I182" s="41" t="s">
         <v>231</v>
       </c>
@@ -5472,28 +5472,28 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D183" s="66" t="s">
+      <c r="D183" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="55" t="s">
+      <c r="E183" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F183" s="55" t="s">
+      <c r="F183" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="55" t="s">
+      <c r="G183" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="H183" s="55" t="s">
+      <c r="H183" s="48" t="s">
         <v>165</v>
       </c>
       <c r="I183" s="42" t="s">
@@ -5504,14 +5504,14 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="52"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="66"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="55"/>
-      <c r="G184" s="55"/>
-      <c r="H184" s="55"/>
+      <c r="A184" s="49"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="49"/>
+      <c r="D184" s="51"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
       <c r="I184" s="39" t="s">
         <v>39</v>
       </c>
@@ -5520,14 +5520,14 @@
       </c>
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="52"/>
-      <c r="B185" s="53"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="66"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55"/>
-      <c r="H185" s="55"/>
+      <c r="A185" s="49"/>
+      <c r="B185" s="50"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="51"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
       <c r="I185" s="39" t="s">
         <v>230</v>
       </c>
@@ -5536,14 +5536,14 @@
       </c>
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="52"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="52"/>
-      <c r="D186" s="66"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="55"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="55"/>
+      <c r="A186" s="49"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="51"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="48"/>
       <c r="I186" s="39" t="s">
         <v>40</v>
       </c>
@@ -5552,14 +5552,14 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="52"/>
-      <c r="B187" s="53"/>
-      <c r="C187" s="52"/>
-      <c r="D187" s="66"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
+      <c r="A187" s="49"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="51"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="48"/>
       <c r="I187" s="39" t="s">
         <v>38</v>
       </c>
@@ -5568,14 +5568,14 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="52"/>
-      <c r="B188" s="53"/>
-      <c r="C188" s="52"/>
-      <c r="D188" s="66"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="55"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="55"/>
+      <c r="A188" s="49"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="51"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="48"/>
       <c r="I188" s="41" t="s">
         <v>231</v>
       </c>
@@ -5585,28 +5585,28 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B189" s="53" t="s">
+      <c r="B189" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="52" t="s">
+      <c r="C189" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D189" s="66" t="s">
+      <c r="D189" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E189" s="55" t="s">
+      <c r="E189" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F189" s="55" t="s">
+      <c r="F189" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G189" s="55" t="s">
+      <c r="G189" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="H189" s="55" t="s">
+      <c r="H189" s="48" t="s">
         <v>194</v>
       </c>
       <c r="I189" s="42" t="s">
@@ -5617,14 +5617,14 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="52"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="52"/>
-      <c r="D190" s="66"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="55"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="51"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="48"/>
       <c r="I190" s="39" t="s">
         <v>39</v>
       </c>
@@ -5633,14 +5633,14 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="52"/>
-      <c r="B191" s="53"/>
-      <c r="C191" s="52"/>
-      <c r="D191" s="66"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="55"/>
-      <c r="G191" s="55"/>
-      <c r="H191" s="55"/>
+      <c r="A191" s="49"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="49"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
       <c r="I191" s="39" t="s">
         <v>230</v>
       </c>
@@ -5649,14 +5649,14 @@
       </c>
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="52"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="52"/>
-      <c r="D192" s="66"/>
-      <c r="E192" s="55"/>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="55"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="49"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="48"/>
       <c r="I192" s="39" t="s">
         <v>40</v>
       </c>
@@ -5665,14 +5665,14 @@
       </c>
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="52"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="66"/>
-      <c r="E193" s="55"/>
-      <c r="F193" s="55"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="55"/>
+      <c r="A193" s="49"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="49"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="48"/>
       <c r="I193" s="39" t="s">
         <v>38</v>
       </c>
@@ -5681,14 +5681,14 @@
       </c>
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="52"/>
-      <c r="B194" s="53"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="55"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
+      <c r="A194" s="49"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="49"/>
+      <c r="D194" s="51"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="48"/>
       <c r="I194" s="41" t="s">
         <v>231</v>
       </c>
@@ -5698,28 +5698,28 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="52" t="s">
+      <c r="A195" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B195" s="53" t="s">
+      <c r="B195" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C195" s="52" t="s">
+      <c r="C195" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D195" s="66" t="s">
+      <c r="D195" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E195" s="55" t="s">
+      <c r="E195" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F195" s="55" t="s">
+      <c r="F195" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G195" s="55" t="s">
+      <c r="G195" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="H195" s="55" t="s">
+      <c r="H195" s="48" t="s">
         <v>193</v>
       </c>
       <c r="I195" s="42" t="s">
@@ -5730,14 +5730,14 @@
       </c>
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="52"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="66"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="55"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="49"/>
+      <c r="D196" s="51"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="48"/>
       <c r="I196" s="39" t="s">
         <v>39</v>
       </c>
@@ -5746,14 +5746,14 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="52"/>
-      <c r="B197" s="53"/>
-      <c r="C197" s="52"/>
-      <c r="D197" s="66"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="55"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="51"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
       <c r="I197" s="39" t="s">
         <v>230</v>
       </c>
@@ -5762,14 +5762,14 @@
       </c>
     </row>
     <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="52"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="52"/>
-      <c r="D198" s="66"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="51"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="48"/>
       <c r="I198" s="39" t="s">
         <v>40</v>
       </c>
@@ -5778,14 +5778,14 @@
       </c>
     </row>
     <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="52"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="52"/>
-      <c r="D199" s="66"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
+      <c r="A199" s="49"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="49"/>
+      <c r="D199" s="51"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="48"/>
       <c r="I199" s="39" t="s">
         <v>38</v>
       </c>
@@ -5794,14 +5794,14 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="52"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="52"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="55"/>
+      <c r="A200" s="49"/>
+      <c r="B200" s="50"/>
+      <c r="C200" s="49"/>
+      <c r="D200" s="51"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="48"/>
       <c r="I200" s="41" t="s">
         <v>231</v>
       </c>
@@ -5811,28 +5811,28 @@
       </c>
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="52" t="s">
+      <c r="A201" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B201" s="53" t="s">
+      <c r="B201" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="52" t="s">
+      <c r="C201" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D201" s="66" t="s">
+      <c r="D201" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E201" s="55" t="s">
+      <c r="E201" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F201" s="55" t="s">
+      <c r="F201" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G201" s="55" t="s">
+      <c r="G201" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="H201" s="55" t="s">
+      <c r="H201" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I201" s="42" t="s">
@@ -5843,14 +5843,14 @@
       </c>
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="52"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="52"/>
-      <c r="D202" s="66"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="55"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="50"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="51"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="48"/>
       <c r="I202" s="39" t="s">
         <v>39</v>
       </c>
@@ -5859,14 +5859,14 @@
       </c>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="52"/>
-      <c r="B203" s="53"/>
-      <c r="C203" s="52"/>
-      <c r="D203" s="66"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="55"/>
-      <c r="G203" s="55"/>
-      <c r="H203" s="55"/>
+      <c r="A203" s="49"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="51"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="48"/>
       <c r="I203" s="39" t="s">
         <v>230</v>
       </c>
@@ -5875,14 +5875,14 @@
       </c>
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="52"/>
-      <c r="B204" s="53"/>
-      <c r="C204" s="52"/>
-      <c r="D204" s="66"/>
-      <c r="E204" s="55"/>
-      <c r="F204" s="55"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="49"/>
+      <c r="D204" s="51"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="48"/>
       <c r="I204" s="39" t="s">
         <v>40</v>
       </c>
@@ -5891,14 +5891,14 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="52"/>
-      <c r="B205" s="53"/>
-      <c r="C205" s="52"/>
-      <c r="D205" s="66"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="49"/>
+      <c r="D205" s="51"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="48"/>
       <c r="I205" s="39" t="s">
         <v>38</v>
       </c>
@@ -5907,14 +5907,14 @@
       </c>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="52"/>
-      <c r="B206" s="53"/>
-      <c r="C206" s="52"/>
-      <c r="D206" s="66"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="55"/>
+      <c r="A206" s="49"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="49"/>
+      <c r="D206" s="51"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
       <c r="I206" s="41" t="s">
         <v>231</v>
       </c>
@@ -5924,28 +5924,28 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="53" t="s">
+      <c r="B207" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C207" s="52" t="s">
+      <c r="C207" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D207" s="66" t="s">
+      <c r="D207" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="55" t="s">
+      <c r="E207" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F207" s="55" t="s">
+      <c r="F207" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G207" s="55" t="s">
+      <c r="G207" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="H207" s="55" t="s">
+      <c r="H207" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I207" s="42" t="s">
@@ -5956,14 +5956,14 @@
       </c>
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="52"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="52"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="50"/>
+      <c r="C208" s="49"/>
+      <c r="D208" s="51"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="48"/>
       <c r="I208" s="39" t="s">
         <v>39</v>
       </c>
@@ -5972,14 +5972,14 @@
       </c>
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="52"/>
-      <c r="B209" s="53"/>
-      <c r="C209" s="52"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="48"/>
       <c r="I209" s="39" t="s">
         <v>230</v>
       </c>
@@ -5988,14 +5988,14 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="52"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="52"/>
-      <c r="D210" s="66"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
+      <c r="A210" s="49"/>
+      <c r="B210" s="50"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="51"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="48"/>
       <c r="I210" s="39" t="s">
         <v>40</v>
       </c>
@@ -6004,14 +6004,14 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="52"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="52"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="55"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="49"/>
+      <c r="D211" s="51"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="48"/>
       <c r="I211" s="39" t="s">
         <v>38</v>
       </c>
@@ -6020,14 +6020,14 @@
       </c>
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="52"/>
-      <c r="B212" s="53"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="55"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="51"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="48"/>
       <c r="I212" s="41" t="s">
         <v>231</v>
       </c>
@@ -6037,28 +6037,28 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="52" t="s">
+      <c r="A213" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B213" s="53" t="s">
+      <c r="B213" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C213" s="52" t="s">
+      <c r="C213" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D213" s="66" t="s">
+      <c r="D213" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="55" t="s">
+      <c r="E213" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F213" s="55" t="s">
+      <c r="F213" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G213" s="55" t="s">
+      <c r="G213" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="H213" s="55" t="s">
+      <c r="H213" s="48" t="s">
         <v>206</v>
       </c>
       <c r="I213" s="42" t="s">
@@ -6069,14 +6069,14 @@
       </c>
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="52"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="52"/>
-      <c r="D214" s="66"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="55"/>
+      <c r="A214" s="49"/>
+      <c r="B214" s="50"/>
+      <c r="C214" s="49"/>
+      <c r="D214" s="51"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="48"/>
+      <c r="H214" s="48"/>
       <c r="I214" s="39" t="s">
         <v>39</v>
       </c>
@@ -6085,14 +6085,14 @@
       </c>
     </row>
     <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="52"/>
-      <c r="B215" s="53"/>
-      <c r="C215" s="52"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="55"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="55"/>
+      <c r="A215" s="49"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="49"/>
+      <c r="D215" s="51"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="48"/>
+      <c r="H215" s="48"/>
       <c r="I215" s="39" t="s">
         <v>230</v>
       </c>
@@ -6101,14 +6101,14 @@
       </c>
     </row>
     <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="52"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="52"/>
-      <c r="D216" s="66"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="55"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="55"/>
+      <c r="A216" s="49"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="49"/>
+      <c r="D216" s="51"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="48"/>
+      <c r="H216" s="48"/>
       <c r="I216" s="39" t="s">
         <v>40</v>
       </c>
@@ -6117,14 +6117,14 @@
       </c>
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="52"/>
-      <c r="B217" s="53"/>
-      <c r="C217" s="52"/>
-      <c r="D217" s="66"/>
-      <c r="E217" s="55"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="55"/>
+      <c r="A217" s="49"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="49"/>
+      <c r="D217" s="51"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="48"/>
+      <c r="H217" s="48"/>
       <c r="I217" s="39" t="s">
         <v>38</v>
       </c>
@@ -6133,14 +6133,14 @@
       </c>
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="52"/>
-      <c r="B218" s="53"/>
-      <c r="C218" s="52"/>
-      <c r="D218" s="66"/>
-      <c r="E218" s="55"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="55"/>
+      <c r="A218" s="49"/>
+      <c r="B218" s="50"/>
+      <c r="C218" s="49"/>
+      <c r="D218" s="51"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="48"/>
+      <c r="H218" s="48"/>
       <c r="I218" s="41" t="s">
         <v>231</v>
       </c>
@@ -6150,28 +6150,28 @@
       </c>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="52" t="s">
+      <c r="A219" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B219" s="53" t="s">
+      <c r="B219" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C219" s="52" t="s">
+      <c r="C219" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D219" s="66" t="s">
+      <c r="D219" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E219" s="55" t="s">
+      <c r="E219" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F219" s="55" t="s">
+      <c r="F219" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G219" s="55" t="s">
+      <c r="G219" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="H219" s="55" t="s">
+      <c r="H219" s="48" t="s">
         <v>207</v>
       </c>
       <c r="I219" s="42" t="s">
@@ -6182,14 +6182,14 @@
       </c>
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="52"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="66"/>
-      <c r="E220" s="55"/>
-      <c r="F220" s="55"/>
-      <c r="G220" s="55"/>
-      <c r="H220" s="55"/>
+      <c r="A220" s="49"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="48"/>
+      <c r="H220" s="48"/>
       <c r="I220" s="39" t="s">
         <v>39</v>
       </c>
@@ -6198,14 +6198,14 @@
       </c>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="52"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="52"/>
-      <c r="D221" s="66"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="55"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="55"/>
+      <c r="A221" s="49"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="49"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="48"/>
+      <c r="H221" s="48"/>
       <c r="I221" s="39" t="s">
         <v>230</v>
       </c>
@@ -6214,14 +6214,14 @@
       </c>
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="52"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="52"/>
-      <c r="D222" s="66"/>
-      <c r="E222" s="55"/>
-      <c r="F222" s="55"/>
-      <c r="G222" s="55"/>
-      <c r="H222" s="55"/>
+      <c r="A222" s="49"/>
+      <c r="B222" s="50"/>
+      <c r="C222" s="49"/>
+      <c r="D222" s="51"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="48"/>
+      <c r="H222" s="48"/>
       <c r="I222" s="39" t="s">
         <v>40</v>
       </c>
@@ -6230,14 +6230,14 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="52"/>
-      <c r="B223" s="53"/>
-      <c r="C223" s="52"/>
-      <c r="D223" s="66"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="55"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="49"/>
+      <c r="D223" s="51"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="48"/>
+      <c r="H223" s="48"/>
       <c r="I223" s="39" t="s">
         <v>38</v>
       </c>
@@ -6246,14 +6246,14 @@
       </c>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="52"/>
-      <c r="B224" s="53"/>
-      <c r="C224" s="52"/>
-      <c r="D224" s="66"/>
-      <c r="E224" s="55"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="55"/>
+      <c r="A224" s="49"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="49"/>
+      <c r="D224" s="51"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="48"/>
+      <c r="H224" s="48"/>
       <c r="I224" s="41" t="s">
         <v>231</v>
       </c>
@@ -6263,28 +6263,28 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="52" t="s">
+      <c r="A225" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B225" s="53" t="s">
+      <c r="B225" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C225" s="52" t="s">
+      <c r="C225" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D225" s="66" t="s">
+      <c r="D225" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E225" s="55" t="s">
+      <c r="E225" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F225" s="55" t="s">
+      <c r="F225" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G225" s="55" t="s">
+      <c r="G225" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="H225" s="55" t="s">
+      <c r="H225" s="48" t="s">
         <v>200</v>
       </c>
       <c r="I225" s="42" t="s">
@@ -6295,14 +6295,14 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="52"/>
-      <c r="B226" s="53"/>
-      <c r="C226" s="52"/>
-      <c r="D226" s="66"/>
-      <c r="E226" s="55"/>
-      <c r="F226" s="55"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="55"/>
+      <c r="A226" s="49"/>
+      <c r="B226" s="50"/>
+      <c r="C226" s="49"/>
+      <c r="D226" s="51"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="48"/>
+      <c r="H226" s="48"/>
       <c r="I226" s="39" t="s">
         <v>39</v>
       </c>
@@ -6311,14 +6311,14 @@
       </c>
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="52"/>
-      <c r="B227" s="53"/>
-      <c r="C227" s="52"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="55"/>
-      <c r="F227" s="55"/>
-      <c r="G227" s="55"/>
-      <c r="H227" s="55"/>
+      <c r="A227" s="49"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="49"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="48"/>
       <c r="I227" s="39" t="s">
         <v>230</v>
       </c>
@@ -6327,14 +6327,14 @@
       </c>
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="52"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="52"/>
-      <c r="D228" s="66"/>
-      <c r="E228" s="55"/>
-      <c r="F228" s="55"/>
-      <c r="G228" s="55"/>
-      <c r="H228" s="55"/>
+      <c r="A228" s="49"/>
+      <c r="B228" s="50"/>
+      <c r="C228" s="49"/>
+      <c r="D228" s="51"/>
+      <c r="E228" s="48"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="48"/>
+      <c r="H228" s="48"/>
       <c r="I228" s="39" t="s">
         <v>40</v>
       </c>
@@ -6343,14 +6343,14 @@
       </c>
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="52"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="52"/>
-      <c r="D229" s="66"/>
-      <c r="E229" s="55"/>
-      <c r="F229" s="55"/>
-      <c r="G229" s="55"/>
-      <c r="H229" s="55"/>
+      <c r="A229" s="49"/>
+      <c r="B229" s="50"/>
+      <c r="C229" s="49"/>
+      <c r="D229" s="51"/>
+      <c r="E229" s="48"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="48"/>
+      <c r="H229" s="48"/>
       <c r="I229" s="39" t="s">
         <v>38</v>
       </c>
@@ -6359,14 +6359,14 @@
       </c>
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="52"/>
-      <c r="B230" s="53"/>
-      <c r="C230" s="52"/>
-      <c r="D230" s="66"/>
-      <c r="E230" s="55"/>
-      <c r="F230" s="55"/>
-      <c r="G230" s="55"/>
-      <c r="H230" s="55"/>
+      <c r="A230" s="49"/>
+      <c r="B230" s="50"/>
+      <c r="C230" s="49"/>
+      <c r="D230" s="51"/>
+      <c r="E230" s="48"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="48"/>
       <c r="I230" s="41" t="s">
         <v>231</v>
       </c>
@@ -6376,28 +6376,28 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="52" t="s">
+      <c r="A231" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B231" s="53" t="s">
+      <c r="B231" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C231" s="52" t="s">
+      <c r="C231" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D231" s="66" t="s">
+      <c r="D231" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E231" s="55" t="s">
+      <c r="E231" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F231" s="55" t="s">
+      <c r="F231" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G231" s="55" t="s">
+      <c r="G231" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="H231" s="55" t="s">
+      <c r="H231" s="48" t="s">
         <v>202</v>
       </c>
       <c r="I231" s="42" t="s">
@@ -6408,14 +6408,14 @@
       </c>
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="52"/>
-      <c r="B232" s="53"/>
-      <c r="C232" s="52"/>
-      <c r="D232" s="66"/>
-      <c r="E232" s="55"/>
-      <c r="F232" s="55"/>
-      <c r="G232" s="55"/>
-      <c r="H232" s="55"/>
+      <c r="A232" s="49"/>
+      <c r="B232" s="50"/>
+      <c r="C232" s="49"/>
+      <c r="D232" s="51"/>
+      <c r="E232" s="48"/>
+      <c r="F232" s="48"/>
+      <c r="G232" s="48"/>
+      <c r="H232" s="48"/>
       <c r="I232" s="39" t="s">
         <v>39</v>
       </c>
@@ -6424,14 +6424,14 @@
       </c>
     </row>
     <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="52"/>
-      <c r="B233" s="53"/>
-      <c r="C233" s="52"/>
-      <c r="D233" s="66"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="55"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="55"/>
+      <c r="A233" s="49"/>
+      <c r="B233" s="50"/>
+      <c r="C233" s="49"/>
+      <c r="D233" s="51"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="48"/>
+      <c r="G233" s="48"/>
+      <c r="H233" s="48"/>
       <c r="I233" s="39" t="s">
         <v>230</v>
       </c>
@@ -6440,14 +6440,14 @@
       </c>
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="52"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="52"/>
-      <c r="D234" s="66"/>
-      <c r="E234" s="55"/>
-      <c r="F234" s="55"/>
-      <c r="G234" s="55"/>
-      <c r="H234" s="55"/>
+      <c r="A234" s="49"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="49"/>
+      <c r="D234" s="51"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
+      <c r="H234" s="48"/>
       <c r="I234" s="39" t="s">
         <v>40</v>
       </c>
@@ -6456,14 +6456,14 @@
       </c>
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="52"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="52"/>
-      <c r="D235" s="66"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
-      <c r="G235" s="55"/>
-      <c r="H235" s="55"/>
+      <c r="A235" s="49"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="49"/>
+      <c r="D235" s="51"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="48"/>
+      <c r="H235" s="48"/>
       <c r="I235" s="39" t="s">
         <v>38</v>
       </c>
@@ -6472,14 +6472,14 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="52"/>
-      <c r="B236" s="53"/>
-      <c r="C236" s="52"/>
-      <c r="D236" s="66"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="55"/>
-      <c r="H236" s="55"/>
+      <c r="A236" s="49"/>
+      <c r="B236" s="50"/>
+      <c r="C236" s="49"/>
+      <c r="D236" s="51"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="48"/>
+      <c r="H236" s="48"/>
       <c r="I236" s="41" t="s">
         <v>231</v>
       </c>
@@ -6489,28 +6489,28 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="52" t="s">
+      <c r="A237" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B237" s="53" t="s">
+      <c r="B237" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C237" s="52" t="s">
+      <c r="C237" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D237" s="66" t="s">
+      <c r="D237" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E237" s="55" t="s">
+      <c r="E237" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F237" s="55" t="s">
+      <c r="F237" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G237" s="55" t="s">
+      <c r="G237" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="H237" s="55" t="s">
+      <c r="H237" s="48" t="s">
         <v>202</v>
       </c>
       <c r="I237" s="42" t="s">
@@ -6521,14 +6521,14 @@
       </c>
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="52"/>
-      <c r="B238" s="53"/>
-      <c r="C238" s="52"/>
-      <c r="D238" s="66"/>
-      <c r="E238" s="55"/>
-      <c r="F238" s="55"/>
-      <c r="G238" s="55"/>
-      <c r="H238" s="55"/>
+      <c r="A238" s="49"/>
+      <c r="B238" s="50"/>
+      <c r="C238" s="49"/>
+      <c r="D238" s="51"/>
+      <c r="E238" s="48"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="48"/>
+      <c r="H238" s="48"/>
       <c r="I238" s="39" t="s">
         <v>39</v>
       </c>
@@ -6537,14 +6537,14 @@
       </c>
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="52"/>
-      <c r="B239" s="53"/>
-      <c r="C239" s="52"/>
-      <c r="D239" s="66"/>
-      <c r="E239" s="55"/>
-      <c r="F239" s="55"/>
-      <c r="G239" s="55"/>
-      <c r="H239" s="55"/>
+      <c r="A239" s="49"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="49"/>
+      <c r="D239" s="51"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="48"/>
+      <c r="H239" s="48"/>
       <c r="I239" s="39" t="s">
         <v>230</v>
       </c>
@@ -6553,14 +6553,14 @@
       </c>
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="52"/>
-      <c r="B240" s="53"/>
-      <c r="C240" s="52"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="55"/>
-      <c r="F240" s="55"/>
-      <c r="G240" s="55"/>
-      <c r="H240" s="55"/>
+      <c r="A240" s="49"/>
+      <c r="B240" s="50"/>
+      <c r="C240" s="49"/>
+      <c r="D240" s="51"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="48"/>
       <c r="I240" s="39" t="s">
         <v>40</v>
       </c>
@@ -6569,14 +6569,14 @@
       </c>
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="52"/>
-      <c r="B241" s="53"/>
-      <c r="C241" s="52"/>
-      <c r="D241" s="66"/>
-      <c r="E241" s="55"/>
-      <c r="F241" s="55"/>
-      <c r="G241" s="55"/>
-      <c r="H241" s="55"/>
+      <c r="A241" s="49"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="49"/>
+      <c r="D241" s="51"/>
+      <c r="E241" s="48"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="48"/>
+      <c r="H241" s="48"/>
       <c r="I241" s="39" t="s">
         <v>38</v>
       </c>
@@ -6585,14 +6585,14 @@
       </c>
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="52"/>
-      <c r="B242" s="53"/>
-      <c r="C242" s="52"/>
-      <c r="D242" s="66"/>
-      <c r="E242" s="55"/>
-      <c r="F242" s="55"/>
-      <c r="G242" s="55"/>
-      <c r="H242" s="55"/>
+      <c r="A242" s="49"/>
+      <c r="B242" s="50"/>
+      <c r="C242" s="49"/>
+      <c r="D242" s="51"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="48"/>
+      <c r="H242" s="48"/>
       <c r="I242" s="41" t="s">
         <v>231</v>
       </c>
@@ -6603,318 +6603,6 @@
     </row>
   </sheetData>
   <mergeCells count="329">
-    <mergeCell ref="G231:G236"/>
-    <mergeCell ref="H231:H236"/>
-    <mergeCell ref="A237:A242"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="D237:D242"/>
-    <mergeCell ref="E237:E242"/>
-    <mergeCell ref="F237:F242"/>
-    <mergeCell ref="G237:G242"/>
-    <mergeCell ref="H237:H242"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D231:D236"/>
-    <mergeCell ref="E231:E236"/>
-    <mergeCell ref="F231:F236"/>
-    <mergeCell ref="G219:G224"/>
-    <mergeCell ref="H219:H224"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:D230"/>
-    <mergeCell ref="E225:E230"/>
-    <mergeCell ref="F225:F230"/>
-    <mergeCell ref="G225:G230"/>
-    <mergeCell ref="H225:H230"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="E219:E224"/>
-    <mergeCell ref="F219:F224"/>
-    <mergeCell ref="G207:G212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="D213:D218"/>
-    <mergeCell ref="E213:E218"/>
-    <mergeCell ref="F213:F218"/>
-    <mergeCell ref="G213:G218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="F201:F206"/>
-    <mergeCell ref="G201:G206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="F189:F194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="F183:F188"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="F177:F182"/>
-    <mergeCell ref="G177:G182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="E171:E176"/>
-    <mergeCell ref="F171:F176"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="F165:F170"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="E159:E164"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="H147:H152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="E147:E152"/>
-    <mergeCell ref="F147:F152"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="H135:H140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
-    <mergeCell ref="G141:G146"/>
-    <mergeCell ref="H141:H146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="E135:E140"/>
-    <mergeCell ref="F135:F140"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="H123:H128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="H129:H134"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="H111:H116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H117:H122"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="G99:G104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="F105:F110"/>
-    <mergeCell ref="G105:G110"/>
-    <mergeCell ref="H105:H110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="H87:H92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="F93:F98"/>
-    <mergeCell ref="G93:G98"/>
-    <mergeCell ref="H93:H98"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="F81:F86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="H81:H86"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:J2"/>
@@ -6932,6 +6620,318 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="H81:H86"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="H87:H92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="F93:F98"/>
+    <mergeCell ref="G93:G98"/>
+    <mergeCell ref="H93:H98"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G99:G104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="G105:G110"/>
+    <mergeCell ref="H105:H110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="H111:H116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="H135:H140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="G141:G146"/>
+    <mergeCell ref="H141:H146"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="E135:E140"/>
+    <mergeCell ref="F135:F140"/>
+    <mergeCell ref="G147:G152"/>
+    <mergeCell ref="H147:H152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E152"/>
+    <mergeCell ref="F147:F152"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="F165:F170"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="F177:F182"/>
+    <mergeCell ref="G177:G182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="F171:F176"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="F189:F194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F201:F206"/>
+    <mergeCell ref="G201:G206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G207:G212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="C213:C218"/>
+    <mergeCell ref="D213:D218"/>
+    <mergeCell ref="E213:E218"/>
+    <mergeCell ref="F213:F218"/>
+    <mergeCell ref="G213:G218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="G219:G224"/>
+    <mergeCell ref="H219:H224"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:D230"/>
+    <mergeCell ref="E225:E230"/>
+    <mergeCell ref="F225:F230"/>
+    <mergeCell ref="G225:G230"/>
+    <mergeCell ref="H225:H230"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="C219:C224"/>
+    <mergeCell ref="D219:D224"/>
+    <mergeCell ref="E219:E224"/>
+    <mergeCell ref="F219:F224"/>
+    <mergeCell ref="G231:G236"/>
+    <mergeCell ref="H231:H236"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="D237:D242"/>
+    <mergeCell ref="E237:E242"/>
+    <mergeCell ref="F237:F242"/>
+    <mergeCell ref="G237:G242"/>
+    <mergeCell ref="H237:H242"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D231:D236"/>
+    <mergeCell ref="E231:E236"/>
+    <mergeCell ref="F231:F236"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J14">
     <cfRule type="dataBar" priority="39">
@@ -8122,10 +8122,10 @@
   <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP6" sqref="AP6"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8166,38 +8166,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="66" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
-      <c r="N1" s="58"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="77" t="s">
         <v>208</v>
       </c>
@@ -8233,14 +8233,14 @@
       </c>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" s="34">
         <v>4</v>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="N27" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>125</v>
@@ -12574,6 +12574,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AC1:AJ1"/>
     <mergeCell ref="P1:AA1"/>
@@ -12581,13 +12588,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="AC3:AJ3">
     <cfRule type="dataBar" priority="323">

--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9D25BF-C41D-4FA9-8776-D89633E1429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8D1C87-F39F-4E08-8B38-C0BA9965FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subclasses (Non-Sortable)" sheetId="9" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="266">
   <si>
     <t>Class</t>
   </si>
@@ -1216,23 +1216,89 @@
     <t>Revised Spells</t>
   </si>
   <si>
-    <t>Barbarian Feats</t>
-  </si>
-  <si>
-    <t>Spell Casting Feats</t>
-  </si>
-  <si>
     <t>Class Options</t>
   </si>
   <si>
     <t>Eldritch Invocations</t>
+  </si>
+  <si>
+    <t>Dervish</t>
+  </si>
+  <si>
+    <t>A mobile warrior who gracefully dances through the battlefield as a whirling blur of slashing blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skirmisher, Striker</t>
+  </si>
+  <si>
+    <t>Dungeoneer, Scout, Sneak</t>
+  </si>
+  <si>
+    <t>Frost Warden</t>
+  </si>
+  <si>
+    <t>A customizable arctic warrior who wields frost magic and icy weapons to freeze and debilitate foes</t>
+  </si>
+  <si>
+    <t>Battlemage, Blaster, Bruiser, Controller, Debuffer, Skirmisher, Striker, Tank</t>
+  </si>
+  <si>
+    <t>Circle of the Arctic</t>
+  </si>
+  <si>
+    <t>A druid who specializes in transforming into arctic animals, casting icy spells, and even summoning miniature glaciers</t>
+  </si>
+  <si>
+    <t>Battlemage, Blaster, Bruiser, Controller, Debuffer, Enhancer, Skirmisher, Striker, Sustainer, Tank</t>
+  </si>
+  <si>
+    <t>Circle of Plagues</t>
+  </si>
+  <si>
+    <t>A druid who spreads customizable contagions that symbiotically enhance allies and wither enemies</t>
+  </si>
+  <si>
+    <t>Battlemage, Bruiser, Controller, Debuffer, Dualist, Enhancer, Skirmisher, Sustainer</t>
+  </si>
+  <si>
+    <t>Steppe Rider</t>
+  </si>
+  <si>
+    <t>A Mongol-inspired mounted archer who rides through battle while unleashing rapid volleys of arrows</t>
+  </si>
+  <si>
+    <t>Dualist, Skirmisher, Striker</t>
+  </si>
+  <si>
+    <t>Divine Domain - Sea (Includes Variants for River and Swamp)</t>
+  </si>
+  <si>
+    <t>A cleric who summons sacred bodies of water that grow and engulf enemies while sustaining allies</t>
+  </si>
+  <si>
+    <t>Battlemage, Blaster, Controller, Debuffer, Enhancer, Sustainer</t>
+  </si>
+  <si>
+    <t>Ratfolk</t>
+  </si>
+  <si>
+    <t>Sahuagin</t>
+  </si>
+  <si>
+    <t>All Indepentant Feats</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Weapons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,6 +1377,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1488,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,9 +1675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1631,52 +1702,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1723,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1701,6 +1745,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,6 +1803,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2014,10 +2106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424C784-E472-4D2E-A203-633AE1B9346C}">
-  <dimension ref="A1:N242"/>
+  <dimension ref="A1:N278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="L166" sqref="L166"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I236" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J278" sqref="A243:J278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,157 +2131,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="67"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="39" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="39" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="39" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="39" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="41" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J8" s="32">
@@ -2195,111 +2290,111 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="39" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="39" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="39" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="39" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="41" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J14" s="33">
@@ -2308,111 +2403,111 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="39" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="39" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="39" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="39" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="41" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J20" s="33">
@@ -2421,111 +2516,111 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="39" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="39" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="39" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="39" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="41" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J26" s="33">
@@ -2534,111 +2629,111 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="39" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="39" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="39" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="39" t="s">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="41" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J32" s="33">
@@ -2647,111 +2742,111 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="39" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="39" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="39" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="39" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="41" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J38" s="33">
@@ -2760,111 +2855,111 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="39" t="s">
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="39" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J41" s="44">
+      <c r="J41" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="39" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="39" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="41" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J44" s="33">
@@ -2873,111 +2968,111 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="39" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="39" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="39" t="s">
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="39" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="44">
+      <c r="J49" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="41" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J50" s="33">
@@ -2986,111 +3081,111 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="43">
+      <c r="J51" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="39" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="44">
+      <c r="J52" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="39" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J53" s="44">
+      <c r="J53" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="39" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J54" s="44">
+      <c r="J54" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="39" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J55" s="44">
+      <c r="J55" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="41" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J56" s="33">
@@ -3099,111 +3194,111 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G57" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="H57" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="I57" s="42" t="s">
+      <c r="I57" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="39" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="44">
+      <c r="J58" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="39" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="44">
+      <c r="J59" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="39" t="s">
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="44">
+      <c r="J60" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="39" t="s">
+      <c r="A61" s="54"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="44">
+      <c r="J61" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="41" t="s">
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J62" s="33">
@@ -3212,111 +3307,111 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G63" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="H63" s="48" t="s">
+      <c r="H63" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="I63" s="42" t="s">
+      <c r="I63" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J63" s="43">
+      <c r="J63" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="39" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J64" s="44">
+      <c r="J64" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="39" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J65" s="44">
+      <c r="J65" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="39" t="s">
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="39" t="s">
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J67" s="44">
+      <c r="J67" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="41" t="s">
+      <c r="A68" s="54"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J68" s="33">
@@ -3325,111 +3420,111 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="H69" s="48" t="s">
+      <c r="H69" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="42" t="s">
+      <c r="I69" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="39" t="s">
+      <c r="A70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="44">
+      <c r="J70" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="39" t="s">
+      <c r="A71" s="54"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J71" s="44">
+      <c r="J71" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="39" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J72" s="44">
+      <c r="J72" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="39" t="s">
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J73" s="44">
+      <c r="J73" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="41" t="s">
+      <c r="A74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J74" s="33">
@@ -3438,111 +3533,111 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="48" t="s">
+      <c r="G75" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="H75" s="48" t="s">
+      <c r="H75" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I75" s="42" t="s">
+      <c r="I75" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J75" s="43">
+      <c r="J75" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="39" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="44">
+      <c r="J76" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="39" t="s">
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J77" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="39" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J78" s="44">
+      <c r="J78" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="39" t="s">
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J79" s="44">
+      <c r="J79" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="41" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J80" s="33">
@@ -3551,111 +3646,111 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="G81" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H81" s="48" t="s">
+      <c r="H81" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I81" s="42" t="s">
+      <c r="I81" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J81" s="43">
+      <c r="J81" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="39" t="s">
+      <c r="A82" s="54"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J82" s="44">
+      <c r="J82" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="39" t="s">
+      <c r="A83" s="54"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J83" s="44">
+      <c r="J83" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="39" t="s">
+      <c r="A84" s="54"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J84" s="44">
+      <c r="J84" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="39" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="44">
+      <c r="J85" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="41" t="s">
+      <c r="A86" s="54"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J86" s="33">
@@ -3664,111 +3759,111 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="D87" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F87" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="48" t="s">
+      <c r="G87" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="48" t="s">
+      <c r="H87" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J87" s="43">
+      <c r="J87" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="39" t="s">
+      <c r="A88" s="54"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J88" s="44">
+      <c r="J88" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="39" t="s">
+      <c r="A89" s="54"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J89" s="44">
+      <c r="J89" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="39" t="s">
+      <c r="A90" s="54"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J90" s="44">
+      <c r="J90" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="39" t="s">
+      <c r="A91" s="54"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J91" s="44">
+      <c r="J91" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="41" t="s">
+      <c r="A92" s="54"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J92" s="33">
@@ -3777,111 +3872,111 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F93" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="48" t="s">
+      <c r="G93" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="48" t="s">
+      <c r="H93" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I93" s="42" t="s">
+      <c r="I93" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="39" t="s">
+      <c r="A94" s="54"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="39" t="s">
+      <c r="A95" s="54"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J95" s="44">
+      <c r="J95" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="39" t="s">
+      <c r="A96" s="54"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J96" s="44">
+      <c r="J96" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="39" t="s">
+      <c r="A97" s="54"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J97" s="44">
+      <c r="J97" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="41" t="s">
+      <c r="A98" s="54"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J98" s="33">
@@ -3890,111 +3985,111 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F99" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G99" s="48" t="s">
+      <c r="G99" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="H99" s="48" t="s">
+      <c r="H99" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="I99" s="42" t="s">
+      <c r="I99" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J99" s="43">
+      <c r="J99" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="39" t="s">
+      <c r="A100" s="54"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J100" s="44">
+      <c r="J100" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="39" t="s">
+      <c r="A101" s="54"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J101" s="44">
+      <c r="J101" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="39" t="s">
+      <c r="A102" s="54"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J102" s="44">
+      <c r="J102" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="39" t="s">
+      <c r="A103" s="54"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J103" s="44">
+      <c r="J103" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="41" t="s">
+      <c r="A104" s="54"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J104" s="33">
@@ -4003,111 +4098,111 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="E105" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F105" s="48" t="s">
+      <c r="F105" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="48" t="s">
+      <c r="G105" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H105" s="48" t="s">
+      <c r="H105" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="I105" s="42" t="s">
+      <c r="I105" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="43">
+      <c r="J105" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="39" t="s">
+      <c r="A106" s="54"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="44">
+      <c r="J106" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="39" t="s">
+      <c r="A107" s="54"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J107" s="44">
+      <c r="J107" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="39" t="s">
+      <c r="A108" s="54"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J108" s="44">
+      <c r="J108" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="39" t="s">
+      <c r="A109" s="54"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="44">
+      <c r="J109" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="41" t="s">
+      <c r="A110" s="54"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J110" s="33">
@@ -4116,111 +4211,111 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="49" t="s">
+      <c r="A111" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="48" t="s">
+      <c r="E111" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G111" s="48" t="s">
+      <c r="G111" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="H111" s="48" t="s">
+      <c r="H111" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I111" s="42" t="s">
+      <c r="I111" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J111" s="43">
+      <c r="J111" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="39" t="s">
+      <c r="A112" s="54"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J112" s="44">
+      <c r="J112" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="39" t="s">
+      <c r="A113" s="54"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J113" s="44">
+      <c r="J113" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="39" t="s">
+      <c r="A114" s="54"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J114" s="44">
+      <c r="J114" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="39" t="s">
+      <c r="A115" s="54"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="44">
+      <c r="J115" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="41" t="s">
+      <c r="A116" s="54"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J116" s="33">
@@ -4229,111 +4324,111 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E117" s="48" t="s">
+      <c r="E117" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F117" s="48" t="s">
+      <c r="F117" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G117" s="48" t="s">
+      <c r="G117" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="H117" s="48" t="s">
+      <c r="H117" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="I117" s="42" t="s">
+      <c r="I117" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J117" s="43">
+      <c r="J117" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="39" t="s">
+      <c r="A118" s="54"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J118" s="44">
+      <c r="J118" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="39" t="s">
+      <c r="A119" s="54"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J119" s="44">
+      <c r="J119" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="39" t="s">
+      <c r="A120" s="54"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J120" s="44">
+      <c r="J120" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="39" t="s">
+      <c r="A121" s="54"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="44">
+      <c r="J121" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="51"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="41" t="s">
+      <c r="A122" s="54"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J122" s="33">
@@ -4342,111 +4437,111 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
+      <c r="A123" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="50" t="s">
+      <c r="B123" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E123" s="48" t="s">
+      <c r="E123" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F123" s="48" t="s">
+      <c r="F123" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G123" s="48" t="s">
+      <c r="G123" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="H123" s="48" t="s">
+      <c r="H123" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="I123" s="42" t="s">
+      <c r="I123" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J123" s="43">
+      <c r="J123" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="49"/>
-      <c r="D124" s="51"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="39" t="s">
+      <c r="A124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J124" s="44">
+      <c r="J124" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="39" t="s">
+      <c r="A125" s="54"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J125" s="44">
+      <c r="J125" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="49"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="39" t="s">
+      <c r="A126" s="54"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J126" s="44">
+      <c r="J126" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="49"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="49"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="39" t="s">
+      <c r="A127" s="54"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J127" s="44">
+      <c r="J127" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="41" t="s">
+      <c r="A128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J128" s="33">
@@ -4455,111 +4550,111 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C129" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E129" s="48" t="s">
+      <c r="E129" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F129" s="48" t="s">
+      <c r="F129" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H129" s="48" t="s">
+      <c r="H129" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="I129" s="42" t="s">
+      <c r="I129" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J129" s="43">
+      <c r="J129" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="49"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="39" t="s">
+      <c r="A130" s="54"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J130" s="44">
+      <c r="J130" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="39" t="s">
+      <c r="A131" s="54"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J131" s="44">
+      <c r="J131" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="39" t="s">
+      <c r="A132" s="54"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J132" s="44">
+      <c r="J132" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="39" t="s">
+      <c r="A133" s="54"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J133" s="44">
+      <c r="J133" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="41" t="s">
+      <c r="A134" s="54"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J134" s="33">
@@ -4568,111 +4663,111 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="50" t="s">
+      <c r="B135" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E135" s="48" t="s">
+      <c r="E135" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="48" t="s">
+      <c r="F135" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G135" s="48" t="s">
+      <c r="G135" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="H135" s="48" t="s">
+      <c r="H135" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="I135" s="42" t="s">
+      <c r="I135" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J135" s="43">
+      <c r="J135" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="48"/>
-      <c r="H136" s="48"/>
-      <c r="I136" s="39" t="s">
+      <c r="A136" s="54"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J136" s="44">
+      <c r="J136" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="48"/>
-      <c r="I137" s="39" t="s">
+      <c r="A137" s="54"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J137" s="44">
+      <c r="J137" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="39" t="s">
+      <c r="A138" s="54"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J138" s="44">
+      <c r="J138" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="48"/>
-      <c r="I139" s="39" t="s">
+      <c r="A139" s="54"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J139" s="44">
+      <c r="J139" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="41" t="s">
+      <c r="A140" s="54"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J140" s="33">
@@ -4681,111 +4776,111 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="49" t="s">
+      <c r="A141" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D141" s="51" t="s">
+      <c r="D141" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="48" t="s">
+      <c r="E141" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="48" t="s">
+      <c r="F141" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G141" s="48" t="s">
+      <c r="G141" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="H141" s="48" t="s">
+      <c r="H141" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="I141" s="42" t="s">
+      <c r="I141" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J141" s="43">
+      <c r="J141" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
-      <c r="I142" s="39" t="s">
+      <c r="A142" s="54"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J142" s="44">
+      <c r="J142" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="48"/>
-      <c r="I143" s="39" t="s">
+      <c r="A143" s="54"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J143" s="44">
+      <c r="J143" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="49"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="39" t="s">
+      <c r="A144" s="54"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J144" s="44">
+      <c r="J144" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="49"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="48"/>
-      <c r="I145" s="39" t="s">
+      <c r="A145" s="54"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J145" s="44">
+      <c r="J145" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="49"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="41" t="s">
+      <c r="A146" s="54"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J146" s="33">
@@ -4794,111 +4889,111 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="49" t="s">
+      <c r="A147" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D147" s="51" t="s">
+      <c r="D147" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E147" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F147" s="48" t="s">
+      <c r="F147" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G147" s="48" t="s">
+      <c r="G147" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="H147" s="48" t="s">
+      <c r="H147" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="I147" s="42" t="s">
+      <c r="I147" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J147" s="43">
+      <c r="J147" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
-      <c r="B148" s="50"/>
-      <c r="C148" s="49"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="48"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="48"/>
-      <c r="I148" s="39" t="s">
+      <c r="A148" s="54"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J148" s="44">
+      <c r="J148" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
-      <c r="B149" s="50"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="51"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="48"/>
-      <c r="I149" s="39" t="s">
+      <c r="A149" s="54"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J149" s="44">
+      <c r="J149" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
-      <c r="B150" s="50"/>
-      <c r="C150" s="49"/>
-      <c r="D150" s="51"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="48"/>
-      <c r="I150" s="39" t="s">
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J150" s="44">
+      <c r="J150" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
-      <c r="B151" s="50"/>
-      <c r="C151" s="49"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="48"/>
-      <c r="I151" s="39" t="s">
+      <c r="A151" s="54"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J151" s="44">
+      <c r="J151" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="49"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="48"/>
-      <c r="I152" s="41" t="s">
+      <c r="A152" s="54"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J152" s="33">
@@ -4907,111 +5002,111 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="49" t="s">
+      <c r="A153" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="50" t="s">
+      <c r="B153" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E153" s="48" t="s">
+      <c r="E153" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F153" s="48" t="s">
+      <c r="F153" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G153" s="48" t="s">
+      <c r="G153" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="H153" s="48" t="s">
+      <c r="H153" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="I153" s="42" t="s">
+      <c r="I153" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J153" s="43">
+      <c r="J153" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="49"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="51"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="39" t="s">
+      <c r="A154" s="54"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="54"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J154" s="44">
+      <c r="J154" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
-      <c r="B155" s="50"/>
-      <c r="C155" s="49"/>
-      <c r="D155" s="51"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="48"/>
-      <c r="I155" s="39" t="s">
+      <c r="A155" s="54"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J155" s="44">
+      <c r="J155" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="49"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="49"/>
-      <c r="D156" s="51"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="48"/>
-      <c r="I156" s="39" t="s">
+      <c r="A156" s="54"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J156" s="44">
+      <c r="J156" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="49"/>
-      <c r="D157" s="51"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="48"/>
-      <c r="G157" s="48"/>
-      <c r="H157" s="48"/>
-      <c r="I157" s="39" t="s">
+      <c r="A157" s="54"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J157" s="44">
+      <c r="J157" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="49"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="49"/>
-      <c r="D158" s="51"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48"/>
-      <c r="G158" s="48"/>
-      <c r="H158" s="48"/>
-      <c r="I158" s="41" t="s">
+      <c r="A158" s="54"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J158" s="33">
@@ -5020,111 +5115,111 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B159" s="50" t="s">
+      <c r="B159" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C159" s="49" t="s">
+      <c r="C159" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="48" t="s">
+      <c r="E159" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F159" s="48" t="s">
+      <c r="F159" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="48" t="s">
+      <c r="G159" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="H159" s="48" t="s">
+      <c r="H159" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="I159" s="42" t="s">
+      <c r="I159" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J159" s="43">
+      <c r="J159" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="49"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="49"/>
-      <c r="D160" s="51"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="48"/>
-      <c r="H160" s="48"/>
-      <c r="I160" s="39" t="s">
+      <c r="A160" s="54"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="54"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J160" s="44">
+      <c r="J160" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="49"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="49"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="48"/>
-      <c r="I161" s="39" t="s">
+      <c r="A161" s="54"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="54"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J161" s="44">
+      <c r="J161" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="49"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="51"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="48"/>
-      <c r="H162" s="48"/>
-      <c r="I162" s="39" t="s">
+      <c r="A162" s="54"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J162" s="44">
+      <c r="J162" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="49"/>
-      <c r="D163" s="51"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="48"/>
-      <c r="G163" s="48"/>
-      <c r="H163" s="48"/>
-      <c r="I163" s="39" t="s">
+      <c r="A163" s="54"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J163" s="44">
+      <c r="J163" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="49"/>
-      <c r="B164" s="50"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="51"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="41" t="s">
+      <c r="A164" s="54"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J164" s="33">
@@ -5133,111 +5228,111 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="49" t="s">
+      <c r="A165" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B165" s="50" t="s">
+      <c r="B165" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="51" t="s">
+      <c r="D165" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="48" t="s">
+      <c r="E165" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F165" s="48" t="s">
+      <c r="F165" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G165" s="48" t="s">
+      <c r="G165" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="H165" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="I165" s="42" t="s">
+      <c r="I165" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J165" s="43">
+      <c r="J165" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="49"/>
-      <c r="B166" s="50"/>
-      <c r="C166" s="49"/>
-      <c r="D166" s="51"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="39" t="s">
+      <c r="A166" s="54"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J166" s="44">
+      <c r="J166" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="50"/>
-      <c r="C167" s="49"/>
-      <c r="D167" s="51"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="39" t="s">
+      <c r="A167" s="54"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J167" s="44">
+      <c r="J167" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="49"/>
-      <c r="B168" s="50"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="51"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="39" t="s">
+      <c r="A168" s="54"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="54"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J168" s="44">
+      <c r="J168" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="51"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="39" t="s">
+      <c r="A169" s="54"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J169" s="44">
+      <c r="J169" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="51"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="41" t="s">
+      <c r="A170" s="54"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J170" s="33">
@@ -5246,111 +5341,111 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="49" t="s">
+      <c r="A171" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B171" s="50" t="s">
+      <c r="B171" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D171" s="51" t="s">
+      <c r="D171" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E171" s="48" t="s">
+      <c r="E171" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F171" s="48" t="s">
+      <c r="F171" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G171" s="48" t="s">
+      <c r="G171" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="H171" s="48" t="s">
+      <c r="H171" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I171" s="42" t="s">
+      <c r="I171" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J171" s="43">
+      <c r="J171" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
-      <c r="B172" s="50"/>
-      <c r="C172" s="49"/>
-      <c r="D172" s="51"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="48"/>
-      <c r="I172" s="39" t="s">
+      <c r="A172" s="54"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J172" s="44">
+      <c r="J172" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="51"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="48"/>
-      <c r="I173" s="39" t="s">
+      <c r="A173" s="54"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J173" s="44">
+      <c r="J173" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="50"/>
-      <c r="C174" s="49"/>
-      <c r="D174" s="51"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="39" t="s">
+      <c r="A174" s="54"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J174" s="44">
+      <c r="J174" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="49"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="49"/>
-      <c r="D175" s="51"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
-      <c r="G175" s="48"/>
-      <c r="H175" s="48"/>
-      <c r="I175" s="39" t="s">
+      <c r="A175" s="54"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J175" s="44">
+      <c r="J175" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="49"/>
-      <c r="B176" s="50"/>
-      <c r="C176" s="49"/>
-      <c r="D176" s="51"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
-      <c r="I176" s="41" t="s">
+      <c r="A176" s="54"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J176" s="33">
@@ -5359,111 +5454,111 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B177" s="50" t="s">
+      <c r="B177" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="49" t="s">
+      <c r="C177" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F177" s="48" t="s">
+      <c r="F177" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="48" t="s">
+      <c r="G177" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="H177" s="48" t="s">
+      <c r="H177" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="I177" s="42" t="s">
+      <c r="I177" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J177" s="43">
+      <c r="J177" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="49"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="48"/>
-      <c r="I178" s="39" t="s">
+      <c r="A178" s="54"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J178" s="44">
+      <c r="J178" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="49"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="51"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="48"/>
-      <c r="I179" s="39" t="s">
+      <c r="A179" s="54"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J179" s="44">
+      <c r="J179" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="51"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="39" t="s">
+      <c r="A180" s="54"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J180" s="44">
+      <c r="J180" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="49"/>
-      <c r="B181" s="50"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="39" t="s">
+      <c r="A181" s="54"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="54"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J181" s="44">
+      <c r="J181" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="49"/>
-      <c r="B182" s="50"/>
-      <c r="C182" s="49"/>
-      <c r="D182" s="51"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="41" t="s">
+      <c r="A182" s="54"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J182" s="33">
@@ -5472,111 +5567,111 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="49" t="s">
+      <c r="A183" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B183" s="50" t="s">
+      <c r="B183" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="C183" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="48" t="s">
+      <c r="E183" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F183" s="48" t="s">
+      <c r="F183" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="48" t="s">
+      <c r="G183" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="H183" s="48" t="s">
+      <c r="H183" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="I183" s="42" t="s">
+      <c r="I183" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J183" s="43">
+      <c r="J183" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="49"/>
-      <c r="B184" s="50"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="51"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="39" t="s">
+      <c r="A184" s="54"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="54"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J184" s="44">
+      <c r="J184" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="49"/>
-      <c r="B185" s="50"/>
-      <c r="C185" s="49"/>
-      <c r="D185" s="51"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="39" t="s">
+      <c r="A185" s="54"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J185" s="44">
+      <c r="J185" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
-      <c r="B186" s="50"/>
-      <c r="C186" s="49"/>
-      <c r="D186" s="51"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="39" t="s">
+      <c r="A186" s="54"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="57"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J186" s="44">
+      <c r="J186" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="49"/>
-      <c r="B187" s="50"/>
-      <c r="C187" s="49"/>
-      <c r="D187" s="51"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="39" t="s">
+      <c r="A187" s="54"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J187" s="44">
+      <c r="J187" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="49"/>
-      <c r="B188" s="50"/>
-      <c r="C188" s="49"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="48"/>
-      <c r="I188" s="41" t="s">
+      <c r="A188" s="54"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J188" s="33">
@@ -5585,111 +5680,111 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="49" t="s">
+      <c r="A189" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B189" s="50" t="s">
+      <c r="B189" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="49" t="s">
+      <c r="C189" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E189" s="48" t="s">
+      <c r="E189" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="F189" s="48" t="s">
+      <c r="F189" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G189" s="48" t="s">
+      <c r="G189" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="H189" s="48" t="s">
+      <c r="H189" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="I189" s="42" t="s">
+      <c r="I189" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J189" s="43">
+      <c r="J189" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="49"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="49"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="48"/>
-      <c r="I190" s="39" t="s">
+      <c r="A190" s="54"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J190" s="44">
+      <c r="J190" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="49"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="39" t="s">
+      <c r="A191" s="54"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J191" s="44">
+      <c r="J191" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="49"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="49"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="48"/>
-      <c r="I192" s="39" t="s">
+      <c r="A192" s="54"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J192" s="44">
+      <c r="J192" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="49"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="48"/>
-      <c r="I193" s="39" t="s">
+      <c r="A193" s="54"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J193" s="44">
+      <c r="J193" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="49"/>
-      <c r="D194" s="51"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="48"/>
-      <c r="I194" s="41" t="s">
+      <c r="A194" s="54"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J194" s="33">
@@ -5698,111 +5793,111 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="49" t="s">
+      <c r="A195" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B195" s="50" t="s">
+      <c r="B195" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C195" s="49" t="s">
+      <c r="C195" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D195" s="51" t="s">
+      <c r="D195" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E195" s="48" t="s">
+      <c r="E195" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F195" s="48" t="s">
+      <c r="F195" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G195" s="48" t="s">
+      <c r="G195" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="H195" s="48" t="s">
+      <c r="H195" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="I195" s="42" t="s">
+      <c r="I195" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J195" s="43">
+      <c r="J195" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
-      <c r="B196" s="50"/>
-      <c r="C196" s="49"/>
-      <c r="D196" s="51"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="48"/>
-      <c r="I196" s="39" t="s">
+      <c r="A196" s="54"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="57"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J196" s="44">
+      <c r="J196" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="51"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="48"/>
-      <c r="I197" s="39" t="s">
+      <c r="A197" s="54"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="68"/>
+      <c r="E197" s="57"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J197" s="44">
+      <c r="J197" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="49"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="49"/>
-      <c r="D198" s="51"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="48"/>
-      <c r="I198" s="39" t="s">
+      <c r="A198" s="54"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J198" s="44">
+      <c r="J198" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="49"/>
-      <c r="B199" s="50"/>
-      <c r="C199" s="49"/>
-      <c r="D199" s="51"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="48"/>
-      <c r="I199" s="39" t="s">
+      <c r="A199" s="54"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J199" s="44">
+      <c r="J199" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="49"/>
-      <c r="B200" s="50"/>
-      <c r="C200" s="49"/>
-      <c r="D200" s="51"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="48"/>
-      <c r="I200" s="41" t="s">
+      <c r="A200" s="54"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J200" s="33">
@@ -5811,111 +5906,111 @@
       </c>
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="49" t="s">
+      <c r="A201" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B201" s="50" t="s">
+      <c r="B201" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="49" t="s">
+      <c r="C201" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D201" s="51" t="s">
+      <c r="D201" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E201" s="48" t="s">
+      <c r="E201" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F201" s="48" t="s">
+      <c r="F201" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G201" s="48" t="s">
+      <c r="G201" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="H201" s="48" t="s">
+      <c r="H201" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I201" s="42" t="s">
+      <c r="I201" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J201" s="43">
+      <c r="J201" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="49"/>
-      <c r="B202" s="50"/>
-      <c r="C202" s="49"/>
-      <c r="D202" s="51"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="48"/>
-      <c r="H202" s="48"/>
-      <c r="I202" s="39" t="s">
+      <c r="A202" s="54"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="68"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J202" s="44">
+      <c r="J202" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="49"/>
-      <c r="B203" s="50"/>
-      <c r="C203" s="49"/>
-      <c r="D203" s="51"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
-      <c r="G203" s="48"/>
-      <c r="H203" s="48"/>
-      <c r="I203" s="39" t="s">
+      <c r="A203" s="54"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="68"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J203" s="44">
+      <c r="J203" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
-      <c r="B204" s="50"/>
-      <c r="C204" s="49"/>
-      <c r="D204" s="51"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
-      <c r="G204" s="48"/>
-      <c r="H204" s="48"/>
-      <c r="I204" s="39" t="s">
+      <c r="A204" s="54"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J204" s="44">
+      <c r="J204" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="49"/>
-      <c r="B205" s="50"/>
-      <c r="C205" s="49"/>
-      <c r="D205" s="51"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="48"/>
-      <c r="G205" s="48"/>
-      <c r="H205" s="48"/>
-      <c r="I205" s="39" t="s">
+      <c r="A205" s="54"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J205" s="44">
+      <c r="J205" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="49"/>
-      <c r="B206" s="50"/>
-      <c r="C206" s="49"/>
-      <c r="D206" s="51"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
-      <c r="G206" s="48"/>
-      <c r="H206" s="48"/>
-      <c r="I206" s="41" t="s">
+      <c r="A206" s="54"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J206" s="33">
@@ -5924,111 +6019,111 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="50" t="s">
+      <c r="B207" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C207" s="49" t="s">
+      <c r="C207" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="48" t="s">
+      <c r="E207" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F207" s="48" t="s">
+      <c r="F207" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G207" s="48" t="s">
+      <c r="G207" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="H207" s="48" t="s">
+      <c r="H207" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I207" s="42" t="s">
+      <c r="I207" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J207" s="43">
+      <c r="J207" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="49"/>
-      <c r="B208" s="50"/>
-      <c r="C208" s="49"/>
-      <c r="D208" s="51"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="48"/>
-      <c r="H208" s="48"/>
-      <c r="I208" s="39" t="s">
+      <c r="A208" s="54"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J208" s="44">
+      <c r="J208" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="49"/>
-      <c r="D209" s="51"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="48"/>
-      <c r="H209" s="48"/>
-      <c r="I209" s="39" t="s">
+      <c r="A209" s="54"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J209" s="44">
+      <c r="J209" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="49"/>
-      <c r="B210" s="50"/>
-      <c r="C210" s="49"/>
-      <c r="D210" s="51"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
-      <c r="G210" s="48"/>
-      <c r="H210" s="48"/>
-      <c r="I210" s="39" t="s">
+      <c r="A210" s="54"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="68"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J210" s="44">
+      <c r="J210" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="49"/>
-      <c r="D211" s="51"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
-      <c r="G211" s="48"/>
-      <c r="H211" s="48"/>
-      <c r="I211" s="39" t="s">
+      <c r="A211" s="54"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J211" s="44">
+      <c r="J211" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
-      <c r="B212" s="50"/>
-      <c r="C212" s="49"/>
-      <c r="D212" s="51"/>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="48"/>
-      <c r="H212" s="48"/>
-      <c r="I212" s="41" t="s">
+      <c r="A212" s="54"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J212" s="33">
@@ -6037,111 +6132,111 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="49" t="s">
+      <c r="A213" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B213" s="50" t="s">
+      <c r="B213" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C213" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="D213" s="51" t="s">
+      <c r="D213" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="48" t="s">
+      <c r="E213" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F213" s="48" t="s">
+      <c r="F213" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G213" s="48" t="s">
+      <c r="G213" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="H213" s="48" t="s">
+      <c r="H213" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="I213" s="42" t="s">
+      <c r="I213" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J213" s="43">
+      <c r="J213" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
-      <c r="B214" s="50"/>
-      <c r="C214" s="49"/>
-      <c r="D214" s="51"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
-      <c r="G214" s="48"/>
-      <c r="H214" s="48"/>
-      <c r="I214" s="39" t="s">
+      <c r="A214" s="54"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="57"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="57"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J214" s="44">
+      <c r="J214" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="49"/>
-      <c r="B215" s="50"/>
-      <c r="C215" s="49"/>
-      <c r="D215" s="51"/>
-      <c r="E215" s="48"/>
-      <c r="F215" s="48"/>
-      <c r="G215" s="48"/>
-      <c r="H215" s="48"/>
-      <c r="I215" s="39" t="s">
+      <c r="A215" s="54"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="68"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J215" s="44">
+      <c r="J215" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
-      <c r="B216" s="50"/>
-      <c r="C216" s="49"/>
-      <c r="D216" s="51"/>
-      <c r="E216" s="48"/>
-      <c r="F216" s="48"/>
-      <c r="G216" s="48"/>
-      <c r="H216" s="48"/>
-      <c r="I216" s="39" t="s">
+      <c r="A216" s="54"/>
+      <c r="B216" s="55"/>
+      <c r="C216" s="54"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="57"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="57"/>
+      <c r="H216" s="57"/>
+      <c r="I216" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J216" s="44">
+      <c r="J216" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
-      <c r="B217" s="50"/>
-      <c r="C217" s="49"/>
-      <c r="D217" s="51"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
-      <c r="G217" s="48"/>
-      <c r="H217" s="48"/>
-      <c r="I217" s="39" t="s">
+      <c r="A217" s="54"/>
+      <c r="B217" s="55"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="68"/>
+      <c r="E217" s="57"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="57"/>
+      <c r="H217" s="57"/>
+      <c r="I217" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J217" s="44">
+      <c r="J217" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
-      <c r="B218" s="50"/>
-      <c r="C218" s="49"/>
-      <c r="D218" s="51"/>
-      <c r="E218" s="48"/>
-      <c r="F218" s="48"/>
-      <c r="G218" s="48"/>
-      <c r="H218" s="48"/>
-      <c r="I218" s="41" t="s">
+      <c r="A218" s="54"/>
+      <c r="B218" s="55"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="57"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J218" s="33">
@@ -6150,111 +6245,111 @@
       </c>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="49" t="s">
+      <c r="A219" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B219" s="50" t="s">
+      <c r="B219" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C219" s="49" t="s">
+      <c r="C219" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E219" s="48" t="s">
+      <c r="E219" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F219" s="48" t="s">
+      <c r="F219" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G219" s="48" t="s">
+      <c r="G219" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="H219" s="48" t="s">
+      <c r="H219" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="I219" s="42" t="s">
+      <c r="I219" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J219" s="43">
+      <c r="J219" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="49"/>
-      <c r="B220" s="50"/>
-      <c r="C220" s="49"/>
-      <c r="D220" s="51"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="48"/>
-      <c r="G220" s="48"/>
-      <c r="H220" s="48"/>
-      <c r="I220" s="39" t="s">
+      <c r="A220" s="54"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="54"/>
+      <c r="D220" s="68"/>
+      <c r="E220" s="57"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="57"/>
+      <c r="H220" s="57"/>
+      <c r="I220" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J220" s="44">
+      <c r="J220" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="49"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="49"/>
-      <c r="D221" s="51"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
-      <c r="G221" s="48"/>
-      <c r="H221" s="48"/>
-      <c r="I221" s="39" t="s">
+      <c r="A221" s="54"/>
+      <c r="B221" s="55"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="57"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="57"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J221" s="44">
+      <c r="J221" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="49"/>
-      <c r="B222" s="50"/>
-      <c r="C222" s="49"/>
-      <c r="D222" s="51"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48"/>
-      <c r="G222" s="48"/>
-      <c r="H222" s="48"/>
-      <c r="I222" s="39" t="s">
+      <c r="A222" s="54"/>
+      <c r="B222" s="55"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="57"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="57"/>
+      <c r="H222" s="57"/>
+      <c r="I222" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J222" s="44">
+      <c r="J222" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="49"/>
-      <c r="B223" s="50"/>
-      <c r="C223" s="49"/>
-      <c r="D223" s="51"/>
-      <c r="E223" s="48"/>
-      <c r="F223" s="48"/>
-      <c r="G223" s="48"/>
-      <c r="H223" s="48"/>
-      <c r="I223" s="39" t="s">
+      <c r="A223" s="54"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="68"/>
+      <c r="E223" s="57"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="57"/>
+      <c r="H223" s="57"/>
+      <c r="I223" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J223" s="44">
+      <c r="J223" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="49"/>
-      <c r="B224" s="50"/>
-      <c r="C224" s="49"/>
-      <c r="D224" s="51"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
-      <c r="G224" s="48"/>
-      <c r="H224" s="48"/>
-      <c r="I224" s="41" t="s">
+      <c r="A224" s="54"/>
+      <c r="B224" s="55"/>
+      <c r="C224" s="54"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="57"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J224" s="33">
@@ -6263,111 +6358,111 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="49" t="s">
+      <c r="A225" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B225" s="50" t="s">
+      <c r="B225" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C225" s="49" t="s">
+      <c r="C225" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E225" s="48" t="s">
+      <c r="E225" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F225" s="48" t="s">
+      <c r="F225" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G225" s="48" t="s">
+      <c r="G225" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="H225" s="48" t="s">
+      <c r="H225" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I225" s="42" t="s">
+      <c r="I225" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J225" s="43">
+      <c r="J225" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="49"/>
-      <c r="B226" s="50"/>
-      <c r="C226" s="49"/>
-      <c r="D226" s="51"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
-      <c r="G226" s="48"/>
-      <c r="H226" s="48"/>
-      <c r="I226" s="39" t="s">
+      <c r="A226" s="54"/>
+      <c r="B226" s="55"/>
+      <c r="C226" s="54"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="57"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J226" s="44">
+      <c r="J226" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="49"/>
-      <c r="B227" s="50"/>
-      <c r="C227" s="49"/>
-      <c r="D227" s="51"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
-      <c r="G227" s="48"/>
-      <c r="H227" s="48"/>
-      <c r="I227" s="39" t="s">
+      <c r="A227" s="54"/>
+      <c r="B227" s="55"/>
+      <c r="C227" s="54"/>
+      <c r="D227" s="68"/>
+      <c r="E227" s="57"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="57"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J227" s="44">
+      <c r="J227" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="49"/>
-      <c r="B228" s="50"/>
-      <c r="C228" s="49"/>
-      <c r="D228" s="51"/>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
-      <c r="G228" s="48"/>
-      <c r="H228" s="48"/>
-      <c r="I228" s="39" t="s">
+      <c r="A228" s="54"/>
+      <c r="B228" s="55"/>
+      <c r="C228" s="54"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="57"/>
+      <c r="H228" s="57"/>
+      <c r="I228" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J228" s="44">
+      <c r="J228" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="49"/>
-      <c r="B229" s="50"/>
-      <c r="C229" s="49"/>
-      <c r="D229" s="51"/>
-      <c r="E229" s="48"/>
-      <c r="F229" s="48"/>
-      <c r="G229" s="48"/>
-      <c r="H229" s="48"/>
-      <c r="I229" s="39" t="s">
+      <c r="A229" s="54"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="54"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="57"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="57"/>
+      <c r="H229" s="57"/>
+      <c r="I229" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J229" s="44">
+      <c r="J229" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="49"/>
-      <c r="B230" s="50"/>
-      <c r="C230" s="49"/>
-      <c r="D230" s="51"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
-      <c r="G230" s="48"/>
-      <c r="H230" s="48"/>
-      <c r="I230" s="41" t="s">
+      <c r="A230" s="54"/>
+      <c r="B230" s="55"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="68"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="57"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J230" s="33">
@@ -6376,111 +6471,111 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="49" t="s">
+      <c r="A231" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B231" s="50" t="s">
+      <c r="B231" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E231" s="48" t="s">
+      <c r="E231" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F231" s="48" t="s">
+      <c r="F231" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G231" s="48" t="s">
+      <c r="G231" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="H231" s="48" t="s">
+      <c r="H231" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="I231" s="42" t="s">
+      <c r="I231" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J231" s="43">
+      <c r="J231" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="49"/>
-      <c r="B232" s="50"/>
-      <c r="C232" s="49"/>
-      <c r="D232" s="51"/>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48"/>
-      <c r="G232" s="48"/>
-      <c r="H232" s="48"/>
-      <c r="I232" s="39" t="s">
+      <c r="A232" s="54"/>
+      <c r="B232" s="55"/>
+      <c r="C232" s="54"/>
+      <c r="D232" s="68"/>
+      <c r="E232" s="57"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="57"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J232" s="44">
+      <c r="J232" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="49"/>
-      <c r="B233" s="50"/>
-      <c r="C233" s="49"/>
-      <c r="D233" s="51"/>
-      <c r="E233" s="48"/>
-      <c r="F233" s="48"/>
-      <c r="G233" s="48"/>
-      <c r="H233" s="48"/>
-      <c r="I233" s="39" t="s">
+      <c r="A233" s="54"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="54"/>
+      <c r="D233" s="68"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J233" s="44">
+      <c r="J233" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="49"/>
-      <c r="B234" s="50"/>
-      <c r="C234" s="49"/>
-      <c r="D234" s="51"/>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
-      <c r="G234" s="48"/>
-      <c r="H234" s="48"/>
-      <c r="I234" s="39" t="s">
+      <c r="A234" s="54"/>
+      <c r="B234" s="55"/>
+      <c r="C234" s="54"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="57"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="57"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J234" s="44">
+      <c r="J234" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="49"/>
-      <c r="B235" s="50"/>
-      <c r="C235" s="49"/>
-      <c r="D235" s="51"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
-      <c r="G235" s="48"/>
-      <c r="H235" s="48"/>
-      <c r="I235" s="39" t="s">
+      <c r="A235" s="54"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="54"/>
+      <c r="D235" s="68"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="57"/>
+      <c r="H235" s="57"/>
+      <c r="I235" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J235" s="44">
+      <c r="J235" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="49"/>
-      <c r="B236" s="50"/>
-      <c r="C236" s="49"/>
-      <c r="D236" s="51"/>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
-      <c r="G236" s="48"/>
-      <c r="H236" s="48"/>
-      <c r="I236" s="41" t="s">
+      <c r="A236" s="54"/>
+      <c r="B236" s="55"/>
+      <c r="C236" s="54"/>
+      <c r="D236" s="68"/>
+      <c r="E236" s="57"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="57"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J236" s="33">
@@ -6489,111 +6584,111 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="49" t="s">
+      <c r="A237" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B237" s="50" t="s">
+      <c r="B237" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C237" s="49" t="s">
+      <c r="C237" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E237" s="48" t="s">
+      <c r="E237" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F237" s="48" t="s">
+      <c r="F237" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G237" s="48" t="s">
+      <c r="G237" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="H237" s="48" t="s">
+      <c r="H237" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="I237" s="42" t="s">
+      <c r="I237" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J237" s="43">
+      <c r="J237" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="49"/>
-      <c r="B238" s="50"/>
-      <c r="C238" s="49"/>
-      <c r="D238" s="51"/>
-      <c r="E238" s="48"/>
-      <c r="F238" s="48"/>
-      <c r="G238" s="48"/>
-      <c r="H238" s="48"/>
-      <c r="I238" s="39" t="s">
+      <c r="A238" s="54"/>
+      <c r="B238" s="55"/>
+      <c r="C238" s="54"/>
+      <c r="D238" s="68"/>
+      <c r="E238" s="57"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="57"/>
+      <c r="H238" s="57"/>
+      <c r="I238" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J238" s="44">
+      <c r="J238" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="49"/>
-      <c r="B239" s="50"/>
-      <c r="C239" s="49"/>
-      <c r="D239" s="51"/>
-      <c r="E239" s="48"/>
-      <c r="F239" s="48"/>
-      <c r="G239" s="48"/>
-      <c r="H239" s="48"/>
-      <c r="I239" s="39" t="s">
+      <c r="A239" s="54"/>
+      <c r="B239" s="55"/>
+      <c r="C239" s="54"/>
+      <c r="D239" s="68"/>
+      <c r="E239" s="57"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="57"/>
+      <c r="H239" s="57"/>
+      <c r="I239" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J239" s="44">
+      <c r="J239" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="49"/>
-      <c r="B240" s="50"/>
-      <c r="C240" s="49"/>
-      <c r="D240" s="51"/>
-      <c r="E240" s="48"/>
-      <c r="F240" s="48"/>
-      <c r="G240" s="48"/>
-      <c r="H240" s="48"/>
-      <c r="I240" s="39" t="s">
+      <c r="A240" s="54"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="54"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="57"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
+      <c r="I240" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J240" s="44">
+      <c r="J240" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="49"/>
-      <c r="B241" s="50"/>
-      <c r="C241" s="49"/>
-      <c r="D241" s="51"/>
-      <c r="E241" s="48"/>
-      <c r="F241" s="48"/>
-      <c r="G241" s="48"/>
-      <c r="H241" s="48"/>
-      <c r="I241" s="39" t="s">
+      <c r="A241" s="54"/>
+      <c r="B241" s="55"/>
+      <c r="C241" s="54"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="57"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="57"/>
+      <c r="H241" s="57"/>
+      <c r="I241" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J241" s="44">
+      <c r="J241" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="49"/>
-      <c r="B242" s="50"/>
-      <c r="C242" s="49"/>
-      <c r="D242" s="51"/>
-      <c r="E242" s="48"/>
-      <c r="F242" s="48"/>
-      <c r="G242" s="48"/>
-      <c r="H242" s="48"/>
-      <c r="I242" s="41" t="s">
+      <c r="A242" s="54"/>
+      <c r="B242" s="55"/>
+      <c r="C242" s="54"/>
+      <c r="D242" s="68"/>
+      <c r="E242" s="57"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="57"/>
+      <c r="H242" s="57"/>
+      <c r="I242" s="40" t="s">
         <v>231</v>
       </c>
       <c r="J242" s="33">
@@ -6601,8 +6696,1046 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
+    <row r="243" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B243" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D243" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F243" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G243" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="H243" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="I243" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J243" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="54"/>
+      <c r="B244" s="55"/>
+      <c r="C244" s="54"/>
+      <c r="D244" s="68"/>
+      <c r="E244" s="57"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="57"/>
+      <c r="H244" s="57"/>
+      <c r="I244" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J244" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="54"/>
+      <c r="B245" s="55"/>
+      <c r="C245" s="54"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J245" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="54"/>
+      <c r="B246" s="55"/>
+      <c r="C246" s="54"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
+      <c r="I246" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J246" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="54"/>
+      <c r="B247" s="55"/>
+      <c r="C247" s="54"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="57"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="57"/>
+      <c r="H247" s="57"/>
+      <c r="I247" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J247" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="54"/>
+      <c r="B248" s="55"/>
+      <c r="C248" s="54"/>
+      <c r="D248" s="68"/>
+      <c r="E248" s="57"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="57"/>
+      <c r="H248" s="57"/>
+      <c r="I248" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J248" s="49">
+        <f>AVERAGE(J243:J247)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B249" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D249" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F249" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G249" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="H249" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I249" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J249" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="54"/>
+      <c r="B250" s="55"/>
+      <c r="C250" s="54"/>
+      <c r="D250" s="68"/>
+      <c r="E250" s="57"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="57"/>
+      <c r="H250" s="57"/>
+      <c r="I250" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J250" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="54"/>
+      <c r="B251" s="55"/>
+      <c r="C251" s="54"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="57"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J251" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="54"/>
+      <c r="B252" s="55"/>
+      <c r="C252" s="54"/>
+      <c r="D252" s="68"/>
+      <c r="E252" s="57"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="57"/>
+      <c r="H252" s="57"/>
+      <c r="I252" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J252" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="54"/>
+      <c r="B253" s="55"/>
+      <c r="C253" s="54"/>
+      <c r="D253" s="68"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="57"/>
+      <c r="H253" s="57"/>
+      <c r="I253" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J253" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="54"/>
+      <c r="B254" s="55"/>
+      <c r="C254" s="54"/>
+      <c r="D254" s="68"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J254" s="49">
+        <f>AVERAGE(J249:J253)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C255" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D255" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E255" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F255" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G255" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="H255" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="I255" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J255" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="54"/>
+      <c r="B256" s="55"/>
+      <c r="C256" s="54"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="57"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J256" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="54"/>
+      <c r="B257" s="55"/>
+      <c r="C257" s="54"/>
+      <c r="D257" s="68"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J257" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="54"/>
+      <c r="B258" s="55"/>
+      <c r="C258" s="54"/>
+      <c r="D258" s="68"/>
+      <c r="E258" s="57"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="57"/>
+      <c r="H258" s="57"/>
+      <c r="I258" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J258" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="54"/>
+      <c r="B259" s="55"/>
+      <c r="C259" s="54"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="57"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="57"/>
+      <c r="H259" s="57"/>
+      <c r="I259" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J259" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="54"/>
+      <c r="B260" s="55"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="57"/>
+      <c r="H260" s="57"/>
+      <c r="I260" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J260" s="49">
+        <f>AVERAGE(J255:J259)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B261" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C261" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D261" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E261" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="F261" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G261" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H261" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I261" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J261" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="54"/>
+      <c r="B262" s="55"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="68"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="57"/>
+      <c r="H262" s="57"/>
+      <c r="I262" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J262" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="54"/>
+      <c r="B263" s="55"/>
+      <c r="C263" s="54"/>
+      <c r="D263" s="68"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="57"/>
+      <c r="H263" s="57"/>
+      <c r="I263" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J263" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="54"/>
+      <c r="B264" s="55"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="68"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="57"/>
+      <c r="G264" s="57"/>
+      <c r="H264" s="57"/>
+      <c r="I264" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J264" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="54"/>
+      <c r="B265" s="55"/>
+      <c r="C265" s="54"/>
+      <c r="D265" s="68"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="57"/>
+      <c r="G265" s="57"/>
+      <c r="H265" s="57"/>
+      <c r="I265" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J265" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="54"/>
+      <c r="B266" s="55"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="68"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J266" s="49">
+        <f>AVERAGE(J261:J265)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B267" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C267" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D267" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E267" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F267" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G267" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="H267" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I267" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J267" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="54"/>
+      <c r="B268" s="55"/>
+      <c r="C268" s="54"/>
+      <c r="D268" s="68"/>
+      <c r="E268" s="57"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="57"/>
+      <c r="H268" s="57"/>
+      <c r="I268" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J268" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="54"/>
+      <c r="B269" s="55"/>
+      <c r="C269" s="54"/>
+      <c r="D269" s="68"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="57"/>
+      <c r="H269" s="57"/>
+      <c r="I269" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J269" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="54"/>
+      <c r="B270" s="55"/>
+      <c r="C270" s="54"/>
+      <c r="D270" s="68"/>
+      <c r="E270" s="57"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="57"/>
+      <c r="H270" s="57"/>
+      <c r="I270" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J270" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="54"/>
+      <c r="B271" s="55"/>
+      <c r="C271" s="54"/>
+      <c r="D271" s="68"/>
+      <c r="E271" s="57"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="57"/>
+      <c r="H271" s="57"/>
+      <c r="I271" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J271" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="54"/>
+      <c r="B272" s="55"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="68"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="57"/>
+      <c r="H272" s="57"/>
+      <c r="I272" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J272" s="49">
+        <f>AVERAGE(J267:J271)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B273" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C273" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D273" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E273" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F273" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G273" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="H273" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J273" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="54"/>
+      <c r="B274" s="55"/>
+      <c r="C274" s="54"/>
+      <c r="D274" s="68"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="57"/>
+      <c r="G274" s="57"/>
+      <c r="H274" s="57"/>
+      <c r="I274" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J274" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="54"/>
+      <c r="B275" s="55"/>
+      <c r="C275" s="54"/>
+      <c r="D275" s="68"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="57"/>
+      <c r="H275" s="57"/>
+      <c r="I275" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J275" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="54"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="54"/>
+      <c r="D276" s="68"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="57"/>
+      <c r="H276" s="57"/>
+      <c r="I276" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J276" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="54"/>
+      <c r="B277" s="55"/>
+      <c r="C277" s="54"/>
+      <c r="D277" s="68"/>
+      <c r="E277" s="57"/>
+      <c r="F277" s="57"/>
+      <c r="G277" s="57"/>
+      <c r="H277" s="57"/>
+      <c r="I277" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J277" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="54"/>
+      <c r="B278" s="55"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="68"/>
+      <c r="E278" s="57"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="57"/>
+      <c r="H278" s="57"/>
+      <c r="I278" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J278" s="49">
+        <f>AVERAGE(J273:J277)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="329">
+  <mergeCells count="377">
+    <mergeCell ref="A267:A272"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C267:C272"/>
+    <mergeCell ref="D267:D272"/>
+    <mergeCell ref="E267:E272"/>
+    <mergeCell ref="F267:F272"/>
+    <mergeCell ref="G267:G272"/>
+    <mergeCell ref="H267:H272"/>
+    <mergeCell ref="A273:A278"/>
+    <mergeCell ref="B273:B278"/>
+    <mergeCell ref="C273:C278"/>
+    <mergeCell ref="D273:D278"/>
+    <mergeCell ref="E273:E278"/>
+    <mergeCell ref="F273:F278"/>
+    <mergeCell ref="G273:G278"/>
+    <mergeCell ref="H273:H278"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="C255:C260"/>
+    <mergeCell ref="D255:D260"/>
+    <mergeCell ref="E255:E260"/>
+    <mergeCell ref="F255:F260"/>
+    <mergeCell ref="G255:G260"/>
+    <mergeCell ref="H255:H260"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="C261:C266"/>
+    <mergeCell ref="D261:D266"/>
+    <mergeCell ref="E261:E266"/>
+    <mergeCell ref="F261:F266"/>
+    <mergeCell ref="G261:G266"/>
+    <mergeCell ref="H261:H266"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="D243:D248"/>
+    <mergeCell ref="E243:E248"/>
+    <mergeCell ref="F243:F248"/>
+    <mergeCell ref="G243:G248"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="F249:F254"/>
+    <mergeCell ref="G249:G254"/>
+    <mergeCell ref="H249:H254"/>
+    <mergeCell ref="G231:G236"/>
+    <mergeCell ref="H231:H236"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="D237:D242"/>
+    <mergeCell ref="E237:E242"/>
+    <mergeCell ref="F237:F242"/>
+    <mergeCell ref="G237:G242"/>
+    <mergeCell ref="H237:H242"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D231:D236"/>
+    <mergeCell ref="E231:E236"/>
+    <mergeCell ref="F231:F236"/>
+    <mergeCell ref="G219:G224"/>
+    <mergeCell ref="H219:H224"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:D230"/>
+    <mergeCell ref="E225:E230"/>
+    <mergeCell ref="F225:F230"/>
+    <mergeCell ref="G225:G230"/>
+    <mergeCell ref="H225:H230"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="C219:C224"/>
+    <mergeCell ref="D219:D224"/>
+    <mergeCell ref="E219:E224"/>
+    <mergeCell ref="F219:F224"/>
+    <mergeCell ref="G207:G212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="C213:C218"/>
+    <mergeCell ref="D213:D218"/>
+    <mergeCell ref="E213:E218"/>
+    <mergeCell ref="F213:F218"/>
+    <mergeCell ref="G213:G218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F201:F206"/>
+    <mergeCell ref="G201:G206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="F189:F194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="F177:F182"/>
+    <mergeCell ref="G177:G182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="F171:F176"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="F165:F170"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="G147:G152"/>
+    <mergeCell ref="H147:H152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E152"/>
+    <mergeCell ref="F147:F152"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="H135:H140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="G141:G146"/>
+    <mergeCell ref="H141:H146"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="E135:E140"/>
+    <mergeCell ref="F135:F140"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="H111:H116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="G99:G104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="G105:G110"/>
+    <mergeCell ref="H105:H110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="H87:H92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="F93:F98"/>
+    <mergeCell ref="G93:G98"/>
+    <mergeCell ref="H93:H98"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="H81:H86"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:J2"/>
@@ -6620,321 +7753,9 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H3:H8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="F81:F86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="H81:H86"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="H87:H92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="F93:F98"/>
-    <mergeCell ref="G93:G98"/>
-    <mergeCell ref="H93:H98"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G99:G104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="F105:F110"/>
-    <mergeCell ref="G105:G110"/>
-    <mergeCell ref="H105:H110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="H111:H116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H117:H122"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="H123:H128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="H129:H134"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="H135:H140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
-    <mergeCell ref="G141:G146"/>
-    <mergeCell ref="H141:H146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="E135:E140"/>
-    <mergeCell ref="F135:F140"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="H147:H152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="E147:E152"/>
-    <mergeCell ref="F147:F152"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="F165:F170"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="E159:E164"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="F177:F182"/>
-    <mergeCell ref="G177:G182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="E171:E176"/>
-    <mergeCell ref="F171:F176"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="F189:F194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="F183:F188"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="F201:F206"/>
-    <mergeCell ref="G201:G206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G207:G212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="D213:D218"/>
-    <mergeCell ref="E213:E218"/>
-    <mergeCell ref="F213:F218"/>
-    <mergeCell ref="G213:G218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G219:G224"/>
-    <mergeCell ref="H219:H224"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:D230"/>
-    <mergeCell ref="E225:E230"/>
-    <mergeCell ref="F225:F230"/>
-    <mergeCell ref="G225:G230"/>
-    <mergeCell ref="H225:H230"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="E219:E224"/>
-    <mergeCell ref="F219:F224"/>
-    <mergeCell ref="G231:G236"/>
-    <mergeCell ref="H231:H236"/>
-    <mergeCell ref="A237:A242"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="D237:D242"/>
-    <mergeCell ref="E237:E242"/>
-    <mergeCell ref="F237:F242"/>
-    <mergeCell ref="G237:G242"/>
-    <mergeCell ref="H237:H242"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D231:D236"/>
-    <mergeCell ref="E231:E236"/>
-    <mergeCell ref="F231:F236"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J14">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -6948,7 +7769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J20">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -6962,7 +7783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J26">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -6976,7 +7797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J32">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -6990,7 +7811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J38">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7004,7 +7825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J44">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7018,7 +7839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:J50">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7032,7 +7853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J56">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7046,7 +7867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:J62">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7060,7 +7881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J68">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7074,7 +7895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69:J74">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7088,7 +7909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:J80">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7102,7 +7923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J86">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7116,7 +7937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:J92">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7130,7 +7951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J98">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7144,7 +7965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:J104">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7158,7 +7979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105:J110">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7172,7 +7993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J116">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7186,7 +8007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117:J122">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7200,7 +8021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:J128">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7214,7 +8035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:J134">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7228,7 +8049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J135:J140">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7242,7 +8063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:J146">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7256,7 +8077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J147:J152">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7270,7 +8091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:J158">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7284,7 +8105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159:J164">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7298,7 +8119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J165:J170">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7312,7 +8133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171:J176">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7326,7 +8147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177:J182">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7340,7 +8161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183:J188">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7354,7 +8175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J189:J194">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7368,7 +8189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J200">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7382,7 +8203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J201:J206">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7396,7 +8217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207:J212">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7410,7 +8231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J213:J218">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7424,7 +8245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J219:J224">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7438,7 +8259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J225:J230">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7452,7 +8273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J231:J236">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="5"/>
@@ -7465,7 +8286,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J237:J242">
+  <conditionalFormatting sqref="J237:J254">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{047C63D4-961F-48B5-9AB1-1FC30C19545C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J255:J266">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3CB0F59C-1D32-435C-B480-9A88533F2F93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J267:J272">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2821FFFC-2D54-48B3-B68B-E4CA57A70F38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J273:J278">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7474,7 +8337,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{047C63D4-961F-48B5-9AB1-1FC30C19545C}</x14:id>
+          <x14:id>{4A3DB64F-ECCC-4144-9696-C09B275BE91B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7520,9 +8383,22 @@
     <hyperlink ref="B213" r:id="rId38" xr:uid="{AFF8A39A-12C0-44E8-A9A4-5A9CF4F72E65}"/>
     <hyperlink ref="B231" r:id="rId39" xr:uid="{983E4D89-1C44-4CBF-8DAC-15E47ED4B0EF}"/>
     <hyperlink ref="B237" r:id="rId40" xr:uid="{B84CAF7E-DBB0-45F6-BC94-509C911DFA34}"/>
+    <hyperlink ref="B249" r:id="rId41" display="School of Numerology" xr:uid="{43BF4AD4-BBFF-4233-84AE-E8019A9421A7}"/>
+    <hyperlink ref="B249:B254" r:id="rId42" display="Frost Warden" xr:uid="{D5A59E3B-112D-499C-AB4B-C129A208D6A9}"/>
+    <hyperlink ref="B243" r:id="rId43" display="School of Numerology" xr:uid="{7DD792F3-BBAC-435B-B8CD-B37C3C48F759}"/>
+    <hyperlink ref="B243:B248" r:id="rId44" display="Dervish" xr:uid="{3B17A845-0C60-4EBB-ABB6-C888D3A019B6}"/>
+    <hyperlink ref="B255" r:id="rId45" display="School of Numerology" xr:uid="{096FD413-A9CA-4CF5-AC6E-BB3898FC496D}"/>
+    <hyperlink ref="B255:B260" r:id="rId46" display="Circle of the Arctic" xr:uid="{97B999FD-EF62-4EAC-B1BC-0E515B5E3D1F}"/>
+    <hyperlink ref="B261" r:id="rId47" display="School of Numerology" xr:uid="{34380548-449D-4A88-8E06-135089A46565}"/>
+    <hyperlink ref="B261:B266" r:id="rId48" display="Circle of Plagues" xr:uid="{3DDE264F-FA0B-4315-8C54-C3995B494D57}"/>
+    <hyperlink ref="B267" r:id="rId49" display="School of Numerology" xr:uid="{328BAD87-D434-43EE-BE80-9E7414A0CE4E}"/>
+    <hyperlink ref="B267:B272" r:id="rId50" display="Steppe Rider" xr:uid="{4A85C08D-ECAE-4642-ADE4-C2C01657125C}"/>
+    <hyperlink ref="B273" r:id="rId51" display="Divine Domain - Destruction" xr:uid="{E9A9A2EF-1499-40CC-9A20-5B7D07579ED7}"/>
+    <hyperlink ref="B273:B278" r:id="rId52" display="Divine Domain - Sea (Includes Variants for River and Swamp)" xr:uid="{5173F4AE-E948-49E0-9F7A-6D54E9D224D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -8109,7 +8985,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J237:J242</xm:sqref>
+          <xm:sqref>J237:J254</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3CB0F59C-1D32-435C-B480-9A88533F2F93}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J255:J266</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2821FFFC-2D54-48B3-B68B-E4CA57A70F38}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J267:J272</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A3DB64F-ECCC-4144-9696-C09B275BE91B}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J273:J278</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8166,81 +9087,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="77" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="72" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="72" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="74" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
@@ -8259,7 +9180,7 @@
       <c r="N2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8296,7 +9217,7 @@
       <c r="AA2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" s="72"/>
+      <c r="AB2" s="74"/>
       <c r="AC2" s="5" t="s">
         <v>11</v>
       </c>
@@ -8321,7 +9242,7 @@
       <c r="AJ2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="72"/>
+      <c r="AK2" s="74"/>
     </row>
     <row r="3" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
@@ -12574,6 +13495,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="A1:A2"/>
@@ -12581,13 +13509,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="AC3:AJ3">
     <cfRule type="dataBar" priority="323">
@@ -12724,20 +13645,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12816,20 +13737,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -12902,68 +13823,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C54C3A-E2A8-468E-8A4A-F1EC259E4790}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="45" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="18.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="46" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="E1" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="81" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="38" t="s">
+      <c r="E2" s="48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>239</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="82"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F076268F-2F3B-4BD5-B686-2C7F886406EC}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{CBB0DCC6-294E-41FB-9C71-9493DE573942}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{1C9195E5-CC89-48D0-A601-125948D2EF0C}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{52122B34-5D72-43DC-87FE-7665FDB174EB}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{CA5B771C-B623-43ED-A7E4-6CFF7EF02839}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{664549A8-1FEC-43A3-8926-398C9F5375C1}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{CA5B771C-B623-43ED-A7E4-6CFF7EF02839}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{664549A8-1FEC-43A3-8926-398C9F5375C1}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{FBD56253-7EB7-4325-A903-F010C02CEA56}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{11ACED87-B246-41B3-8955-AF6AE1F191F8}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{36E6BDC6-776E-4957-9071-F1521FBA3E00}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{DDDC70EB-85D0-4A69-A9CD-C05D601FD834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8D1C87-F39F-4E08-8B38-C0BA9965FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8975CB3-346A-4C99-B35B-7EB08B56A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subclasses (Non-Sortable)" sheetId="9" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="270">
   <si>
     <t>Class</t>
   </si>
@@ -1292,6 +1292,18 @@
   </si>
   <si>
     <t>Weapons</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>A tanky, heavily armored artificer who uses a flamethrower and flammable oils to scorch swaths of enemies while controlling the battlefield</t>
+  </si>
+  <si>
+    <t>Battlemage, Blaster, Controller, Debuffer, Enhancer, Tank</t>
+  </si>
+  <si>
+    <t>Brain, Dungeoneer</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1711,6 +1723,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,19 +1801,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,42 +1811,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,18 +1833,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2106,13 +2124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424C784-E472-4D2E-A203-633AE1B9346C}">
-  <dimension ref="A1:N278"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I236" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J278" sqref="A243:J278"/>
+      <selection pane="bottomRight" activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,74 +2149,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="60" t="s">
         <v>139</v>
       </c>
       <c r="I3" s="38" t="s">
@@ -2209,14 +2227,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
@@ -2225,14 +2243,14 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="38" t="s">
         <v>230</v>
       </c>
@@ -2241,14 +2259,14 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="38" t="s">
         <v>40</v>
       </c>
@@ -2257,14 +2275,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="38" t="s">
         <v>38</v>
       </c>
@@ -2273,14 +2291,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="40" t="s">
         <v>231</v>
       </c>
@@ -2290,28 +2308,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="65" t="s">
         <v>145</v>
       </c>
       <c r="I9" s="41" t="s">
@@ -2322,14 +2340,14 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="38" t="s">
         <v>39</v>
       </c>
@@ -2338,14 +2356,14 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="38" t="s">
         <v>230</v>
       </c>
@@ -2354,14 +2372,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="38" t="s">
         <v>40</v>
       </c>
@@ -2370,14 +2388,14 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="38" t="s">
         <v>38</v>
       </c>
@@ -2386,14 +2404,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="40" t="s">
         <v>231</v>
       </c>
@@ -2403,28 +2421,28 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="65" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="41" t="s">
@@ -2435,14 +2453,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="38" t="s">
         <v>39</v>
       </c>
@@ -2451,14 +2469,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="38" t="s">
         <v>230</v>
       </c>
@@ -2467,14 +2485,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="38" t="s">
         <v>40</v>
       </c>
@@ -2483,14 +2501,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="38" t="s">
         <v>38</v>
       </c>
@@ -2499,14 +2517,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="40" t="s">
         <v>231</v>
       </c>
@@ -2516,28 +2534,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="65" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="41" t="s">
@@ -2548,14 +2566,14 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="38" t="s">
         <v>39</v>
       </c>
@@ -2564,14 +2582,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="38" t="s">
         <v>230</v>
       </c>
@@ -2580,14 +2598,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="38" t="s">
         <v>40</v>
       </c>
@@ -2596,14 +2614,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="38" t="s">
         <v>38</v>
       </c>
@@ -2612,14 +2630,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="40" t="s">
         <v>231</v>
       </c>
@@ -2629,28 +2647,28 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="60" t="s">
         <v>149</v>
       </c>
       <c r="I27" s="41" t="s">
@@ -2661,14 +2679,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="38" t="s">
         <v>39</v>
       </c>
@@ -2677,14 +2695,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="38" t="s">
         <v>230</v>
       </c>
@@ -2693,14 +2711,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="38" t="s">
         <v>40</v>
       </c>
@@ -2709,14 +2727,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="38" t="s">
         <v>38</v>
       </c>
@@ -2725,14 +2743,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="40" t="s">
         <v>231</v>
       </c>
@@ -2742,28 +2760,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="60" t="s">
         <v>151</v>
       </c>
       <c r="I33" s="41" t="s">
@@ -2774,14 +2792,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="38" t="s">
         <v>39</v>
       </c>
@@ -2790,14 +2808,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="38" t="s">
         <v>230</v>
       </c>
@@ -2806,14 +2824,14 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="38" t="s">
         <v>40</v>
       </c>
@@ -2822,14 +2840,14 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="38" t="s">
         <v>38</v>
       </c>
@@ -2838,14 +2856,14 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="40" t="s">
         <v>231</v>
       </c>
@@ -2855,28 +2873,28 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>154</v>
       </c>
       <c r="I39" s="41" t="s">
@@ -2887,14 +2905,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="38" t="s">
         <v>39</v>
       </c>
@@ -2903,14 +2921,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
       <c r="I41" s="38" t="s">
         <v>230</v>
       </c>
@@ -2919,14 +2937,14 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
       <c r="I42" s="38" t="s">
         <v>40</v>
       </c>
@@ -2935,14 +2953,14 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="38" t="s">
         <v>38</v>
       </c>
@@ -2951,14 +2969,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="40" t="s">
         <v>231</v>
       </c>
@@ -2968,28 +2986,28 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="59" t="s">
         <v>156</v>
       </c>
       <c r="I45" s="41" t="s">
@@ -3000,14 +3018,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="38" t="s">
         <v>39</v>
       </c>
@@ -3016,14 +3034,14 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="38" t="s">
         <v>230</v>
       </c>
@@ -3032,14 +3050,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="38" t="s">
         <v>40</v>
       </c>
@@ -3048,14 +3066,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="38" t="s">
         <v>38</v>
       </c>
@@ -3064,14 +3082,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="40" t="s">
         <v>231</v>
       </c>
@@ -3081,28 +3099,28 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="57" t="s">
+      <c r="H51" s="59" t="s">
         <v>158</v>
       </c>
       <c r="I51" s="41" t="s">
@@ -3113,14 +3131,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
       <c r="I52" s="38" t="s">
         <v>39</v>
       </c>
@@ -3129,14 +3147,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="38" t="s">
         <v>230</v>
       </c>
@@ -3145,14 +3163,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="38" t="s">
         <v>40</v>
       </c>
@@ -3161,14 +3179,14 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
       <c r="I55" s="38" t="s">
         <v>38</v>
       </c>
@@ -3177,14 +3195,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="40" t="s">
         <v>231</v>
       </c>
@@ -3194,28 +3212,28 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="59" t="s">
         <v>160</v>
       </c>
       <c r="I57" s="41" t="s">
@@ -3226,14 +3244,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="38" t="s">
         <v>39</v>
       </c>
@@ -3242,14 +3260,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
       <c r="I59" s="38" t="s">
         <v>230</v>
       </c>
@@ -3258,14 +3276,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="38" t="s">
         <v>40</v>
       </c>
@@ -3274,14 +3292,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="38" t="s">
         <v>38</v>
       </c>
@@ -3290,14 +3308,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="40" t="s">
         <v>231</v>
       </c>
@@ -3307,28 +3325,28 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="57" t="s">
+      <c r="F63" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="57" t="s">
+      <c r="G63" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="59" t="s">
         <v>163</v>
       </c>
       <c r="I63" s="41" t="s">
@@ -3339,14 +3357,14 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
       <c r="I64" s="38" t="s">
         <v>39</v>
       </c>
@@ -3355,14 +3373,14 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="38" t="s">
         <v>230</v>
       </c>
@@ -3371,14 +3389,14 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
       <c r="I66" s="38" t="s">
         <v>40</v>
       </c>
@@ -3387,14 +3405,14 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
       <c r="I67" s="38" t="s">
         <v>38</v>
       </c>
@@ -3403,14 +3421,14 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
       <c r="I68" s="40" t="s">
         <v>231</v>
       </c>
@@ -3420,28 +3438,28 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="57" t="s">
+      <c r="F69" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="57" t="s">
+      <c r="G69" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="H69" s="57" t="s">
+      <c r="H69" s="59" t="s">
         <v>15</v>
       </c>
       <c r="I69" s="41" t="s">
@@ -3452,14 +3470,14 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
       <c r="I70" s="38" t="s">
         <v>39</v>
       </c>
@@ -3468,14 +3486,14 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="38" t="s">
         <v>230</v>
       </c>
@@ -3484,14 +3502,14 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="38" t="s">
         <v>40</v>
       </c>
@@ -3500,14 +3518,14 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="38" t="s">
         <v>38</v>
       </c>
@@ -3516,14 +3534,14 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
       <c r="I74" s="40" t="s">
         <v>231</v>
       </c>
@@ -3533,28 +3551,28 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="57" t="s">
+      <c r="F75" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="57" t="s">
+      <c r="G75" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="H75" s="57" t="s">
+      <c r="H75" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I75" s="41" t="s">
@@ -3565,14 +3583,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
       <c r="I76" s="38" t="s">
         <v>39</v>
       </c>
@@ -3581,14 +3599,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
       <c r="I77" s="38" t="s">
         <v>230</v>
       </c>
@@ -3597,14 +3615,14 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
       <c r="I78" s="38" t="s">
         <v>40</v>
       </c>
@@ -3613,14 +3631,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
       <c r="I79" s="38" t="s">
         <v>38</v>
       </c>
@@ -3629,14 +3647,14 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="40" t="s">
         <v>231</v>
       </c>
@@ -3646,28 +3664,28 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="E81" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G81" s="57" t="s">
+      <c r="G81" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="H81" s="57" t="s">
+      <c r="H81" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I81" s="41" t="s">
@@ -3678,14 +3696,14 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
       <c r="I82" s="38" t="s">
         <v>39</v>
       </c>
@@ -3694,14 +3712,14 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
       <c r="I83" s="38" t="s">
         <v>230</v>
       </c>
@@ -3710,14 +3728,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
       <c r="I84" s="38" t="s">
         <v>40</v>
       </c>
@@ -3726,14 +3744,14 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
       <c r="I85" s="38" t="s">
         <v>38</v>
       </c>
@@ -3742,14 +3760,14 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
       <c r="I86" s="40" t="s">
         <v>231</v>
       </c>
@@ -3759,28 +3777,28 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="D87" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="E87" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="F87" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G87" s="57" t="s">
+      <c r="G87" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="57" t="s">
+      <c r="H87" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I87" s="41" t="s">
@@ -3791,14 +3809,14 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
       <c r="I88" s="38" t="s">
         <v>39</v>
       </c>
@@ -3807,14 +3825,14 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
       <c r="I89" s="38" t="s">
         <v>230</v>
       </c>
@@ -3823,14 +3841,14 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
       <c r="I90" s="38" t="s">
         <v>40</v>
       </c>
@@ -3839,14 +3857,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
       <c r="I91" s="38" t="s">
         <v>38</v>
       </c>
@@ -3855,14 +3873,14 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
       <c r="I92" s="40" t="s">
         <v>231</v>
       </c>
@@ -3872,28 +3890,28 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="68" t="s">
+      <c r="D93" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="57" t="s">
+      <c r="E93" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F93" s="57" t="s">
+      <c r="F93" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="57" t="s">
+      <c r="G93" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="57" t="s">
+      <c r="H93" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -3904,14 +3922,14 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
       <c r="I94" s="38" t="s">
         <v>39</v>
       </c>
@@ -3920,14 +3938,14 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
       <c r="I95" s="38" t="s">
         <v>230</v>
       </c>
@@ -3936,14 +3954,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
       <c r="I96" s="38" t="s">
         <v>40</v>
       </c>
@@ -3952,14 +3970,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="57"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
       <c r="I97" s="38" t="s">
         <v>38</v>
       </c>
@@ -3968,14 +3986,14 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="57"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
       <c r="I98" s="40" t="s">
         <v>231</v>
       </c>
@@ -3985,28 +4003,28 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="68" t="s">
+      <c r="D99" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="57" t="s">
+      <c r="E99" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F99" s="57" t="s">
+      <c r="F99" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G99" s="57" t="s">
+      <c r="G99" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="H99" s="57" t="s">
+      <c r="H99" s="59" t="s">
         <v>171</v>
       </c>
       <c r="I99" s="41" t="s">
@@ -4017,14 +4035,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
       <c r="I100" s="38" t="s">
         <v>39</v>
       </c>
@@ -4033,14 +4051,14 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
       <c r="I101" s="38" t="s">
         <v>230</v>
       </c>
@@ -4049,14 +4067,14 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
       <c r="I102" s="38" t="s">
         <v>40</v>
       </c>
@@ -4065,14 +4083,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
       <c r="I103" s="38" t="s">
         <v>38</v>
       </c>
@@ -4081,14 +4099,14 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
       <c r="I104" s="40" t="s">
         <v>231</v>
       </c>
@@ -4098,28 +4116,28 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="54" t="s">
+      <c r="C105" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="E105" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F105" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G105" s="57" t="s">
+      <c r="G105" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="H105" s="57" t="s">
+      <c r="H105" s="59" t="s">
         <v>171</v>
       </c>
       <c r="I105" s="41" t="s">
@@ -4130,14 +4148,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
       <c r="I106" s="38" t="s">
         <v>39</v>
       </c>
@@ -4146,14 +4164,14 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
       <c r="I107" s="38" t="s">
         <v>230</v>
       </c>
@@ -4162,14 +4180,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="38" t="s">
         <v>40</v>
       </c>
@@ -4178,14 +4196,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59"/>
       <c r="I109" s="38" t="s">
         <v>38</v>
       </c>
@@ -4194,14 +4212,14 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
       <c r="I110" s="40" t="s">
         <v>231</v>
       </c>
@@ -4211,28 +4229,28 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="68" t="s">
+      <c r="D111" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="57" t="s">
+      <c r="E111" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F111" s="57" t="s">
+      <c r="F111" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G111" s="57" t="s">
+      <c r="G111" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="H111" s="57" t="s">
+      <c r="H111" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I111" s="41" t="s">
@@ -4243,14 +4261,14 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
       <c r="I112" s="38" t="s">
         <v>39</v>
       </c>
@@ -4259,14 +4277,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
       <c r="I113" s="38" t="s">
         <v>230</v>
       </c>
@@ -4275,14 +4293,14 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="54"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
       <c r="I114" s="38" t="s">
         <v>40</v>
       </c>
@@ -4291,14 +4309,14 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="54"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="59"/>
       <c r="I115" s="38" t="s">
         <v>38</v>
       </c>
@@ -4307,14 +4325,14 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
       <c r="I116" s="40" t="s">
         <v>231</v>
       </c>
@@ -4324,28 +4342,28 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="B117" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E117" s="57" t="s">
+      <c r="E117" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F117" s="57" t="s">
+      <c r="F117" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G117" s="57" t="s">
+      <c r="G117" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="H117" s="57" t="s">
+      <c r="H117" s="59" t="s">
         <v>171</v>
       </c>
       <c r="I117" s="41" t="s">
@@ -4356,14 +4374,14 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="54"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
       <c r="I118" s="38" t="s">
         <v>39</v>
       </c>
@@ -4372,14 +4390,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="59"/>
       <c r="I119" s="38" t="s">
         <v>230</v>
       </c>
@@ -4388,14 +4406,14 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="54"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
       <c r="I120" s="38" t="s">
         <v>40</v>
       </c>
@@ -4404,14 +4422,14 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="54"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
+      <c r="A121" s="56"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
       <c r="I121" s="38" t="s">
         <v>38</v>
       </c>
@@ -4420,14 +4438,14 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="54"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
       <c r="I122" s="40" t="s">
         <v>231</v>
       </c>
@@ -4437,28 +4455,28 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="54" t="s">
+      <c r="C123" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E123" s="57" t="s">
+      <c r="E123" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G123" s="57" t="s">
+      <c r="G123" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="H123" s="57" t="s">
+      <c r="H123" s="59" t="s">
         <v>171</v>
       </c>
       <c r="I123" s="41" t="s">
@@ -4469,14 +4487,14 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="54"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="58"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
       <c r="I124" s="38" t="s">
         <v>39</v>
       </c>
@@ -4485,14 +4503,14 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="54"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
+      <c r="A125" s="56"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="59"/>
       <c r="I125" s="38" t="s">
         <v>230</v>
       </c>
@@ -4501,14 +4519,14 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
+      <c r="A126" s="56"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
       <c r="I126" s="38" t="s">
         <v>40</v>
       </c>
@@ -4517,14 +4535,14 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="54"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
+      <c r="A127" s="56"/>
+      <c r="B127" s="57"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="59"/>
       <c r="I127" s="38" t="s">
         <v>38</v>
       </c>
@@ -4533,14 +4551,14 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="59"/>
       <c r="I128" s="40" t="s">
         <v>231</v>
       </c>
@@ -4550,28 +4568,28 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="54" t="s">
+      <c r="A129" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="55" t="s">
+      <c r="B129" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="68" t="s">
+      <c r="D129" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E129" s="57" t="s">
+      <c r="E129" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F129" s="57" t="s">
+      <c r="F129" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G129" s="57" t="s">
+      <c r="G129" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H129" s="57" t="s">
+      <c r="H129" s="59" t="s">
         <v>178</v>
       </c>
       <c r="I129" s="41" t="s">
@@ -4582,14 +4600,14 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="59"/>
       <c r="I130" s="38" t="s">
         <v>39</v>
       </c>
@@ -4598,14 +4616,14 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="57"/>
+      <c r="A131" s="56"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="38" t="s">
         <v>230</v>
       </c>
@@ -4614,14 +4632,14 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="59"/>
       <c r="I132" s="38" t="s">
         <v>40</v>
       </c>
@@ -4630,14 +4648,14 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="57"/>
+      <c r="A133" s="56"/>
+      <c r="B133" s="57"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="59"/>
       <c r="I133" s="38" t="s">
         <v>38</v>
       </c>
@@ -4646,14 +4664,14 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
       <c r="I134" s="40" t="s">
         <v>231</v>
       </c>
@@ -4663,28 +4681,28 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="54" t="s">
+      <c r="C135" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D135" s="68" t="s">
+      <c r="D135" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E135" s="57" t="s">
+      <c r="E135" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="57" t="s">
+      <c r="F135" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G135" s="57" t="s">
+      <c r="G135" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="H135" s="57" t="s">
+      <c r="H135" s="59" t="s">
         <v>180</v>
       </c>
       <c r="I135" s="41" t="s">
@@ -4695,14 +4713,14 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="57"/>
-      <c r="H136" s="57"/>
+      <c r="A136" s="56"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="59"/>
       <c r="I136" s="38" t="s">
         <v>39</v>
       </c>
@@ -4711,14 +4729,14 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
+      <c r="A137" s="56"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="59"/>
       <c r="I137" s="38" t="s">
         <v>230</v>
       </c>
@@ -4727,14 +4745,14 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="57"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="59"/>
       <c r="I138" s="38" t="s">
         <v>40</v>
       </c>
@@ -4743,14 +4761,14 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="54"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
+      <c r="A139" s="56"/>
+      <c r="B139" s="57"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="59"/>
       <c r="I139" s="38" t="s">
         <v>38</v>
       </c>
@@ -4759,14 +4777,14 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="54"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="57"/>
+      <c r="A140" s="56"/>
+      <c r="B140" s="57"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="59"/>
       <c r="I140" s="40" t="s">
         <v>231</v>
       </c>
@@ -4776,28 +4794,28 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="54" t="s">
+      <c r="A141" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B141" s="55" t="s">
+      <c r="B141" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C141" s="54" t="s">
+      <c r="C141" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D141" s="68" t="s">
+      <c r="D141" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="E141" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F141" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G141" s="57" t="s">
+      <c r="G141" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="H141" s="57" t="s">
+      <c r="H141" s="59" t="s">
         <v>182</v>
       </c>
       <c r="I141" s="41" t="s">
@@ -4808,14 +4826,14 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="54"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57"/>
-      <c r="H142" s="57"/>
+      <c r="A142" s="56"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="59"/>
       <c r="I142" s="38" t="s">
         <v>39</v>
       </c>
@@ -4824,14 +4842,14 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="54"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
+      <c r="A143" s="56"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="59"/>
       <c r="I143" s="38" t="s">
         <v>230</v>
       </c>
@@ -4840,14 +4858,14 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="54"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="59"/>
       <c r="I144" s="38" t="s">
         <v>40</v>
       </c>
@@ -4856,14 +4874,14 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="54"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="57"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
+      <c r="A145" s="56"/>
+      <c r="B145" s="57"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="59"/>
       <c r="I145" s="38" t="s">
         <v>38</v>
       </c>
@@ -4872,14 +4890,14 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="54"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
+      <c r="A146" s="56"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="59"/>
       <c r="I146" s="40" t="s">
         <v>231</v>
       </c>
@@ -4889,28 +4907,28 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="54" t="s">
+      <c r="A147" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="54" t="s">
+      <c r="C147" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D147" s="68" t="s">
+      <c r="D147" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E147" s="57" t="s">
+      <c r="E147" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F147" s="57" t="s">
+      <c r="F147" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G147" s="57" t="s">
+      <c r="G147" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H147" s="57" t="s">
+      <c r="H147" s="59" t="s">
         <v>182</v>
       </c>
       <c r="I147" s="41" t="s">
@@ -4921,14 +4939,14 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="54"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="54"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="57"/>
+      <c r="A148" s="56"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="59"/>
+      <c r="H148" s="59"/>
       <c r="I148" s="38" t="s">
         <v>39</v>
       </c>
@@ -4937,14 +4955,14 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="54"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="57"/>
+      <c r="A149" s="56"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="59"/>
+      <c r="H149" s="59"/>
       <c r="I149" s="38" t="s">
         <v>230</v>
       </c>
@@ -4953,14 +4971,14 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="54"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="57"/>
-      <c r="H150" s="57"/>
+      <c r="A150" s="56"/>
+      <c r="B150" s="57"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
       <c r="I150" s="38" t="s">
         <v>40</v>
       </c>
@@ -4969,14 +4987,14 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="54"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="54"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="57"/>
+      <c r="A151" s="56"/>
+      <c r="B151" s="57"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
       <c r="I151" s="38" t="s">
         <v>38</v>
       </c>
@@ -4985,14 +5003,14 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="54"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="54"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="57"/>
-      <c r="H152" s="57"/>
+      <c r="A152" s="56"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
       <c r="I152" s="40" t="s">
         <v>231</v>
       </c>
@@ -5002,28 +5020,28 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B153" s="55" t="s">
+      <c r="B153" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C153" s="54" t="s">
+      <c r="C153" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D153" s="68" t="s">
+      <c r="D153" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E153" s="57" t="s">
+      <c r="E153" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F153" s="57" t="s">
+      <c r="F153" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G153" s="57" t="s">
+      <c r="G153" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="H153" s="57" t="s">
+      <c r="H153" s="59" t="s">
         <v>182</v>
       </c>
       <c r="I153" s="41" t="s">
@@ -5034,14 +5052,14 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="54"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="54"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="57"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
+      <c r="A154" s="56"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
       <c r="I154" s="38" t="s">
         <v>39</v>
       </c>
@@ -5050,14 +5068,14 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="54"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
+      <c r="A155" s="56"/>
+      <c r="B155" s="57"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59"/>
+      <c r="H155" s="59"/>
       <c r="I155" s="38" t="s">
         <v>230</v>
       </c>
@@ -5066,14 +5084,14 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="54"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
+      <c r="A156" s="56"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="59"/>
       <c r="I156" s="38" t="s">
         <v>40</v>
       </c>
@@ -5082,14 +5100,14 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="54"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="54"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
+      <c r="A157" s="56"/>
+      <c r="B157" s="57"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="59"/>
+      <c r="H157" s="59"/>
       <c r="I157" s="38" t="s">
         <v>38</v>
       </c>
@@ -5098,14 +5116,14 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="54"/>
-      <c r="B158" s="55"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="57"/>
-      <c r="H158" s="57"/>
+      <c r="A158" s="56"/>
+      <c r="B158" s="57"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="59"/>
       <c r="I158" s="40" t="s">
         <v>231</v>
       </c>
@@ -5115,28 +5133,28 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="54" t="s">
+      <c r="A159" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B159" s="55" t="s">
+      <c r="B159" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C159" s="54" t="s">
+      <c r="C159" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D159" s="68" t="s">
+      <c r="D159" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="57" t="s">
+      <c r="E159" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F159" s="57" t="s">
+      <c r="F159" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="57" t="s">
+      <c r="G159" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="H159" s="57" t="s">
+      <c r="H159" s="59" t="s">
         <v>182</v>
       </c>
       <c r="I159" s="41" t="s">
@@ -5147,14 +5165,14 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="54"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="57"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="57"/>
-      <c r="H160" s="57"/>
+      <c r="A160" s="56"/>
+      <c r="B160" s="57"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="59"/>
       <c r="I160" s="38" t="s">
         <v>39</v>
       </c>
@@ -5163,14 +5181,14 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="54"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="54"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="57"/>
+      <c r="A161" s="56"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="59"/>
       <c r="I161" s="38" t="s">
         <v>230</v>
       </c>
@@ -5179,14 +5197,14 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="54"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="57"/>
-      <c r="F162" s="57"/>
-      <c r="G162" s="57"/>
-      <c r="H162" s="57"/>
+      <c r="A162" s="56"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="56"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="59"/>
       <c r="I162" s="38" t="s">
         <v>40</v>
       </c>
@@ -5195,14 +5213,14 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="54"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="54"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="57"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="57"/>
+      <c r="A163" s="56"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
       <c r="I163" s="38" t="s">
         <v>38</v>
       </c>
@@ -5211,14 +5229,14 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="54"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="57"/>
-      <c r="H164" s="57"/>
+      <c r="A164" s="56"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="56"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
       <c r="I164" s="40" t="s">
         <v>231</v>
       </c>
@@ -5228,28 +5246,28 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="54" t="s">
+      <c r="A165" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B165" s="55" t="s">
+      <c r="B165" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C165" s="54" t="s">
+      <c r="C165" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="68" t="s">
+      <c r="D165" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="57" t="s">
+      <c r="E165" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F165" s="57" t="s">
+      <c r="F165" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G165" s="57" t="s">
+      <c r="G165" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="H165" s="57" t="s">
+      <c r="H165" s="59" t="s">
         <v>187</v>
       </c>
       <c r="I165" s="41" t="s">
@@ -5260,14 +5278,14 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="54"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="57"/>
-      <c r="H166" s="57"/>
+      <c r="A166" s="56"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
       <c r="I166" s="38" t="s">
         <v>39</v>
       </c>
@@ -5276,14 +5294,14 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="54"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="54"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="57"/>
+      <c r="A167" s="56"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="59"/>
       <c r="I167" s="38" t="s">
         <v>230</v>
       </c>
@@ -5292,14 +5310,14 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="57"/>
+      <c r="A168" s="56"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
       <c r="I168" s="38" t="s">
         <v>40</v>
       </c>
@@ -5308,14 +5326,14 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57"/>
+      <c r="A169" s="56"/>
+      <c r="B169" s="57"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="59"/>
       <c r="I169" s="38" t="s">
         <v>38</v>
       </c>
@@ -5324,14 +5342,14 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
+      <c r="A170" s="56"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="56"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="59"/>
       <c r="I170" s="40" t="s">
         <v>231</v>
       </c>
@@ -5341,28 +5359,28 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="54" t="s">
+      <c r="A171" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B171" s="55" t="s">
+      <c r="B171" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C171" s="54" t="s">
+      <c r="C171" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D171" s="68" t="s">
+      <c r="D171" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E171" s="57" t="s">
+      <c r="E171" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F171" s="57" t="s">
+      <c r="F171" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G171" s="57" t="s">
+      <c r="G171" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="H171" s="57" t="s">
+      <c r="H171" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I171" s="41" t="s">
@@ -5373,14 +5391,14 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="54"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57"/>
+      <c r="A172" s="56"/>
+      <c r="B172" s="57"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="59"/>
       <c r="I172" s="38" t="s">
         <v>39</v>
       </c>
@@ -5389,14 +5407,14 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="54"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="57"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="57"/>
+      <c r="A173" s="56"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="59"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="59"/>
+      <c r="H173" s="59"/>
       <c r="I173" s="38" t="s">
         <v>230</v>
       </c>
@@ -5405,14 +5423,14 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="54"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="57"/>
-      <c r="H174" s="57"/>
+      <c r="A174" s="56"/>
+      <c r="B174" s="57"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="59"/>
+      <c r="G174" s="59"/>
+      <c r="H174" s="59"/>
       <c r="I174" s="38" t="s">
         <v>40</v>
       </c>
@@ -5421,14 +5439,14 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57"/>
+      <c r="A175" s="56"/>
+      <c r="B175" s="57"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="59"/>
+      <c r="H175" s="59"/>
       <c r="I175" s="38" t="s">
         <v>38</v>
       </c>
@@ -5437,14 +5455,14 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="54"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
+      <c r="A176" s="56"/>
+      <c r="B176" s="57"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="59"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="59"/>
+      <c r="H176" s="59"/>
       <c r="I176" s="40" t="s">
         <v>231</v>
       </c>
@@ -5454,28 +5472,28 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="B177" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="54" t="s">
+      <c r="C177" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="D177" s="68" t="s">
+      <c r="D177" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="57" t="s">
+      <c r="E177" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F177" s="57" t="s">
+      <c r="F177" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="57" t="s">
+      <c r="G177" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="H177" s="57" t="s">
+      <c r="H177" s="59" t="s">
         <v>189</v>
       </c>
       <c r="I177" s="41" t="s">
@@ -5486,14 +5504,14 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="54"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="54"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="57"/>
-      <c r="H178" s="57"/>
+      <c r="A178" s="56"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="59"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="59"/>
+      <c r="H178" s="59"/>
       <c r="I178" s="38" t="s">
         <v>39</v>
       </c>
@@ -5502,14 +5520,14 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="54"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="54"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="57"/>
+      <c r="A179" s="56"/>
+      <c r="B179" s="57"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="59"/>
+      <c r="F179" s="59"/>
+      <c r="G179" s="59"/>
+      <c r="H179" s="59"/>
       <c r="I179" s="38" t="s">
         <v>230</v>
       </c>
@@ -5518,14 +5536,14 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="54"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="57"/>
-      <c r="H180" s="57"/>
+      <c r="A180" s="56"/>
+      <c r="B180" s="57"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="59"/>
       <c r="I180" s="38" t="s">
         <v>40</v>
       </c>
@@ -5534,14 +5552,14 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="54"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="54"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="57"/>
+      <c r="A181" s="56"/>
+      <c r="B181" s="57"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="59"/>
+      <c r="H181" s="59"/>
       <c r="I181" s="38" t="s">
         <v>38</v>
       </c>
@@ -5550,14 +5568,14 @@
       </c>
     </row>
     <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="54"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="54"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
+      <c r="A182" s="56"/>
+      <c r="B182" s="57"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="59"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="59"/>
       <c r="I182" s="40" t="s">
         <v>231</v>
       </c>
@@ -5567,28 +5585,28 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="54" t="s">
+      <c r="A183" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B183" s="55" t="s">
+      <c r="B183" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C183" s="54" t="s">
+      <c r="C183" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D183" s="68" t="s">
+      <c r="D183" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="57" t="s">
+      <c r="E183" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F183" s="57" t="s">
+      <c r="F183" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="57" t="s">
+      <c r="G183" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="H183" s="57" t="s">
+      <c r="H183" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I183" s="41" t="s">
@@ -5599,14 +5617,14 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="54"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="54"/>
-      <c r="D184" s="68"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="57"/>
-      <c r="H184" s="57"/>
+      <c r="A184" s="56"/>
+      <c r="B184" s="57"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="59"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="59"/>
       <c r="I184" s="38" t="s">
         <v>39</v>
       </c>
@@ -5615,14 +5633,14 @@
       </c>
     </row>
     <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="54"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="54"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="57"/>
-      <c r="H185" s="57"/>
+      <c r="A185" s="56"/>
+      <c r="B185" s="57"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="59"/>
       <c r="I185" s="38" t="s">
         <v>230</v>
       </c>
@@ -5631,14 +5649,14 @@
       </c>
     </row>
     <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="54"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="54"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57"/>
-      <c r="H186" s="57"/>
+      <c r="A186" s="56"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="59"/>
       <c r="I186" s="38" t="s">
         <v>40</v>
       </c>
@@ -5647,14 +5665,14 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="54"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57"/>
-      <c r="H187" s="57"/>
+      <c r="A187" s="56"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="59"/>
       <c r="I187" s="38" t="s">
         <v>38</v>
       </c>
@@ -5663,14 +5681,14 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="54"/>
-      <c r="B188" s="55"/>
-      <c r="C188" s="54"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57"/>
-      <c r="H188" s="57"/>
+      <c r="A188" s="56"/>
+      <c r="B188" s="57"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="59"/>
+      <c r="F188" s="59"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="59"/>
       <c r="I188" s="40" t="s">
         <v>231</v>
       </c>
@@ -5680,28 +5698,28 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="54" t="s">
+      <c r="A189" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B189" s="55" t="s">
+      <c r="B189" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D189" s="68" t="s">
+      <c r="D189" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E189" s="57" t="s">
+      <c r="E189" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F189" s="57" t="s">
+      <c r="F189" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G189" s="57" t="s">
+      <c r="G189" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="H189" s="57" t="s">
+      <c r="H189" s="59" t="s">
         <v>194</v>
       </c>
       <c r="I189" s="41" t="s">
@@ -5712,14 +5730,14 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="54"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="57"/>
-      <c r="H190" s="57"/>
+      <c r="A190" s="56"/>
+      <c r="B190" s="57"/>
+      <c r="C190" s="56"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="59"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="59"/>
       <c r="I190" s="38" t="s">
         <v>39</v>
       </c>
@@ -5728,14 +5746,14 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="54"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="57"/>
-      <c r="G191" s="57"/>
-      <c r="H191" s="57"/>
+      <c r="A191" s="56"/>
+      <c r="B191" s="57"/>
+      <c r="C191" s="56"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="59"/>
+      <c r="F191" s="59"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="59"/>
       <c r="I191" s="38" t="s">
         <v>230</v>
       </c>
@@ -5744,14 +5762,14 @@
       </c>
     </row>
     <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="57"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
-      <c r="H192" s="57"/>
+      <c r="A192" s="56"/>
+      <c r="B192" s="57"/>
+      <c r="C192" s="56"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="59"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="59"/>
       <c r="I192" s="38" t="s">
         <v>40</v>
       </c>
@@ -5760,14 +5778,14 @@
       </c>
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="54"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="54"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="57"/>
-      <c r="F193" s="57"/>
-      <c r="G193" s="57"/>
-      <c r="H193" s="57"/>
+      <c r="A193" s="56"/>
+      <c r="B193" s="57"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="59"/>
+      <c r="F193" s="59"/>
+      <c r="G193" s="59"/>
+      <c r="H193" s="59"/>
       <c r="I193" s="38" t="s">
         <v>38</v>
       </c>
@@ -5776,14 +5794,14 @@
       </c>
     </row>
     <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="54"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="54"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="57"/>
-      <c r="H194" s="57"/>
+      <c r="A194" s="56"/>
+      <c r="B194" s="57"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="59"/>
+      <c r="F194" s="59"/>
+      <c r="G194" s="59"/>
+      <c r="H194" s="59"/>
       <c r="I194" s="40" t="s">
         <v>231</v>
       </c>
@@ -5793,28 +5811,28 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="54" t="s">
+      <c r="A195" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B195" s="55" t="s">
+      <c r="B195" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C195" s="54" t="s">
+      <c r="C195" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D195" s="68" t="s">
+      <c r="D195" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E195" s="57" t="s">
+      <c r="E195" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F195" s="57" t="s">
+      <c r="F195" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G195" s="57" t="s">
+      <c r="G195" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="H195" s="57" t="s">
+      <c r="H195" s="59" t="s">
         <v>193</v>
       </c>
       <c r="I195" s="41" t="s">
@@ -5825,14 +5843,14 @@
       </c>
     </row>
     <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="54"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="57"/>
-      <c r="F196" s="57"/>
-      <c r="G196" s="57"/>
-      <c r="H196" s="57"/>
+      <c r="A196" s="56"/>
+      <c r="B196" s="57"/>
+      <c r="C196" s="56"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="59"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="59"/>
       <c r="I196" s="38" t="s">
         <v>39</v>
       </c>
@@ -5841,14 +5859,14 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="54"/>
-      <c r="B197" s="55"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="68"/>
-      <c r="E197" s="57"/>
-      <c r="F197" s="57"/>
-      <c r="G197" s="57"/>
-      <c r="H197" s="57"/>
+      <c r="A197" s="56"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="56"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="59"/>
       <c r="I197" s="38" t="s">
         <v>230</v>
       </c>
@@ -5857,14 +5875,14 @@
       </c>
     </row>
     <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="54"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="54"/>
-      <c r="D198" s="68"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="57"/>
-      <c r="G198" s="57"/>
-      <c r="H198" s="57"/>
+      <c r="A198" s="56"/>
+      <c r="B198" s="57"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="59"/>
       <c r="I198" s="38" t="s">
         <v>40</v>
       </c>
@@ -5873,14 +5891,14 @@
       </c>
     </row>
     <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="54"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="54"/>
-      <c r="D199" s="68"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-      <c r="G199" s="57"/>
-      <c r="H199" s="57"/>
+      <c r="A199" s="56"/>
+      <c r="B199" s="57"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="59"/>
+      <c r="H199" s="59"/>
       <c r="I199" s="38" t="s">
         <v>38</v>
       </c>
@@ -5889,14 +5907,14 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="54"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
-      <c r="H200" s="57"/>
+      <c r="A200" s="56"/>
+      <c r="B200" s="57"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
+      <c r="H200" s="59"/>
       <c r="I200" s="40" t="s">
         <v>231</v>
       </c>
@@ -5906,28 +5924,28 @@
       </c>
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="54" t="s">
+      <c r="A201" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B201" s="55" t="s">
+      <c r="B201" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="54" t="s">
+      <c r="C201" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D201" s="68" t="s">
+      <c r="D201" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E201" s="57" t="s">
+      <c r="E201" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F201" s="57" t="s">
+      <c r="F201" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G201" s="57" t="s">
+      <c r="G201" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="H201" s="57" t="s">
+      <c r="H201" s="59" t="s">
         <v>13</v>
       </c>
       <c r="I201" s="41" t="s">
@@ -5938,14 +5956,14 @@
       </c>
     </row>
     <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="54"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="54"/>
-      <c r="D202" s="68"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="57"/>
-      <c r="H202" s="57"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="59"/>
       <c r="I202" s="38" t="s">
         <v>39</v>
       </c>
@@ -5954,14 +5972,14 @@
       </c>
     </row>
     <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="54"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="68"/>
-      <c r="E203" s="57"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="57"/>
+      <c r="A203" s="56"/>
+      <c r="B203" s="57"/>
+      <c r="C203" s="56"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="59"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="59"/>
+      <c r="H203" s="59"/>
       <c r="I203" s="38" t="s">
         <v>230</v>
       </c>
@@ -5970,14 +5988,14 @@
       </c>
     </row>
     <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="54"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="54"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="57"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="57"/>
-      <c r="H204" s="57"/>
+      <c r="A204" s="56"/>
+      <c r="B204" s="57"/>
+      <c r="C204" s="56"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="59"/>
+      <c r="F204" s="59"/>
+      <c r="G204" s="59"/>
+      <c r="H204" s="59"/>
       <c r="I204" s="38" t="s">
         <v>40</v>
       </c>
@@ -5986,14 +6004,14 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="54"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="54"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="57"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="57"/>
+      <c r="A205" s="56"/>
+      <c r="B205" s="57"/>
+      <c r="C205" s="56"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="59"/>
+      <c r="F205" s="59"/>
+      <c r="G205" s="59"/>
+      <c r="H205" s="59"/>
       <c r="I205" s="38" t="s">
         <v>38</v>
       </c>
@@ -6002,14 +6020,14 @@
       </c>
     </row>
     <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="54"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="54"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="57"/>
-      <c r="F206" s="57"/>
-      <c r="G206" s="57"/>
-      <c r="H206" s="57"/>
+      <c r="A206" s="56"/>
+      <c r="B206" s="57"/>
+      <c r="C206" s="56"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="59"/>
+      <c r="F206" s="59"/>
+      <c r="G206" s="59"/>
+      <c r="H206" s="59"/>
       <c r="I206" s="40" t="s">
         <v>231</v>
       </c>
@@ -6019,28 +6037,28 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="54" t="s">
+      <c r="A207" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="55" t="s">
+      <c r="B207" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C207" s="54" t="s">
+      <c r="C207" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D207" s="68" t="s">
+      <c r="D207" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="57" t="s">
+      <c r="E207" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F207" s="57" t="s">
+      <c r="F207" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G207" s="57" t="s">
+      <c r="G207" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="H207" s="57" t="s">
+      <c r="H207" s="59" t="s">
         <v>13</v>
       </c>
       <c r="I207" s="41" t="s">
@@ -6051,14 +6069,14 @@
       </c>
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="54"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="54"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
-      <c r="H208" s="57"/>
+      <c r="A208" s="56"/>
+      <c r="B208" s="57"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="59"/>
+      <c r="G208" s="59"/>
+      <c r="H208" s="59"/>
       <c r="I208" s="38" t="s">
         <v>39</v>
       </c>
@@ -6067,14 +6085,14 @@
       </c>
     </row>
     <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="54"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
+      <c r="A209" s="56"/>
+      <c r="B209" s="57"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="59"/>
+      <c r="F209" s="59"/>
+      <c r="G209" s="59"/>
+      <c r="H209" s="59"/>
       <c r="I209" s="38" t="s">
         <v>230</v>
       </c>
@@ -6083,14 +6101,14 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="54"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="54"/>
-      <c r="D210" s="68"/>
-      <c r="E210" s="57"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="57"/>
-      <c r="H210" s="57"/>
+      <c r="A210" s="56"/>
+      <c r="B210" s="57"/>
+      <c r="C210" s="56"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="59"/>
+      <c r="F210" s="59"/>
+      <c r="G210" s="59"/>
+      <c r="H210" s="59"/>
       <c r="I210" s="38" t="s">
         <v>40</v>
       </c>
@@ -6099,14 +6117,14 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="54"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="54"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="57"/>
-      <c r="H211" s="57"/>
+      <c r="A211" s="56"/>
+      <c r="B211" s="57"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="59"/>
+      <c r="F211" s="59"/>
+      <c r="G211" s="59"/>
+      <c r="H211" s="59"/>
       <c r="I211" s="38" t="s">
         <v>38</v>
       </c>
@@ -6115,14 +6133,14 @@
       </c>
     </row>
     <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="54"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="54"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="57"/>
-      <c r="F212" s="57"/>
-      <c r="G212" s="57"/>
-      <c r="H212" s="57"/>
+      <c r="A212" s="56"/>
+      <c r="B212" s="57"/>
+      <c r="C212" s="56"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="59"/>
+      <c r="F212" s="59"/>
+      <c r="G212" s="59"/>
+      <c r="H212" s="59"/>
       <c r="I212" s="40" t="s">
         <v>231</v>
       </c>
@@ -6132,28 +6150,28 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="54" t="s">
+      <c r="A213" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B213" s="55" t="s">
+      <c r="B213" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C213" s="54" t="s">
+      <c r="C213" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D213" s="68" t="s">
+      <c r="D213" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="57" t="s">
+      <c r="E213" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F213" s="57" t="s">
+      <c r="F213" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G213" s="57" t="s">
+      <c r="G213" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="H213" s="57" t="s">
+      <c r="H213" s="59" t="s">
         <v>206</v>
       </c>
       <c r="I213" s="41" t="s">
@@ -6164,14 +6182,14 @@
       </c>
     </row>
     <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="54"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="54"/>
-      <c r="D214" s="68"/>
-      <c r="E214" s="57"/>
-      <c r="F214" s="57"/>
-      <c r="G214" s="57"/>
-      <c r="H214" s="57"/>
+      <c r="A214" s="56"/>
+      <c r="B214" s="57"/>
+      <c r="C214" s="56"/>
+      <c r="D214" s="58"/>
+      <c r="E214" s="59"/>
+      <c r="F214" s="59"/>
+      <c r="G214" s="59"/>
+      <c r="H214" s="59"/>
       <c r="I214" s="38" t="s">
         <v>39</v>
       </c>
@@ -6180,14 +6198,14 @@
       </c>
     </row>
     <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="54"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="54"/>
-      <c r="D215" s="68"/>
-      <c r="E215" s="57"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="57"/>
-      <c r="H215" s="57"/>
+      <c r="A215" s="56"/>
+      <c r="B215" s="57"/>
+      <c r="C215" s="56"/>
+      <c r="D215" s="58"/>
+      <c r="E215" s="59"/>
+      <c r="F215" s="59"/>
+      <c r="G215" s="59"/>
+      <c r="H215" s="59"/>
       <c r="I215" s="38" t="s">
         <v>230</v>
       </c>
@@ -6196,14 +6214,14 @@
       </c>
     </row>
     <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="54"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="57"/>
-      <c r="F216" s="57"/>
-      <c r="G216" s="57"/>
-      <c r="H216" s="57"/>
+      <c r="A216" s="56"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="59"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="59"/>
+      <c r="H216" s="59"/>
       <c r="I216" s="38" t="s">
         <v>40</v>
       </c>
@@ -6212,14 +6230,14 @@
       </c>
     </row>
     <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="54"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="54"/>
-      <c r="D217" s="68"/>
-      <c r="E217" s="57"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="57"/>
-      <c r="H217" s="57"/>
+      <c r="A217" s="56"/>
+      <c r="B217" s="57"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="59"/>
+      <c r="F217" s="59"/>
+      <c r="G217" s="59"/>
+      <c r="H217" s="59"/>
       <c r="I217" s="38" t="s">
         <v>38</v>
       </c>
@@ -6228,14 +6246,14 @@
       </c>
     </row>
     <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="54"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="54"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="57"/>
-      <c r="H218" s="57"/>
+      <c r="A218" s="56"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="59"/>
+      <c r="F218" s="59"/>
+      <c r="G218" s="59"/>
+      <c r="H218" s="59"/>
       <c r="I218" s="40" t="s">
         <v>231</v>
       </c>
@@ -6245,28 +6263,28 @@
       </c>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="54" t="s">
+      <c r="A219" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B219" s="55" t="s">
+      <c r="B219" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C219" s="54" t="s">
+      <c r="C219" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D219" s="68" t="s">
+      <c r="D219" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E219" s="57" t="s">
+      <c r="E219" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F219" s="57" t="s">
+      <c r="F219" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G219" s="57" t="s">
+      <c r="G219" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="H219" s="57" t="s">
+      <c r="H219" s="59" t="s">
         <v>207</v>
       </c>
       <c r="I219" s="41" t="s">
@@ -6277,14 +6295,14 @@
       </c>
     </row>
     <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="54"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="54"/>
-      <c r="D220" s="68"/>
-      <c r="E220" s="57"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="57"/>
-      <c r="H220" s="57"/>
+      <c r="A220" s="56"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="59"/>
+      <c r="F220" s="59"/>
+      <c r="G220" s="59"/>
+      <c r="H220" s="59"/>
       <c r="I220" s="38" t="s">
         <v>39</v>
       </c>
@@ -6293,14 +6311,14 @@
       </c>
     </row>
     <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="54"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="54"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
-      <c r="H221" s="57"/>
+      <c r="A221" s="56"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="56"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="59"/>
+      <c r="F221" s="59"/>
+      <c r="G221" s="59"/>
+      <c r="H221" s="59"/>
       <c r="I221" s="38" t="s">
         <v>230</v>
       </c>
@@ -6309,14 +6327,14 @@
       </c>
     </row>
     <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="54"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="54"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="57"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57"/>
-      <c r="H222" s="57"/>
+      <c r="A222" s="56"/>
+      <c r="B222" s="57"/>
+      <c r="C222" s="56"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="59"/>
+      <c r="F222" s="59"/>
+      <c r="G222" s="59"/>
+      <c r="H222" s="59"/>
       <c r="I222" s="38" t="s">
         <v>40</v>
       </c>
@@ -6325,14 +6343,14 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="54"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="68"/>
-      <c r="E223" s="57"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="57"/>
-      <c r="H223" s="57"/>
+      <c r="A223" s="56"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="56"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="59"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="59"/>
+      <c r="H223" s="59"/>
       <c r="I223" s="38" t="s">
         <v>38</v>
       </c>
@@ -6341,14 +6359,14 @@
       </c>
     </row>
     <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="54"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="54"/>
-      <c r="D224" s="68"/>
-      <c r="E224" s="57"/>
-      <c r="F224" s="57"/>
-      <c r="G224" s="57"/>
-      <c r="H224" s="57"/>
+      <c r="A224" s="56"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="59"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="59"/>
+      <c r="H224" s="59"/>
       <c r="I224" s="40" t="s">
         <v>231</v>
       </c>
@@ -6358,28 +6376,28 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="54" t="s">
+      <c r="A225" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B225" s="55" t="s">
+      <c r="B225" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C225" s="54" t="s">
+      <c r="C225" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D225" s="68" t="s">
+      <c r="D225" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E225" s="57" t="s">
+      <c r="E225" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F225" s="57" t="s">
+      <c r="F225" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G225" s="57" t="s">
+      <c r="G225" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="H225" s="57" t="s">
+      <c r="H225" s="59" t="s">
         <v>200</v>
       </c>
       <c r="I225" s="41" t="s">
@@ -6390,14 +6408,14 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="54"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="54"/>
-      <c r="D226" s="68"/>
-      <c r="E226" s="57"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="57"/>
-      <c r="H226" s="57"/>
+      <c r="A226" s="56"/>
+      <c r="B226" s="57"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
+      <c r="G226" s="59"/>
+      <c r="H226" s="59"/>
       <c r="I226" s="38" t="s">
         <v>39</v>
       </c>
@@ -6406,14 +6424,14 @@
       </c>
     </row>
     <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="54"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="54"/>
-      <c r="D227" s="68"/>
-      <c r="E227" s="57"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57"/>
-      <c r="H227" s="57"/>
+      <c r="A227" s="56"/>
+      <c r="B227" s="57"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="59"/>
+      <c r="F227" s="59"/>
+      <c r="G227" s="59"/>
+      <c r="H227" s="59"/>
       <c r="I227" s="38" t="s">
         <v>230</v>
       </c>
@@ -6422,14 +6440,14 @@
       </c>
     </row>
     <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="54"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="54"/>
-      <c r="D228" s="68"/>
-      <c r="E228" s="57"/>
-      <c r="F228" s="57"/>
-      <c r="G228" s="57"/>
-      <c r="H228" s="57"/>
+      <c r="A228" s="56"/>
+      <c r="B228" s="57"/>
+      <c r="C228" s="56"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="59"/>
+      <c r="F228" s="59"/>
+      <c r="G228" s="59"/>
+      <c r="H228" s="59"/>
       <c r="I228" s="38" t="s">
         <v>40</v>
       </c>
@@ -6438,14 +6456,14 @@
       </c>
     </row>
     <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="54"/>
-      <c r="B229" s="55"/>
-      <c r="C229" s="54"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="57"/>
-      <c r="F229" s="57"/>
-      <c r="G229" s="57"/>
-      <c r="H229" s="57"/>
+      <c r="A229" s="56"/>
+      <c r="B229" s="57"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="59"/>
+      <c r="H229" s="59"/>
       <c r="I229" s="38" t="s">
         <v>38</v>
       </c>
@@ -6454,14 +6472,14 @@
       </c>
     </row>
     <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="54"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="54"/>
-      <c r="D230" s="68"/>
-      <c r="E230" s="57"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="57"/>
-      <c r="H230" s="57"/>
+      <c r="A230" s="56"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="59"/>
+      <c r="H230" s="59"/>
       <c r="I230" s="40" t="s">
         <v>231</v>
       </c>
@@ -6471,28 +6489,28 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B231" s="55" t="s">
+      <c r="B231" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C231" s="54" t="s">
+      <c r="C231" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D231" s="68" t="s">
+      <c r="D231" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E231" s="57" t="s">
+      <c r="E231" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F231" s="57" t="s">
+      <c r="F231" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G231" s="57" t="s">
+      <c r="G231" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="H231" s="57" t="s">
+      <c r="H231" s="59" t="s">
         <v>202</v>
       </c>
       <c r="I231" s="41" t="s">
@@ -6503,14 +6521,14 @@
       </c>
     </row>
     <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="54"/>
-      <c r="B232" s="55"/>
-      <c r="C232" s="54"/>
-      <c r="D232" s="68"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="57"/>
-      <c r="H232" s="57"/>
+      <c r="A232" s="56"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="56"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="59"/>
+      <c r="F232" s="59"/>
+      <c r="G232" s="59"/>
+      <c r="H232" s="59"/>
       <c r="I232" s="38" t="s">
         <v>39</v>
       </c>
@@ -6519,14 +6537,14 @@
       </c>
     </row>
     <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="54"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="54"/>
-      <c r="D233" s="68"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="57"/>
-      <c r="H233" s="57"/>
+      <c r="A233" s="56"/>
+      <c r="B233" s="57"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="59"/>
+      <c r="H233" s="59"/>
       <c r="I233" s="38" t="s">
         <v>230</v>
       </c>
@@ -6535,14 +6553,14 @@
       </c>
     </row>
     <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="54"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="54"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
+      <c r="A234" s="56"/>
+      <c r="B234" s="57"/>
+      <c r="C234" s="56"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="59"/>
+      <c r="F234" s="59"/>
+      <c r="G234" s="59"/>
+      <c r="H234" s="59"/>
       <c r="I234" s="38" t="s">
         <v>40</v>
       </c>
@@ -6551,14 +6569,14 @@
       </c>
     </row>
     <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="54"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="54"/>
-      <c r="D235" s="68"/>
-      <c r="E235" s="57"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="57"/>
-      <c r="H235" s="57"/>
+      <c r="A235" s="56"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="56"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="59"/>
+      <c r="F235" s="59"/>
+      <c r="G235" s="59"/>
+      <c r="H235" s="59"/>
       <c r="I235" s="38" t="s">
         <v>38</v>
       </c>
@@ -6567,14 +6585,14 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="54"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="54"/>
-      <c r="D236" s="68"/>
-      <c r="E236" s="57"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="57"/>
-      <c r="H236" s="57"/>
+      <c r="A236" s="56"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="59"/>
+      <c r="F236" s="59"/>
+      <c r="G236" s="59"/>
+      <c r="H236" s="59"/>
       <c r="I236" s="40" t="s">
         <v>231</v>
       </c>
@@ -6584,28 +6602,28 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="54" t="s">
+      <c r="A237" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B237" s="55" t="s">
+      <c r="B237" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C237" s="54" t="s">
+      <c r="C237" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D237" s="68" t="s">
+      <c r="D237" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E237" s="57" t="s">
+      <c r="E237" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F237" s="57" t="s">
+      <c r="F237" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G237" s="57" t="s">
+      <c r="G237" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="H237" s="57" t="s">
+      <c r="H237" s="59" t="s">
         <v>202</v>
       </c>
       <c r="I237" s="41" t="s">
@@ -6616,14 +6634,14 @@
       </c>
     </row>
     <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="54"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="54"/>
-      <c r="D238" s="68"/>
-      <c r="E238" s="57"/>
-      <c r="F238" s="57"/>
-      <c r="G238" s="57"/>
-      <c r="H238" s="57"/>
+      <c r="A238" s="56"/>
+      <c r="B238" s="57"/>
+      <c r="C238" s="56"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="59"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="59"/>
+      <c r="H238" s="59"/>
       <c r="I238" s="38" t="s">
         <v>39</v>
       </c>
@@ -6632,14 +6650,14 @@
       </c>
     </row>
     <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="54"/>
-      <c r="B239" s="55"/>
-      <c r="C239" s="54"/>
-      <c r="D239" s="68"/>
-      <c r="E239" s="57"/>
-      <c r="F239" s="57"/>
-      <c r="G239" s="57"/>
-      <c r="H239" s="57"/>
+      <c r="A239" s="56"/>
+      <c r="B239" s="57"/>
+      <c r="C239" s="56"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="59"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="59"/>
+      <c r="H239" s="59"/>
       <c r="I239" s="38" t="s">
         <v>230</v>
       </c>
@@ -6648,14 +6666,14 @@
       </c>
     </row>
     <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="54"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="54"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="57"/>
-      <c r="F240" s="57"/>
-      <c r="G240" s="57"/>
-      <c r="H240" s="57"/>
+      <c r="A240" s="56"/>
+      <c r="B240" s="57"/>
+      <c r="C240" s="56"/>
+      <c r="D240" s="58"/>
+      <c r="E240" s="59"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="59"/>
+      <c r="H240" s="59"/>
       <c r="I240" s="38" t="s">
         <v>40</v>
       </c>
@@ -6664,14 +6682,14 @@
       </c>
     </row>
     <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="54"/>
-      <c r="B241" s="55"/>
-      <c r="C241" s="54"/>
-      <c r="D241" s="68"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
-      <c r="H241" s="57"/>
+      <c r="A241" s="56"/>
+      <c r="B241" s="57"/>
+      <c r="C241" s="56"/>
+      <c r="D241" s="58"/>
+      <c r="E241" s="59"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="59"/>
+      <c r="H241" s="59"/>
       <c r="I241" s="38" t="s">
         <v>38</v>
       </c>
@@ -6680,14 +6698,14 @@
       </c>
     </row>
     <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="54"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="54"/>
-      <c r="D242" s="68"/>
-      <c r="E242" s="57"/>
-      <c r="F242" s="57"/>
-      <c r="G242" s="57"/>
-      <c r="H242" s="57"/>
+      <c r="A242" s="56"/>
+      <c r="B242" s="57"/>
+      <c r="C242" s="56"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="59"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="59"/>
+      <c r="H242" s="59"/>
       <c r="I242" s="40" t="s">
         <v>231</v>
       </c>
@@ -6697,28 +6715,28 @@
       </c>
     </row>
     <row r="243" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="54" t="s">
+      <c r="A243" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B243" s="55" t="s">
+      <c r="B243" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="54" t="s">
+      <c r="C243" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D243" s="68" t="s">
+      <c r="D243" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E243" s="57" t="s">
+      <c r="E243" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F243" s="57" t="s">
+      <c r="F243" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G243" s="57" t="s">
+      <c r="G243" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="H243" s="57" t="s">
+      <c r="H243" s="59" t="s">
         <v>245</v>
       </c>
       <c r="I243" s="41" t="s">
@@ -6729,14 +6747,14 @@
       </c>
     </row>
     <row r="244" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="54"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="54"/>
-      <c r="D244" s="68"/>
-      <c r="E244" s="57"/>
-      <c r="F244" s="57"/>
-      <c r="G244" s="57"/>
-      <c r="H244" s="57"/>
+      <c r="A244" s="56"/>
+      <c r="B244" s="57"/>
+      <c r="C244" s="56"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="59"/>
+      <c r="G244" s="59"/>
+      <c r="H244" s="59"/>
       <c r="I244" s="38" t="s">
         <v>39</v>
       </c>
@@ -6745,14 +6763,14 @@
       </c>
     </row>
     <row r="245" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="54"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="54"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="57"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
-      <c r="H245" s="57"/>
+      <c r="A245" s="56"/>
+      <c r="B245" s="57"/>
+      <c r="C245" s="56"/>
+      <c r="D245" s="58"/>
+      <c r="E245" s="59"/>
+      <c r="F245" s="59"/>
+      <c r="G245" s="59"/>
+      <c r="H245" s="59"/>
       <c r="I245" s="38" t="s">
         <v>230</v>
       </c>
@@ -6761,14 +6779,14 @@
       </c>
     </row>
     <row r="246" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="54"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="54"/>
-      <c r="D246" s="68"/>
-      <c r="E246" s="57"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
-      <c r="H246" s="57"/>
+      <c r="A246" s="56"/>
+      <c r="B246" s="57"/>
+      <c r="C246" s="56"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="59"/>
+      <c r="F246" s="59"/>
+      <c r="G246" s="59"/>
+      <c r="H246" s="59"/>
       <c r="I246" s="38" t="s">
         <v>40</v>
       </c>
@@ -6777,14 +6795,14 @@
       </c>
     </row>
     <row r="247" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="54"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="54"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="57"/>
-      <c r="F247" s="57"/>
-      <c r="G247" s="57"/>
-      <c r="H247" s="57"/>
+      <c r="A247" s="56"/>
+      <c r="B247" s="57"/>
+      <c r="C247" s="56"/>
+      <c r="D247" s="58"/>
+      <c r="E247" s="59"/>
+      <c r="F247" s="59"/>
+      <c r="G247" s="59"/>
+      <c r="H247" s="59"/>
       <c r="I247" s="38" t="s">
         <v>38</v>
       </c>
@@ -6793,14 +6811,14 @@
       </c>
     </row>
     <row r="248" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="54"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="54"/>
-      <c r="D248" s="68"/>
-      <c r="E248" s="57"/>
-      <c r="F248" s="57"/>
-      <c r="G248" s="57"/>
-      <c r="H248" s="57"/>
+      <c r="A248" s="56"/>
+      <c r="B248" s="57"/>
+      <c r="C248" s="56"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="59"/>
+      <c r="F248" s="59"/>
+      <c r="G248" s="59"/>
+      <c r="H248" s="59"/>
       <c r="I248" s="40" t="s">
         <v>231</v>
       </c>
@@ -6810,28 +6828,28 @@
       </c>
     </row>
     <row r="249" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="54" t="s">
+      <c r="A249" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B249" s="55" t="s">
+      <c r="B249" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C249" s="54" t="s">
+      <c r="C249" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="D249" s="68" t="s">
+      <c r="D249" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E249" s="57" t="s">
+      <c r="E249" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F249" s="57" t="s">
+      <c r="F249" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G249" s="57" t="s">
+      <c r="G249" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="H249" s="57" t="s">
+      <c r="H249" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I249" s="41" t="s">
@@ -6842,14 +6860,14 @@
       </c>
     </row>
     <row r="250" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="54"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="54"/>
-      <c r="D250" s="68"/>
-      <c r="E250" s="57"/>
-      <c r="F250" s="57"/>
-      <c r="G250" s="57"/>
-      <c r="H250" s="57"/>
+      <c r="A250" s="56"/>
+      <c r="B250" s="57"/>
+      <c r="C250" s="56"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="59"/>
+      <c r="F250" s="59"/>
+      <c r="G250" s="59"/>
+      <c r="H250" s="59"/>
       <c r="I250" s="38" t="s">
         <v>39</v>
       </c>
@@ -6858,14 +6876,14 @@
       </c>
     </row>
     <row r="251" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="54"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="54"/>
-      <c r="D251" s="68"/>
-      <c r="E251" s="57"/>
-      <c r="F251" s="57"/>
-      <c r="G251" s="57"/>
-      <c r="H251" s="57"/>
+      <c r="A251" s="56"/>
+      <c r="B251" s="57"/>
+      <c r="C251" s="56"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="59"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="59"/>
+      <c r="H251" s="59"/>
       <c r="I251" s="38" t="s">
         <v>230</v>
       </c>
@@ -6874,14 +6892,14 @@
       </c>
     </row>
     <row r="252" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="54"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="54"/>
-      <c r="D252" s="68"/>
-      <c r="E252" s="57"/>
-      <c r="F252" s="57"/>
-      <c r="G252" s="57"/>
-      <c r="H252" s="57"/>
+      <c r="A252" s="56"/>
+      <c r="B252" s="57"/>
+      <c r="C252" s="56"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="59"/>
+      <c r="F252" s="59"/>
+      <c r="G252" s="59"/>
+      <c r="H252" s="59"/>
       <c r="I252" s="38" t="s">
         <v>40</v>
       </c>
@@ -6890,14 +6908,14 @@
       </c>
     </row>
     <row r="253" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="54"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="57"/>
-      <c r="F253" s="57"/>
-      <c r="G253" s="57"/>
-      <c r="H253" s="57"/>
+      <c r="A253" s="56"/>
+      <c r="B253" s="57"/>
+      <c r="C253" s="56"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="59"/>
+      <c r="H253" s="59"/>
       <c r="I253" s="38" t="s">
         <v>38</v>
       </c>
@@ -6906,14 +6924,14 @@
       </c>
     </row>
     <row r="254" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="54"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="54"/>
-      <c r="D254" s="68"/>
-      <c r="E254" s="57"/>
-      <c r="F254" s="57"/>
-      <c r="G254" s="57"/>
-      <c r="H254" s="57"/>
+      <c r="A254" s="56"/>
+      <c r="B254" s="57"/>
+      <c r="C254" s="56"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="59"/>
+      <c r="F254" s="59"/>
+      <c r="G254" s="59"/>
+      <c r="H254" s="59"/>
       <c r="I254" s="40" t="s">
         <v>231</v>
       </c>
@@ -6923,28 +6941,28 @@
       </c>
     </row>
     <row r="255" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="54" t="s">
+      <c r="A255" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B255" s="55" t="s">
+      <c r="B255" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C255" s="54" t="s">
+      <c r="C255" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="D255" s="68" t="s">
+      <c r="D255" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E255" s="57" t="s">
+      <c r="E255" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F255" s="57" t="s">
+      <c r="F255" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G255" s="57" t="s">
+      <c r="G255" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="H255" s="57" t="s">
+      <c r="H255" s="59" t="s">
         <v>171</v>
       </c>
       <c r="I255" s="41" t="s">
@@ -6955,14 +6973,14 @@
       </c>
     </row>
     <row r="256" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="54"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="54"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="57"/>
-      <c r="F256" s="57"/>
-      <c r="G256" s="57"/>
-      <c r="H256" s="57"/>
+      <c r="A256" s="56"/>
+      <c r="B256" s="57"/>
+      <c r="C256" s="56"/>
+      <c r="D256" s="58"/>
+      <c r="E256" s="59"/>
+      <c r="F256" s="59"/>
+      <c r="G256" s="59"/>
+      <c r="H256" s="59"/>
       <c r="I256" s="38" t="s">
         <v>39</v>
       </c>
@@ -6971,14 +6989,14 @@
       </c>
     </row>
     <row r="257" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="54"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="54"/>
-      <c r="D257" s="68"/>
-      <c r="E257" s="57"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="57"/>
-      <c r="H257" s="57"/>
+      <c r="A257" s="56"/>
+      <c r="B257" s="57"/>
+      <c r="C257" s="56"/>
+      <c r="D257" s="58"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="59"/>
       <c r="I257" s="38" t="s">
         <v>230</v>
       </c>
@@ -6987,14 +7005,14 @@
       </c>
     </row>
     <row r="258" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="54"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="54"/>
-      <c r="D258" s="68"/>
-      <c r="E258" s="57"/>
-      <c r="F258" s="57"/>
-      <c r="G258" s="57"/>
-      <c r="H258" s="57"/>
+      <c r="A258" s="56"/>
+      <c r="B258" s="57"/>
+      <c r="C258" s="56"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="59"/>
       <c r="I258" s="38" t="s">
         <v>40</v>
       </c>
@@ -7003,14 +7021,14 @@
       </c>
     </row>
     <row r="259" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="54"/>
-      <c r="B259" s="55"/>
-      <c r="C259" s="54"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="57"/>
-      <c r="F259" s="57"/>
-      <c r="G259" s="57"/>
-      <c r="H259" s="57"/>
+      <c r="A259" s="56"/>
+      <c r="B259" s="57"/>
+      <c r="C259" s="56"/>
+      <c r="D259" s="58"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="59"/>
       <c r="I259" s="38" t="s">
         <v>38</v>
       </c>
@@ -7019,14 +7037,14 @@
       </c>
     </row>
     <row r="260" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="54"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="57"/>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
-      <c r="H260" s="57"/>
+      <c r="A260" s="56"/>
+      <c r="B260" s="57"/>
+      <c r="C260" s="56"/>
+      <c r="D260" s="58"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
+      <c r="G260" s="59"/>
+      <c r="H260" s="59"/>
       <c r="I260" s="40" t="s">
         <v>231</v>
       </c>
@@ -7036,28 +7054,28 @@
       </c>
     </row>
     <row r="261" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="54" t="s">
+      <c r="A261" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B261" s="55" t="s">
+      <c r="B261" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C261" s="54" t="s">
+      <c r="C261" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="D261" s="68" t="s">
+      <c r="D261" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E261" s="57" t="s">
+      <c r="E261" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F261" s="57" t="s">
+      <c r="F261" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G261" s="57" t="s">
+      <c r="G261" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="H261" s="57" t="s">
+      <c r="H261" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I261" s="41" t="s">
@@ -7068,14 +7086,14 @@
       </c>
     </row>
     <row r="262" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="54"/>
-      <c r="B262" s="55"/>
-      <c r="C262" s="54"/>
-      <c r="D262" s="68"/>
-      <c r="E262" s="57"/>
-      <c r="F262" s="57"/>
-      <c r="G262" s="57"/>
-      <c r="H262" s="57"/>
+      <c r="A262" s="56"/>
+      <c r="B262" s="57"/>
+      <c r="C262" s="56"/>
+      <c r="D262" s="58"/>
+      <c r="E262" s="59"/>
+      <c r="F262" s="59"/>
+      <c r="G262" s="59"/>
+      <c r="H262" s="59"/>
       <c r="I262" s="38" t="s">
         <v>39</v>
       </c>
@@ -7084,14 +7102,14 @@
       </c>
     </row>
     <row r="263" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="54"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="68"/>
-      <c r="E263" s="57"/>
-      <c r="F263" s="57"/>
-      <c r="G263" s="57"/>
-      <c r="H263" s="57"/>
+      <c r="A263" s="56"/>
+      <c r="B263" s="57"/>
+      <c r="C263" s="56"/>
+      <c r="D263" s="58"/>
+      <c r="E263" s="59"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="59"/>
+      <c r="H263" s="59"/>
       <c r="I263" s="38" t="s">
         <v>230</v>
       </c>
@@ -7100,14 +7118,14 @@
       </c>
     </row>
     <row r="264" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="54"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="54"/>
-      <c r="D264" s="68"/>
-      <c r="E264" s="57"/>
-      <c r="F264" s="57"/>
-      <c r="G264" s="57"/>
-      <c r="H264" s="57"/>
+      <c r="A264" s="56"/>
+      <c r="B264" s="57"/>
+      <c r="C264" s="56"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="59"/>
+      <c r="F264" s="59"/>
+      <c r="G264" s="59"/>
+      <c r="H264" s="59"/>
       <c r="I264" s="38" t="s">
         <v>40</v>
       </c>
@@ -7116,14 +7134,14 @@
       </c>
     </row>
     <row r="265" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="54"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="54"/>
-      <c r="D265" s="68"/>
-      <c r="E265" s="57"/>
-      <c r="F265" s="57"/>
-      <c r="G265" s="57"/>
-      <c r="H265" s="57"/>
+      <c r="A265" s="56"/>
+      <c r="B265" s="57"/>
+      <c r="C265" s="56"/>
+      <c r="D265" s="58"/>
+      <c r="E265" s="59"/>
+      <c r="F265" s="59"/>
+      <c r="G265" s="59"/>
+      <c r="H265" s="59"/>
       <c r="I265" s="38" t="s">
         <v>38</v>
       </c>
@@ -7132,14 +7150,14 @@
       </c>
     </row>
     <row r="266" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="54"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="54"/>
-      <c r="D266" s="68"/>
-      <c r="E266" s="57"/>
-      <c r="F266" s="57"/>
-      <c r="G266" s="57"/>
-      <c r="H266" s="57"/>
+      <c r="A266" s="56"/>
+      <c r="B266" s="57"/>
+      <c r="C266" s="56"/>
+      <c r="D266" s="58"/>
+      <c r="E266" s="59"/>
+      <c r="F266" s="59"/>
+      <c r="G266" s="59"/>
+      <c r="H266" s="59"/>
       <c r="I266" s="40" t="s">
         <v>231</v>
       </c>
@@ -7149,28 +7167,28 @@
       </c>
     </row>
     <row r="267" spans="1:10" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="54" t="s">
+      <c r="A267" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B267" s="55" t="s">
+      <c r="B267" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C267" s="54" t="s">
+      <c r="C267" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D267" s="68" t="s">
+      <c r="D267" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E267" s="57" t="s">
+      <c r="E267" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F267" s="57" t="s">
+      <c r="F267" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G267" s="57" t="s">
+      <c r="G267" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="H267" s="57" t="s">
+      <c r="H267" s="59" t="s">
         <v>165</v>
       </c>
       <c r="I267" s="41" t="s">
@@ -7181,14 +7199,14 @@
       </c>
     </row>
     <row r="268" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="54"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="54"/>
-      <c r="D268" s="68"/>
-      <c r="E268" s="57"/>
-      <c r="F268" s="57"/>
-      <c r="G268" s="57"/>
-      <c r="H268" s="57"/>
+      <c r="A268" s="56"/>
+      <c r="B268" s="57"/>
+      <c r="C268" s="56"/>
+      <c r="D268" s="58"/>
+      <c r="E268" s="59"/>
+      <c r="F268" s="59"/>
+      <c r="G268" s="59"/>
+      <c r="H268" s="59"/>
       <c r="I268" s="38" t="s">
         <v>39</v>
       </c>
@@ -7197,14 +7215,14 @@
       </c>
     </row>
     <row r="269" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="54"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="54"/>
-      <c r="D269" s="68"/>
-      <c r="E269" s="57"/>
-      <c r="F269" s="57"/>
-      <c r="G269" s="57"/>
-      <c r="H269" s="57"/>
+      <c r="A269" s="56"/>
+      <c r="B269" s="57"/>
+      <c r="C269" s="56"/>
+      <c r="D269" s="58"/>
+      <c r="E269" s="59"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="59"/>
+      <c r="H269" s="59"/>
       <c r="I269" s="38" t="s">
         <v>230</v>
       </c>
@@ -7213,14 +7231,14 @@
       </c>
     </row>
     <row r="270" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="54"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="54"/>
-      <c r="D270" s="68"/>
-      <c r="E270" s="57"/>
-      <c r="F270" s="57"/>
-      <c r="G270" s="57"/>
-      <c r="H270" s="57"/>
+      <c r="A270" s="56"/>
+      <c r="B270" s="57"/>
+      <c r="C270" s="56"/>
+      <c r="D270" s="58"/>
+      <c r="E270" s="59"/>
+      <c r="F270" s="59"/>
+      <c r="G270" s="59"/>
+      <c r="H270" s="59"/>
       <c r="I270" s="38" t="s">
         <v>40</v>
       </c>
@@ -7229,14 +7247,14 @@
       </c>
     </row>
     <row r="271" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="54"/>
-      <c r="B271" s="55"/>
-      <c r="C271" s="54"/>
-      <c r="D271" s="68"/>
-      <c r="E271" s="57"/>
-      <c r="F271" s="57"/>
-      <c r="G271" s="57"/>
-      <c r="H271" s="57"/>
+      <c r="A271" s="56"/>
+      <c r="B271" s="57"/>
+      <c r="C271" s="56"/>
+      <c r="D271" s="58"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="59"/>
+      <c r="H271" s="59"/>
       <c r="I271" s="38" t="s">
         <v>38</v>
       </c>
@@ -7245,14 +7263,14 @@
       </c>
     </row>
     <row r="272" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="54"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="54"/>
-      <c r="D272" s="68"/>
-      <c r="E272" s="57"/>
-      <c r="F272" s="57"/>
-      <c r="G272" s="57"/>
-      <c r="H272" s="57"/>
+      <c r="A272" s="56"/>
+      <c r="B272" s="57"/>
+      <c r="C272" s="56"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="59"/>
+      <c r="F272" s="59"/>
+      <c r="G272" s="59"/>
+      <c r="H272" s="59"/>
       <c r="I272" s="40" t="s">
         <v>231</v>
       </c>
@@ -7262,28 +7280,28 @@
       </c>
     </row>
     <row r="273" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="54" t="s">
+      <c r="A273" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B273" s="55" t="s">
+      <c r="B273" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="C273" s="54" t="s">
+      <c r="C273" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="D273" s="68" t="s">
+      <c r="D273" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E273" s="57" t="s">
+      <c r="E273" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F273" s="57" t="s">
+      <c r="F273" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G273" s="57" t="s">
+      <c r="G273" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="H273" s="57" t="s">
+      <c r="H273" s="59" t="s">
         <v>14</v>
       </c>
       <c r="I273" s="41" t="s">
@@ -7294,14 +7312,14 @@
       </c>
     </row>
     <row r="274" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="54"/>
-      <c r="B274" s="55"/>
-      <c r="C274" s="54"/>
-      <c r="D274" s="68"/>
-      <c r="E274" s="57"/>
-      <c r="F274" s="57"/>
-      <c r="G274" s="57"/>
-      <c r="H274" s="57"/>
+      <c r="A274" s="56"/>
+      <c r="B274" s="57"/>
+      <c r="C274" s="56"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="59"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="59"/>
+      <c r="H274" s="59"/>
       <c r="I274" s="38" t="s">
         <v>39</v>
       </c>
@@ -7310,14 +7328,14 @@
       </c>
     </row>
     <row r="275" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="54"/>
-      <c r="B275" s="55"/>
-      <c r="C275" s="54"/>
-      <c r="D275" s="68"/>
-      <c r="E275" s="57"/>
-      <c r="F275" s="57"/>
-      <c r="G275" s="57"/>
-      <c r="H275" s="57"/>
+      <c r="A275" s="56"/>
+      <c r="B275" s="57"/>
+      <c r="C275" s="56"/>
+      <c r="D275" s="58"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="59"/>
       <c r="I275" s="38" t="s">
         <v>230</v>
       </c>
@@ -7326,14 +7344,14 @@
       </c>
     </row>
     <row r="276" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="54"/>
-      <c r="B276" s="55"/>
-      <c r="C276" s="54"/>
-      <c r="D276" s="68"/>
-      <c r="E276" s="57"/>
-      <c r="F276" s="57"/>
-      <c r="G276" s="57"/>
-      <c r="H276" s="57"/>
+      <c r="A276" s="56"/>
+      <c r="B276" s="57"/>
+      <c r="C276" s="56"/>
+      <c r="D276" s="58"/>
+      <c r="E276" s="59"/>
+      <c r="F276" s="59"/>
+      <c r="G276" s="59"/>
+      <c r="H276" s="59"/>
       <c r="I276" s="38" t="s">
         <v>40</v>
       </c>
@@ -7342,14 +7360,14 @@
       </c>
     </row>
     <row r="277" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="54"/>
-      <c r="B277" s="55"/>
-      <c r="C277" s="54"/>
-      <c r="D277" s="68"/>
-      <c r="E277" s="57"/>
-      <c r="F277" s="57"/>
-      <c r="G277" s="57"/>
-      <c r="H277" s="57"/>
+      <c r="A277" s="56"/>
+      <c r="B277" s="57"/>
+      <c r="C277" s="56"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="59"/>
+      <c r="H277" s="59"/>
       <c r="I277" s="38" t="s">
         <v>38</v>
       </c>
@@ -7358,14 +7376,14 @@
       </c>
     </row>
     <row r="278" spans="1:10" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="54"/>
-      <c r="B278" s="55"/>
-      <c r="C278" s="54"/>
-      <c r="D278" s="68"/>
-      <c r="E278" s="57"/>
-      <c r="F278" s="57"/>
-      <c r="G278" s="57"/>
-      <c r="H278" s="57"/>
+      <c r="A278" s="56"/>
+      <c r="B278" s="57"/>
+      <c r="C278" s="56"/>
+      <c r="D278" s="58"/>
+      <c r="E278" s="59"/>
+      <c r="F278" s="59"/>
+      <c r="G278" s="59"/>
+      <c r="H278" s="59"/>
       <c r="I278" s="40" t="s">
         <v>231</v>
       </c>
@@ -7374,368 +7392,129 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
+    <row r="279" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C279" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="D279" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F279" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G279" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="H279" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I279" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J279" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="56"/>
+      <c r="B280" s="57"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="58"/>
+      <c r="E280" s="59"/>
+      <c r="F280" s="59"/>
+      <c r="G280" s="59"/>
+      <c r="H280" s="60"/>
+      <c r="I280" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J280" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="56"/>
+      <c r="B281" s="57"/>
+      <c r="C281" s="56"/>
+      <c r="D281" s="58"/>
+      <c r="E281" s="59"/>
+      <c r="F281" s="59"/>
+      <c r="G281" s="59"/>
+      <c r="H281" s="60"/>
+      <c r="I281" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J281" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="56"/>
+      <c r="B282" s="57"/>
+      <c r="C282" s="56"/>
+      <c r="D282" s="58"/>
+      <c r="E282" s="59"/>
+      <c r="F282" s="59"/>
+      <c r="G282" s="59"/>
+      <c r="H282" s="60"/>
+      <c r="I282" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J282" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="56"/>
+      <c r="B283" s="57"/>
+      <c r="C283" s="56"/>
+      <c r="D283" s="58"/>
+      <c r="E283" s="59"/>
+      <c r="F283" s="59"/>
+      <c r="G283" s="59"/>
+      <c r="H283" s="60"/>
+      <c r="I283" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J283" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="56"/>
+      <c r="B284" s="57"/>
+      <c r="C284" s="56"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="59"/>
+      <c r="F284" s="59"/>
+      <c r="G284" s="59"/>
+      <c r="H284" s="60"/>
+      <c r="I284" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J284" s="50">
+        <f>AVERAGE(J279:J283)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="377">
-    <mergeCell ref="A267:A272"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C267:C272"/>
-    <mergeCell ref="D267:D272"/>
-    <mergeCell ref="E267:E272"/>
-    <mergeCell ref="F267:F272"/>
-    <mergeCell ref="G267:G272"/>
-    <mergeCell ref="H267:H272"/>
-    <mergeCell ref="A273:A278"/>
-    <mergeCell ref="B273:B278"/>
-    <mergeCell ref="C273:C278"/>
-    <mergeCell ref="D273:D278"/>
-    <mergeCell ref="E273:E278"/>
-    <mergeCell ref="F273:F278"/>
-    <mergeCell ref="G273:G278"/>
-    <mergeCell ref="H273:H278"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="C255:C260"/>
-    <mergeCell ref="D255:D260"/>
-    <mergeCell ref="E255:E260"/>
-    <mergeCell ref="F255:F260"/>
-    <mergeCell ref="G255:G260"/>
-    <mergeCell ref="H255:H260"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="C261:C266"/>
-    <mergeCell ref="D261:D266"/>
-    <mergeCell ref="E261:E266"/>
-    <mergeCell ref="F261:F266"/>
-    <mergeCell ref="G261:G266"/>
-    <mergeCell ref="H261:H266"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="D243:D248"/>
-    <mergeCell ref="E243:E248"/>
-    <mergeCell ref="F243:F248"/>
-    <mergeCell ref="G243:G248"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="A249:A254"/>
-    <mergeCell ref="B249:B254"/>
-    <mergeCell ref="C249:C254"/>
-    <mergeCell ref="D249:D254"/>
-    <mergeCell ref="E249:E254"/>
-    <mergeCell ref="F249:F254"/>
-    <mergeCell ref="G249:G254"/>
-    <mergeCell ref="H249:H254"/>
-    <mergeCell ref="G231:G236"/>
-    <mergeCell ref="H231:H236"/>
-    <mergeCell ref="A237:A242"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="D237:D242"/>
-    <mergeCell ref="E237:E242"/>
-    <mergeCell ref="F237:F242"/>
-    <mergeCell ref="G237:G242"/>
-    <mergeCell ref="H237:H242"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D231:D236"/>
-    <mergeCell ref="E231:E236"/>
-    <mergeCell ref="F231:F236"/>
-    <mergeCell ref="G219:G224"/>
-    <mergeCell ref="H219:H224"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:D230"/>
-    <mergeCell ref="E225:E230"/>
-    <mergeCell ref="F225:F230"/>
-    <mergeCell ref="G225:G230"/>
-    <mergeCell ref="H225:H230"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="E219:E224"/>
-    <mergeCell ref="F219:F224"/>
-    <mergeCell ref="G207:G212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="D213:D218"/>
-    <mergeCell ref="E213:E218"/>
-    <mergeCell ref="F213:F218"/>
-    <mergeCell ref="G213:G218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="F201:F206"/>
-    <mergeCell ref="G201:G206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="F189:F194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="F183:F188"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="F177:F182"/>
-    <mergeCell ref="G177:G182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="E171:E176"/>
-    <mergeCell ref="F171:F176"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="F165:F170"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="E159:E164"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="H147:H152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="E147:E152"/>
-    <mergeCell ref="F147:F152"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="H135:H140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
-    <mergeCell ref="G141:G146"/>
-    <mergeCell ref="H141:H146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="E135:E140"/>
-    <mergeCell ref="F135:F140"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="H123:H128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="H129:H134"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="H111:H116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H117:H122"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="G99:G104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="F105:F110"/>
-    <mergeCell ref="G105:G110"/>
-    <mergeCell ref="H105:H110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="H87:H92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="F93:F98"/>
-    <mergeCell ref="G93:G98"/>
-    <mergeCell ref="H93:H98"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="F81:F86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="H81:H86"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
+  <mergeCells count="385">
+    <mergeCell ref="A279:A284"/>
+    <mergeCell ref="B279:B284"/>
+    <mergeCell ref="C279:C284"/>
+    <mergeCell ref="D279:D284"/>
+    <mergeCell ref="E279:E284"/>
+    <mergeCell ref="F279:F284"/>
+    <mergeCell ref="G279:G284"/>
+    <mergeCell ref="H279:H284"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:J2"/>
@@ -7753,6 +7532,366 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="H81:H86"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="H87:H92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="F93:F98"/>
+    <mergeCell ref="G93:G98"/>
+    <mergeCell ref="H93:H98"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G99:G104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="G105:G110"/>
+    <mergeCell ref="H105:H110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="H111:H116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="H135:H140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="G141:G146"/>
+    <mergeCell ref="H141:H146"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="E135:E140"/>
+    <mergeCell ref="F135:F140"/>
+    <mergeCell ref="G147:G152"/>
+    <mergeCell ref="H147:H152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E152"/>
+    <mergeCell ref="F147:F152"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="F165:F170"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="F177:F182"/>
+    <mergeCell ref="G177:G182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="F171:F176"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="F189:F194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F201:F206"/>
+    <mergeCell ref="G201:G206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G207:G212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="C213:C218"/>
+    <mergeCell ref="D213:D218"/>
+    <mergeCell ref="E213:E218"/>
+    <mergeCell ref="F213:F218"/>
+    <mergeCell ref="G213:G218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="G219:G224"/>
+    <mergeCell ref="H219:H224"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:D230"/>
+    <mergeCell ref="E225:E230"/>
+    <mergeCell ref="F225:F230"/>
+    <mergeCell ref="G225:G230"/>
+    <mergeCell ref="H225:H230"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="C219:C224"/>
+    <mergeCell ref="D219:D224"/>
+    <mergeCell ref="E219:E224"/>
+    <mergeCell ref="F219:F224"/>
+    <mergeCell ref="G231:G236"/>
+    <mergeCell ref="H231:H236"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="D237:D242"/>
+    <mergeCell ref="E237:E242"/>
+    <mergeCell ref="F237:F242"/>
+    <mergeCell ref="G237:G242"/>
+    <mergeCell ref="H237:H242"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D231:D236"/>
+    <mergeCell ref="E231:E236"/>
+    <mergeCell ref="F231:F236"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="D243:D248"/>
+    <mergeCell ref="E243:E248"/>
+    <mergeCell ref="F243:F248"/>
+    <mergeCell ref="G243:G248"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="F249:F254"/>
+    <mergeCell ref="G249:G254"/>
+    <mergeCell ref="H249:H254"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="C255:C260"/>
+    <mergeCell ref="D255:D260"/>
+    <mergeCell ref="E255:E260"/>
+    <mergeCell ref="F255:F260"/>
+    <mergeCell ref="G255:G260"/>
+    <mergeCell ref="H255:H260"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="C261:C266"/>
+    <mergeCell ref="D261:D266"/>
+    <mergeCell ref="E261:E266"/>
+    <mergeCell ref="F261:F266"/>
+    <mergeCell ref="G261:G266"/>
+    <mergeCell ref="H261:H266"/>
+    <mergeCell ref="A267:A272"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C267:C272"/>
+    <mergeCell ref="D267:D272"/>
+    <mergeCell ref="E267:E272"/>
+    <mergeCell ref="F267:F272"/>
+    <mergeCell ref="G267:G272"/>
+    <mergeCell ref="H267:H272"/>
+    <mergeCell ref="A273:A278"/>
+    <mergeCell ref="B273:B278"/>
+    <mergeCell ref="C273:C278"/>
+    <mergeCell ref="D273:D278"/>
+    <mergeCell ref="E273:E278"/>
+    <mergeCell ref="F273:F278"/>
+    <mergeCell ref="G273:G278"/>
+    <mergeCell ref="H273:H278"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J14">
     <cfRule type="dataBar" priority="42">
@@ -8328,7 +8467,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J273:J278">
+  <conditionalFormatting sqref="J273:J284">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8395,10 +8534,12 @@
     <hyperlink ref="B267:B272" r:id="rId50" display="Steppe Rider" xr:uid="{4A85C08D-ECAE-4642-ADE4-C2C01657125C}"/>
     <hyperlink ref="B273" r:id="rId51" display="Divine Domain - Destruction" xr:uid="{E9A9A2EF-1499-40CC-9A20-5B7D07579ED7}"/>
     <hyperlink ref="B273:B278" r:id="rId52" display="Divine Domain - Sea (Includes Variants for River and Swamp)" xr:uid="{5173F4AE-E948-49E0-9F7A-6D54E9D224D2}"/>
+    <hyperlink ref="B279" r:id="rId53" display="Divine Domain - Destruction" xr:uid="{2D4B8D2E-D73D-4C9E-BFED-B30FB50B651C}"/>
+    <hyperlink ref="B279:B284" r:id="rId54" display="Arsonist" xr:uid="{A62AD74F-CB91-4F8D-AD21-408E178DA375}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
-  <legacyDrawing r:id="rId54"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId55"/>
+  <legacyDrawing r:id="rId56"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9030,7 +9171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J273:J278</xm:sqref>
+          <xm:sqref>J273:J284</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9087,81 +9228,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="79" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="74" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="74" t="s">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="80" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
@@ -9180,7 +9321,7 @@
       <c r="N2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="74"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="5" t="s">
         <v>2</v>
       </c>
@@ -9217,7 +9358,7 @@
       <c r="AA2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AB2" s="74"/>
+      <c r="AB2" s="80"/>
       <c r="AC2" s="5" t="s">
         <v>11</v>
       </c>
@@ -9242,7 +9383,7 @@
       <c r="AJ2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="74"/>
+      <c r="AK2" s="80"/>
     </row>
     <row r="3" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
@@ -13495,6 +13636,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AC1:AJ1"/>
     <mergeCell ref="P1:AA1"/>
@@ -13502,13 +13650,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="AC3:AJ3">
     <cfRule type="dataBar" priority="323">
@@ -13645,20 +13786,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="30" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13737,20 +13878,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -13825,7 +13966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C54C3A-E2A8-468E-8A4A-F1EC259E4790}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -13833,7 +13974,7 @@
   <cols>
     <col min="1" max="1" width="18.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="54" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="44" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="44" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="44"/>
@@ -13857,16 +13998,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="52" t="s">
         <v>241</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="52" t="s">
         <v>237</v>
       </c>
       <c r="E2" s="48" t="s">
@@ -13875,21 +14016,21 @@
     </row>
     <row r="3" spans="1:5" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="52" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="82"/>
+      <c r="D4" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/PlaytestOptions.xlsx
+++ b/PlaytestOptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8975CB3-346A-4C99-B35B-7EB08B56A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF182C0-1011-4AD0-9B4A-6A2C86D2F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1756,39 +1756,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,6 +1778,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,10 +2127,10 @@
   <dimension ref="A1:N284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H286" sqref="H286"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,50 +2149,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="75"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
@@ -2204,7 +2204,7 @@
       <c r="C3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="65" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="59" t="s">
@@ -2223,14 +2223,14 @@
         <v>37</v>
       </c>
       <c r="J3" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="56"/>
-      <c r="D4" s="76"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="59"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -2239,14 +2239,14 @@
         <v>39</v>
       </c>
       <c r="J4" s="39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="56"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="59"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
@@ -2262,7 +2262,7 @@
       <c r="A6" s="56"/>
       <c r="B6" s="57"/>
       <c r="C6" s="56"/>
-      <c r="D6" s="76"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="59"/>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
@@ -2278,7 +2278,7 @@
       <c r="A7" s="56"/>
       <c r="B7" s="57"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="59"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
@@ -2294,7 +2294,7 @@
       <c r="A8" s="56"/>
       <c r="B8" s="57"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="59"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
@@ -2308,28 +2308,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="78" t="s">
         <v>145</v>
       </c>
       <c r="I9" s="41" t="s">
@@ -2341,7 +2341,7 @@
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="56"/>
       <c r="D10" s="58"/>
       <c r="E10" s="59"/>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="67"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="56"/>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="67"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="56"/>
       <c r="D12" s="58"/>
       <c r="E12" s="59"/>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="67"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="56"/>
       <c r="D13" s="58"/>
       <c r="E13" s="59"/>
@@ -2404,14 +2404,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="40" t="s">
         <v>231</v>
       </c>
@@ -2421,28 +2421,28 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="78" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="41" t="s">
@@ -2454,7 +2454,7 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="67"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="56"/>
       <c r="D16" s="58"/>
       <c r="E16" s="59"/>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="67"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="56"/>
       <c r="D17" s="58"/>
       <c r="E17" s="59"/>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="67"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="56"/>
       <c r="D18" s="58"/>
       <c r="E18" s="59"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="67"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="56"/>
       <c r="D19" s="58"/>
       <c r="E19" s="59"/>
@@ -2517,14 +2517,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="40" t="s">
         <v>231</v>
       </c>
@@ -2534,28 +2534,28 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="78" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="41" t="s">
@@ -7421,7 +7421,7 @@
         <v>37</v>
       </c>
       <c r="J279" s="42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -7469,7 +7469,7 @@
         <v>40</v>
       </c>
       <c r="J282" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -7502,60 +7502,331 @@
       </c>
       <c r="J284" s="50">
         <f>AVERAGE(J279:J283)</f>
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="A279:A284"/>
-    <mergeCell ref="B279:B284"/>
-    <mergeCell ref="C279:C284"/>
-    <mergeCell ref="D279:D284"/>
-    <mergeCell ref="E279:E284"/>
-    <mergeCell ref="F279:F284"/>
-    <mergeCell ref="G279:G284"/>
-    <mergeCell ref="H279:H284"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A267:A272"/>
+    <mergeCell ref="B267:B272"/>
+    <mergeCell ref="C267:C272"/>
+    <mergeCell ref="D267:D272"/>
+    <mergeCell ref="E267:E272"/>
+    <mergeCell ref="F267:F272"/>
+    <mergeCell ref="G267:G272"/>
+    <mergeCell ref="H267:H272"/>
+    <mergeCell ref="A273:A278"/>
+    <mergeCell ref="B273:B278"/>
+    <mergeCell ref="C273:C278"/>
+    <mergeCell ref="D273:D278"/>
+    <mergeCell ref="E273:E278"/>
+    <mergeCell ref="F273:F278"/>
+    <mergeCell ref="G273:G278"/>
+    <mergeCell ref="H273:H278"/>
+    <mergeCell ref="A255:A260"/>
+    <mergeCell ref="B255:B260"/>
+    <mergeCell ref="C255:C260"/>
+    <mergeCell ref="D255:D260"/>
+    <mergeCell ref="E255:E260"/>
+    <mergeCell ref="F255:F260"/>
+    <mergeCell ref="G255:G260"/>
+    <mergeCell ref="H255:H260"/>
+    <mergeCell ref="A261:A266"/>
+    <mergeCell ref="B261:B266"/>
+    <mergeCell ref="C261:C266"/>
+    <mergeCell ref="D261:D266"/>
+    <mergeCell ref="E261:E266"/>
+    <mergeCell ref="F261:F266"/>
+    <mergeCell ref="G261:G266"/>
+    <mergeCell ref="H261:H266"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="C243:C248"/>
+    <mergeCell ref="D243:D248"/>
+    <mergeCell ref="E243:E248"/>
+    <mergeCell ref="F243:F248"/>
+    <mergeCell ref="G243:G248"/>
+    <mergeCell ref="H243:H248"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="F249:F254"/>
+    <mergeCell ref="G249:G254"/>
+    <mergeCell ref="H249:H254"/>
+    <mergeCell ref="G231:G236"/>
+    <mergeCell ref="H231:H236"/>
+    <mergeCell ref="A237:A242"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="D237:D242"/>
+    <mergeCell ref="E237:E242"/>
+    <mergeCell ref="F237:F242"/>
+    <mergeCell ref="G237:G242"/>
+    <mergeCell ref="H237:H242"/>
+    <mergeCell ref="A231:A236"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="C231:C236"/>
+    <mergeCell ref="D231:D236"/>
+    <mergeCell ref="E231:E236"/>
+    <mergeCell ref="F231:F236"/>
+    <mergeCell ref="G219:G224"/>
+    <mergeCell ref="H219:H224"/>
+    <mergeCell ref="A225:A230"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="C225:C230"/>
+    <mergeCell ref="D225:D230"/>
+    <mergeCell ref="E225:E230"/>
+    <mergeCell ref="F225:F230"/>
+    <mergeCell ref="G225:G230"/>
+    <mergeCell ref="H225:H230"/>
+    <mergeCell ref="A219:A224"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="C219:C224"/>
+    <mergeCell ref="D219:D224"/>
+    <mergeCell ref="E219:E224"/>
+    <mergeCell ref="F219:F224"/>
+    <mergeCell ref="G207:G212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="A213:A218"/>
+    <mergeCell ref="B213:B218"/>
+    <mergeCell ref="C213:C218"/>
+    <mergeCell ref="D213:D218"/>
+    <mergeCell ref="E213:E218"/>
+    <mergeCell ref="F213:F218"/>
+    <mergeCell ref="G213:G218"/>
+    <mergeCell ref="H213:H218"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="D207:D212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="F201:F206"/>
+    <mergeCell ref="G201:G206"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G183:G188"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="F189:F194"/>
+    <mergeCell ref="G189:G194"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="F183:F188"/>
+    <mergeCell ref="G171:G176"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="F177:F182"/>
+    <mergeCell ref="G177:G182"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="E171:E176"/>
+    <mergeCell ref="F171:F176"/>
+    <mergeCell ref="G159:G164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="F165:F170"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="E159:E164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="G147:G152"/>
+    <mergeCell ref="H147:H152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E152"/>
+    <mergeCell ref="F147:F152"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="H135:H140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="C141:C146"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E141:E146"/>
+    <mergeCell ref="F141:F146"/>
+    <mergeCell ref="G141:G146"/>
+    <mergeCell ref="H141:H146"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="D135:D140"/>
+    <mergeCell ref="E135:E140"/>
+    <mergeCell ref="F135:F140"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="H123:H128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="H111:H116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="G99:G104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="G105:G110"/>
+    <mergeCell ref="H105:H110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="H87:H92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="D93:D98"/>
+    <mergeCell ref="E93:E98"/>
+    <mergeCell ref="F93:F98"/>
+    <mergeCell ref="G93:G98"/>
+    <mergeCell ref="H93:H98"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="C87:C92"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G75:G80"/>
+    <mergeCell ref="H75:H80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="C81:C86"/>
+    <mergeCell ref="D81:D86"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="G81:G86"/>
+    <mergeCell ref="H81:H86"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
     <mergeCell ref="G27:G32"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="A33:A38"/>
@@ -7572,326 +7843,55 @@
     <mergeCell ref="D27:D32"/>
     <mergeCell ref="E27:E32"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="H75:H80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="C81:C86"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="E81:E86"/>
-    <mergeCell ref="F81:F86"/>
-    <mergeCell ref="G81:G86"/>
-    <mergeCell ref="H81:H86"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="H87:H92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="D93:D98"/>
-    <mergeCell ref="E93:E98"/>
-    <mergeCell ref="F93:F98"/>
-    <mergeCell ref="G93:G98"/>
-    <mergeCell ref="H93:H98"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="C87:C92"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G99:G104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="F105:F110"/>
-    <mergeCell ref="G105:G110"/>
-    <mergeCell ref="H105:H110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="H111:H116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H117:H122"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="H123:H128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="H129:H134"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="H135:H140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="C141:C146"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E141:E146"/>
-    <mergeCell ref="F141:F146"/>
-    <mergeCell ref="G141:G146"/>
-    <mergeCell ref="H141:H146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="D135:D140"/>
-    <mergeCell ref="E135:E140"/>
-    <mergeCell ref="F135:F140"/>
-    <mergeCell ref="G147:G152"/>
-    <mergeCell ref="H147:H152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="E147:E152"/>
-    <mergeCell ref="F147:F152"/>
-    <mergeCell ref="G159:G164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="F165:F170"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="E159:E164"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="G171:G176"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="F177:F182"/>
-    <mergeCell ref="G177:G182"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="E171:E176"/>
-    <mergeCell ref="F171:F176"/>
-    <mergeCell ref="G183:G188"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="F189:F194"/>
-    <mergeCell ref="G189:G194"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="F183:F188"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="F201:F206"/>
-    <mergeCell ref="G201:G206"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G207:G212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="A213:A218"/>
-    <mergeCell ref="B213:B218"/>
-    <mergeCell ref="C213:C218"/>
-    <mergeCell ref="D213:D218"/>
-    <mergeCell ref="E213:E218"/>
-    <mergeCell ref="F213:F218"/>
-    <mergeCell ref="G213:G218"/>
-    <mergeCell ref="H213:H218"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="D207:D212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="G219:G224"/>
-    <mergeCell ref="H219:H224"/>
-    <mergeCell ref="A225:A230"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="C225:C230"/>
-    <mergeCell ref="D225:D230"/>
-    <mergeCell ref="E225:E230"/>
-    <mergeCell ref="F225:F230"/>
-    <mergeCell ref="G225:G230"/>
-    <mergeCell ref="H225:H230"/>
-    <mergeCell ref="A219:A224"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="C219:C224"/>
-    <mergeCell ref="D219:D224"/>
-    <mergeCell ref="E219:E224"/>
-    <mergeCell ref="F219:F224"/>
-    <mergeCell ref="G231:G236"/>
-    <mergeCell ref="H231:H236"/>
-    <mergeCell ref="A237:A242"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="D237:D242"/>
-    <mergeCell ref="E237:E242"/>
-    <mergeCell ref="F237:F242"/>
-    <mergeCell ref="G237:G242"/>
-    <mergeCell ref="H237:H242"/>
-    <mergeCell ref="A231:A236"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="C231:C236"/>
-    <mergeCell ref="D231:D236"/>
-    <mergeCell ref="E231:E236"/>
-    <mergeCell ref="F231:F236"/>
-    <mergeCell ref="A243:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="D243:D248"/>
-    <mergeCell ref="E243:E248"/>
-    <mergeCell ref="F243:F248"/>
-    <mergeCell ref="G243:G248"/>
-    <mergeCell ref="H243:H248"/>
-    <mergeCell ref="A249:A254"/>
-    <mergeCell ref="B249:B254"/>
-    <mergeCell ref="C249:C254"/>
-    <mergeCell ref="D249:D254"/>
-    <mergeCell ref="E249:E254"/>
-    <mergeCell ref="F249:F254"/>
-    <mergeCell ref="G249:G254"/>
-    <mergeCell ref="H249:H254"/>
-    <mergeCell ref="A255:A260"/>
-    <mergeCell ref="B255:B260"/>
-    <mergeCell ref="C255:C260"/>
-    <mergeCell ref="D255:D260"/>
-    <mergeCell ref="E255:E260"/>
-    <mergeCell ref="F255:F260"/>
-    <mergeCell ref="G255:G260"/>
-    <mergeCell ref="H255:H260"/>
-    <mergeCell ref="A261:A266"/>
-    <mergeCell ref="B261:B266"/>
-    <mergeCell ref="C261:C266"/>
-    <mergeCell ref="D261:D266"/>
-    <mergeCell ref="E261:E266"/>
-    <mergeCell ref="F261:F266"/>
-    <mergeCell ref="G261:G266"/>
-    <mergeCell ref="H261:H266"/>
-    <mergeCell ref="A267:A272"/>
-    <mergeCell ref="B267:B272"/>
-    <mergeCell ref="C267:C272"/>
-    <mergeCell ref="D267:D272"/>
-    <mergeCell ref="E267:E272"/>
-    <mergeCell ref="F267:F272"/>
-    <mergeCell ref="G267:G272"/>
-    <mergeCell ref="H267:H272"/>
-    <mergeCell ref="A273:A278"/>
-    <mergeCell ref="B273:B278"/>
-    <mergeCell ref="C273:C278"/>
-    <mergeCell ref="D273:D278"/>
-    <mergeCell ref="E273:E278"/>
-    <mergeCell ref="F273:F278"/>
-    <mergeCell ref="G273:G278"/>
-    <mergeCell ref="H273:H278"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A279:A284"/>
+    <mergeCell ref="B279:B284"/>
+    <mergeCell ref="C279:C284"/>
+    <mergeCell ref="D279:D284"/>
+    <mergeCell ref="E279:E284"/>
+    <mergeCell ref="F279:F284"/>
+    <mergeCell ref="G279:G284"/>
+    <mergeCell ref="H279:H284"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J14">
     <cfRule type="dataBar" priority="42">
@@ -9228,38 +9228,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="63" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
       <c r="L1" s="84"/>
       <c r="M1" s="84"/>
-      <c r="N1" s="78"/>
+      <c r="N1" s="67"/>
       <c r="O1" s="85" t="s">
         <v>208</v>
       </c>
@@ -9295,14 +9295,14 @@
       </c>
     </row>
     <row r="2" spans="1:37" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
@@ -13636,6 +13636,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="A1:A2"/>
@@ -13643,13 +13650,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="AC3:AJ3">
     <cfRule type="dataBar" priority="323">
